--- a/results/SummaryTable_Area_wTotals_formatted.xlsx
+++ b/results/SummaryTable_Area_wTotals_formatted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Centers-Capacity-Tool\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23973570-D36C-4BC5-B38A-6CA7909B228F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8EDC23-4621-4CEC-AE7C-7551D0DA504F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15990" windowHeight="24840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15630" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formatted" sheetId="1" r:id="rId1"/>
@@ -28,14 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="159">
   <si>
     <t>Acres</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Change</t>
   </si>
   <si>
@@ -366,349 +363,154 @@
     <t>1100 North Center</t>
   </si>
   <si>
-    <t>_TOD 341</t>
-  </si>
-  <si>
-    <t>_TOD 340</t>
-  </si>
-  <si>
-    <t>_TOD 339</t>
-  </si>
-  <si>
-    <t>_TOD 338</t>
-  </si>
-  <si>
-    <t>_TOD 337</t>
-  </si>
-  <si>
-    <t>_TOD 336</t>
-  </si>
-  <si>
-    <t>_TOD 335</t>
-  </si>
-  <si>
-    <t>_TOD 334</t>
-  </si>
-  <si>
-    <t>_TOD 333</t>
-  </si>
-  <si>
-    <t>_TOD 331</t>
-  </si>
-  <si>
-    <t>_TOD 330</t>
-  </si>
-  <si>
-    <t>_TOD 329</t>
-  </si>
-  <si>
-    <t>_TOD 328</t>
-  </si>
-  <si>
-    <t>_TOD 327</t>
-  </si>
-  <si>
-    <t>_TOD 326</t>
-  </si>
-  <si>
-    <t>_TOD 325</t>
-  </si>
-  <si>
-    <t>_TOD 324</t>
-  </si>
-  <si>
-    <t>_TOD 323</t>
-  </si>
-  <si>
-    <t>_TOD 322</t>
-  </si>
-  <si>
-    <t>_TOD 321</t>
-  </si>
-  <si>
-    <t>_TOD 320</t>
-  </si>
-  <si>
-    <t>_TOD 319</t>
-  </si>
-  <si>
-    <t>_TOD 318</t>
-  </si>
-  <si>
-    <t>_TOD 317</t>
-  </si>
-  <si>
-    <t>_TOD 316</t>
-  </si>
-  <si>
-    <t>_TOD 315</t>
-  </si>
-  <si>
-    <t>_TOD 314</t>
-  </si>
-  <si>
-    <t>_TOD 313</t>
-  </si>
-  <si>
-    <t>_TOD 312</t>
-  </si>
-  <si>
-    <t>_TOD 311</t>
-  </si>
-  <si>
-    <t>_TOD 310</t>
-  </si>
-  <si>
-    <t>_TOD 309</t>
-  </si>
-  <si>
-    <t>_TOD 308</t>
-  </si>
-  <si>
-    <t>_TOD 307</t>
-  </si>
-  <si>
-    <t>_TOD 306</t>
-  </si>
-  <si>
-    <t>_TOD 305</t>
-  </si>
-  <si>
-    <t>_TOD 304</t>
-  </si>
-  <si>
-    <t>_TOD 303</t>
-  </si>
-  <si>
-    <t>_TOD 302</t>
-  </si>
-  <si>
-    <t>_TOD 301</t>
-  </si>
-  <si>
-    <t>_TOD 300</t>
-  </si>
-  <si>
-    <t>_TOD 299</t>
-  </si>
-  <si>
-    <t>_TOD 298</t>
-  </si>
-  <si>
-    <t>_TOD 297</t>
-  </si>
-  <si>
-    <t>_TOD 296</t>
-  </si>
-  <si>
-    <t>_TOD 295</t>
-  </si>
-  <si>
-    <t>_TOD 294</t>
-  </si>
-  <si>
-    <t>_TOD 293</t>
-  </si>
-  <si>
-    <t>_TOD 292</t>
-  </si>
-  <si>
-    <t>_TOD 291</t>
-  </si>
-  <si>
-    <t>_TOD 290</t>
-  </si>
-  <si>
-    <t>_TOD 289</t>
-  </si>
-  <si>
-    <t>_TOD 288</t>
-  </si>
-  <si>
-    <t>_TOD 287</t>
-  </si>
-  <si>
-    <t>_TOD 286</t>
-  </si>
-  <si>
-    <t>_TOD 285</t>
-  </si>
-  <si>
-    <t>_TOD 284</t>
-  </si>
-  <si>
-    <t>_TOD 283</t>
-  </si>
-  <si>
-    <t>_TOD 282</t>
-  </si>
-  <si>
-    <t>_TOD 281</t>
-  </si>
-  <si>
-    <t>_TOD 280</t>
-  </si>
-  <si>
-    <t>_TOD 279</t>
-  </si>
-  <si>
-    <t>_TOD 278</t>
-  </si>
-  <si>
-    <t>_TOD 277</t>
-  </si>
-  <si>
-    <t>_TOD 276</t>
-  </si>
-  <si>
-    <t>_TOD 275</t>
-  </si>
-  <si>
-    <t>_TOD 274</t>
-  </si>
-  <si>
-    <t>_TOD 273</t>
-  </si>
-  <si>
-    <t>_TOD 271</t>
-  </si>
-  <si>
-    <t>_TOD 270</t>
-  </si>
-  <si>
-    <t>_TOD 269</t>
-  </si>
-  <si>
-    <t>_TOD 268</t>
-  </si>
-  <si>
-    <t>_TOD 267</t>
-  </si>
-  <si>
-    <t>_TOD 266</t>
-  </si>
-  <si>
-    <t>_TOD 265</t>
-  </si>
-  <si>
-    <t>_TOD 264</t>
-  </si>
-  <si>
-    <t>_TOD 263</t>
-  </si>
-  <si>
-    <t>_TOD 262</t>
-  </si>
-  <si>
-    <t>_TOD 261</t>
-  </si>
-  <si>
-    <t>_TOD 260</t>
-  </si>
-  <si>
-    <t>_TOD 259</t>
-  </si>
-  <si>
-    <t>_TOD 258</t>
-  </si>
-  <si>
-    <t>_TOD 257</t>
-  </si>
-  <si>
-    <t>_TOD 256</t>
-  </si>
-  <si>
-    <t>_TOD 255</t>
-  </si>
-  <si>
-    <t>_TOD 254</t>
-  </si>
-  <si>
-    <t>_TOD 253</t>
-  </si>
-  <si>
-    <t>_TOD 252</t>
-  </si>
-  <si>
-    <t>_TOD 251</t>
-  </si>
-  <si>
-    <t>_TOD 250</t>
-  </si>
-  <si>
-    <t>_TOD 249</t>
-  </si>
-  <si>
-    <t>_TOD 248</t>
-  </si>
-  <si>
-    <t>_TOD 247</t>
-  </si>
-  <si>
-    <t>_TOD 246</t>
-  </si>
-  <si>
-    <t>_TOD 245</t>
-  </si>
-  <si>
-    <t>_TOD 244</t>
-  </si>
-  <si>
-    <t>_TOD 243</t>
-  </si>
-  <si>
-    <t>_TOD 242</t>
-  </si>
-  <si>
-    <t>_TOD 241</t>
-  </si>
-  <si>
-    <t>_TOD 240</t>
-  </si>
-  <si>
-    <t>_TOD 239</t>
-  </si>
-  <si>
-    <t>_TOD 238</t>
-  </si>
-  <si>
-    <t>_TOD 237</t>
-  </si>
-  <si>
-    <t>_TOD 236</t>
-  </si>
-  <si>
-    <t>_TOD 235</t>
-  </si>
-  <si>
-    <t>_TOD 234</t>
-  </si>
-  <si>
-    <t>_TOD 233</t>
-  </si>
-  <si>
-    <t>_TOD 232</t>
-  </si>
-  <si>
-    <t>_TOD 231</t>
-  </si>
-  <si>
-    <t>_TOD 230</t>
-  </si>
-  <si>
-    <t>_TOD 229</t>
-  </si>
-  <si>
-    <t>_TOD 228</t>
-  </si>
-  <si>
-    <t>_TOD 227</t>
-  </si>
-  <si>
-    <t>_TOD 226</t>
-  </si>
-  <si>
     <t>Area Name</t>
+  </si>
+  <si>
+    <t>SOUTH JORDAN PARKWAY LRT NC</t>
+  </si>
+  <si>
+    <t>SOUTH JORDAN CRT NC</t>
+  </si>
+  <si>
+    <t>CLEARFIELD CRT NC</t>
+  </si>
+  <si>
+    <t>HISTORIC GARDNER _x000D_
+ LRT NC</t>
+  </si>
+  <si>
+    <t>MURRAY CRT NC</t>
+  </si>
+  <si>
+    <t>AMERICAN FORK CRT NC</t>
+  </si>
+  <si>
+    <t>POWER LRT NC</t>
+  </si>
+  <si>
+    <t>MURRAY NORTH _x000D_
+ LRT NC</t>
+  </si>
+  <si>
+    <t>1940 W NORTH TEMPLE LRT NC</t>
+  </si>
+  <si>
+    <t>5600 W. OLD BINGHAM HWY LRT NC</t>
+  </si>
+  <si>
+    <t>OREM CENTRAL CRT NC</t>
+  </si>
+  <si>
+    <t>NORTH TEMPLE BRIDGE/GUADALUPE CRT NC</t>
+  </si>
+  <si>
+    <t>JORDAN VALLEY _x000D_
+ LRT NC</t>
+  </si>
+  <si>
+    <t>KIMBALLS LANE LRT NC</t>
+  </si>
+  <si>
+    <t>WOODS CROSS CRT NC</t>
+  </si>
+  <si>
+    <t>DECKER LAKE LRT NC</t>
+  </si>
+  <si>
+    <t>FARMINGTON CRT NC</t>
+  </si>
+  <si>
+    <t>FASHION PLACE WEST _x000D_
+ LRT NC</t>
+  </si>
+  <si>
+    <t>JACKSON/EUCLID LRT NC</t>
+  </si>
+  <si>
+    <t>MILLCREEK LRT NC</t>
+  </si>
+  <si>
+    <t>BALLPARK LRT NC</t>
+  </si>
+  <si>
+    <t>HISTORIC SANDY _x000D_
+ LRT NC</t>
+  </si>
+  <si>
+    <t>LAYTON CRT NC</t>
+  </si>
+  <si>
+    <t>MIDVALE CENTER LRT NC</t>
+  </si>
+  <si>
+    <t>PROVO CENTRAL CRT NC</t>
+  </si>
+  <si>
+    <t>ROY CRT NC</t>
+  </si>
+  <si>
+    <t>900 SOUTH LRT NC</t>
+  </si>
+  <si>
+    <t>DRAPER TOWN CENTER LRT NC</t>
+  </si>
+  <si>
+    <t>RIVER TRAIL LRT NC</t>
+  </si>
+  <si>
+    <t>WEST JORDAN CITY CENTER LRT NC</t>
+  </si>
+  <si>
+    <t>CENTRAL POINTE LRT NC</t>
+  </si>
+  <si>
+    <t>MEADOWBROOK LRT NC</t>
+  </si>
+  <si>
+    <t>MIDVALE FORT UNION LRT NC</t>
+  </si>
+  <si>
+    <t>REDWOOD JUNCTION LRT NC</t>
+  </si>
+  <si>
+    <t>SANDY EXPO LRT NC</t>
+  </si>
+  <si>
+    <t>SUGAR FACTORY RD LRT NC</t>
+  </si>
+  <si>
+    <t>DRAPER CRT NC</t>
+  </si>
+  <si>
+    <t>TROLLEY LRT NC</t>
+  </si>
+  <si>
+    <t>SANDY CIVIC CENTER LRT NC</t>
+  </si>
+  <si>
+    <t>4800 W. OLD BINGHAM HWY _x000D_
+ LRT NC</t>
+  </si>
+  <si>
+    <t>BINGHAM JUNCTION LRT NC</t>
+  </si>
+  <si>
+    <t>CRESCENT VIEW LRT NC</t>
+  </si>
+  <si>
+    <t>LEHI CRT NC</t>
+  </si>
+  <si>
+    <t>AIRPORT LRT NC</t>
+  </si>
+  <si>
+    <t>STADIUM LRT NC</t>
+  </si>
+  <si>
+    <t>UNIVERSITY SOUTH CAMPUS LRT NC</t>
+  </si>
+  <si>
+    <t>WEST VALLEY CENTRAL LRT NC</t>
   </si>
 </sst>
 </file>
@@ -1801,10 +1603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L222"/>
+  <dimension ref="B2:L155"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:K26"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1817,23 +1619,23 @@
   <sheetData>
     <row r="2" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
-        <v>226</v>
+        <v>111</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="24"/>
       <c r="F2" s="25"/>
       <c r="G2" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
       <c r="J2" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K2" s="24"/>
       <c r="L2" s="25"/>
@@ -1842,696 +1644,696 @@
       <c r="B3" s="22"/>
       <c r="C3" s="20"/>
       <c r="D3" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="7">
-        <v>933.74634255398905</v>
+        <v>933.46952034663798</v>
       </c>
       <c r="D4" s="3">
         <v>73600</v>
       </c>
       <c r="E4" s="1">
-        <v>172700</v>
+        <v>172100</v>
       </c>
       <c r="F4" s="5">
-        <v>99100</v>
+        <v>98500</v>
       </c>
       <c r="G4" s="3">
         <v>6400</v>
       </c>
       <c r="H4" s="1">
-        <v>67600</v>
+        <v>57000</v>
       </c>
       <c r="I4" s="1">
-        <v>61200</v>
+        <v>50600</v>
       </c>
       <c r="J4" s="3">
         <v>86</v>
       </c>
       <c r="K4" s="1">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="L4" s="5">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="C5" s="8">
-        <v>216.94276968768699</v>
+        <v>124.54350029075</v>
       </c>
       <c r="D5" s="4">
-        <v>5100</v>
+        <v>2200</v>
       </c>
       <c r="E5" s="2">
-        <v>22100</v>
+        <v>7000</v>
       </c>
       <c r="F5" s="6">
-        <v>17000</v>
+        <v>4800</v>
       </c>
       <c r="G5" s="4">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="H5" s="2">
-        <v>10900</v>
+        <v>2400</v>
       </c>
       <c r="I5" s="2">
-        <v>9900</v>
+        <v>2300</v>
       </c>
       <c r="J5" s="4">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="K5" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="L5" s="6">
-        <v>124</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C6" s="7">
-        <v>124.610936034136</v>
+        <v>825.74286737377497</v>
       </c>
       <c r="D6" s="3">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="E6" s="1">
-        <v>11000</v>
+        <v>32700</v>
       </c>
       <c r="F6" s="5">
-        <v>8800</v>
+        <v>30200</v>
       </c>
       <c r="G6" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H6" s="1">
-        <v>5400</v>
+        <v>13100</v>
       </c>
       <c r="I6" s="1">
-        <v>5300</v>
+        <v>12900</v>
       </c>
       <c r="J6" s="3">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="K6" s="1">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="L6" s="5">
-        <v>113</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="C7" s="8">
-        <v>330.35382468282302</v>
+        <v>700.20815985119896</v>
       </c>
       <c r="D7" s="4">
-        <v>1600</v>
+        <v>9500</v>
       </c>
       <c r="E7" s="2">
-        <v>21000</v>
+        <v>34400</v>
       </c>
       <c r="F7" s="6">
-        <v>19400</v>
+        <v>24900</v>
       </c>
       <c r="G7" s="4">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H7" s="2">
-        <v>11100</v>
+        <v>11500</v>
       </c>
       <c r="I7" s="2">
-        <v>10100</v>
+        <v>10600</v>
       </c>
       <c r="J7" s="4">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K7" s="2">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="L7" s="6">
-        <v>89</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="C8" s="7">
-        <v>825.705552256636</v>
+        <v>330.36080234194799</v>
       </c>
       <c r="D8" s="3">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="E8" s="1">
-        <v>50000</v>
+        <v>12700</v>
       </c>
       <c r="F8" s="5">
-        <v>47500</v>
+        <v>11100</v>
       </c>
       <c r="G8" s="3">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="H8" s="1">
-        <v>24000</v>
+        <v>6500</v>
       </c>
       <c r="I8" s="1">
-        <v>23800</v>
+        <v>5500</v>
       </c>
       <c r="J8" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K8" s="1">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="L8" s="5">
-        <v>87</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="C9" s="8">
-        <v>260.38494904703202</v>
+        <v>216.967153513938</v>
       </c>
       <c r="D9" s="4">
-        <v>7100</v>
+        <v>5100</v>
       </c>
       <c r="E9" s="2">
-        <v>20800</v>
+        <v>11500</v>
       </c>
       <c r="F9" s="6">
-        <v>13700</v>
+        <v>6400</v>
       </c>
       <c r="G9" s="4">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="H9" s="2">
-        <v>9400</v>
+        <v>4600</v>
       </c>
       <c r="I9" s="2">
-        <v>8100</v>
+        <v>3600</v>
       </c>
       <c r="J9" s="4">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K9" s="2">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="L9" s="6">
-        <v>84</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="C10" s="7">
-        <v>1391.74993839431</v>
+        <v>496.188406426987</v>
       </c>
       <c r="D10" s="3">
-        <v>36500</v>
+        <v>16900</v>
       </c>
       <c r="E10" s="1">
-        <v>106900</v>
+        <v>30100</v>
       </c>
       <c r="F10" s="5">
-        <v>70400</v>
+        <v>13200</v>
       </c>
       <c r="G10" s="3">
-        <v>10300</v>
+        <v>700</v>
       </c>
       <c r="H10" s="1">
-        <v>50200</v>
+        <v>7300</v>
       </c>
       <c r="I10" s="1">
-        <v>39900</v>
+        <v>6600</v>
       </c>
       <c r="J10" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K10" s="1">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="L10" s="5">
-        <v>79</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11" s="8">
-        <v>577.33487941266503</v>
+        <v>339.87759333421099</v>
       </c>
       <c r="D11" s="4">
-        <v>14600</v>
+        <v>900</v>
       </c>
       <c r="E11" s="2">
-        <v>42700</v>
+        <v>9400</v>
       </c>
       <c r="F11" s="6">
-        <v>28100</v>
+        <v>8500</v>
       </c>
       <c r="G11" s="4">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="H11" s="2">
-        <v>19000</v>
+        <v>4600</v>
       </c>
       <c r="I11" s="2">
-        <v>17500</v>
+        <v>4200</v>
       </c>
       <c r="J11" s="4">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="K11" s="2">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="L11" s="6">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7">
-        <v>1406.4429486843701</v>
+        <v>1406.49380087586</v>
       </c>
       <c r="D12" s="3">
         <v>26000</v>
       </c>
       <c r="E12" s="1">
-        <v>94700</v>
+        <v>60900</v>
       </c>
       <c r="F12" s="5">
-        <v>68700</v>
+        <v>34900</v>
       </c>
       <c r="G12" s="3">
         <v>2200</v>
       </c>
       <c r="H12" s="1">
-        <v>39000</v>
+        <v>18300</v>
       </c>
       <c r="I12" s="1">
-        <v>36800</v>
+        <v>16100</v>
       </c>
       <c r="J12" s="3">
         <v>20</v>
       </c>
       <c r="K12" s="1">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="L12" s="5">
-        <v>75</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="C13" s="8">
-        <v>496.00083556348</v>
+        <v>494.63289052801701</v>
       </c>
       <c r="D13" s="4">
-        <v>16900</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>40300</v>
+        <v>11300</v>
       </c>
       <c r="F13" s="6">
-        <v>23400</v>
+        <v>11300</v>
       </c>
       <c r="G13" s="4">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="H13" s="2">
-        <v>14000</v>
+        <v>5700</v>
       </c>
       <c r="I13" s="2">
-        <v>13300</v>
+        <v>5600</v>
       </c>
       <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
         <v>35</v>
       </c>
-      <c r="K13" s="2">
-        <v>109</v>
-      </c>
       <c r="L13" s="6">
-        <v>74</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="C14" s="7">
-        <v>315.81196333764802</v>
+        <v>202.028360907456</v>
       </c>
       <c r="D14" s="3">
-        <v>15100</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>29000</v>
+        <v>4600</v>
       </c>
       <c r="F14" s="5">
-        <v>13900</v>
+        <v>4600</v>
       </c>
       <c r="G14" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>14600</v>
+        <v>2300</v>
       </c>
       <c r="I14" s="1">
-        <v>9600</v>
+        <v>2300</v>
       </c>
       <c r="J14" s="3">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="L14" s="5">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="C15" s="8">
-        <v>700.19866539828604</v>
+        <v>197.00882046739301</v>
       </c>
       <c r="D15" s="4">
-        <v>9500</v>
+        <v>4300</v>
       </c>
       <c r="E15" s="2">
-        <v>44000</v>
+        <v>8500</v>
       </c>
       <c r="F15" s="6">
-        <v>34500</v>
+        <v>4200</v>
       </c>
       <c r="G15" s="4">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="H15" s="2">
-        <v>18200</v>
+        <v>2400</v>
       </c>
       <c r="I15" s="2">
-        <v>17300</v>
+        <v>2000</v>
       </c>
       <c r="J15" s="4">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K15" s="2">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="L15" s="6">
-        <v>74</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="C16" s="7">
-        <v>1307.2741390952699</v>
+        <v>85.568222862049893</v>
       </c>
       <c r="D16" s="3">
-        <v>17400</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>67700</v>
+        <v>1700</v>
       </c>
       <c r="F16" s="5">
-        <v>50300</v>
+        <v>1700</v>
       </c>
       <c r="G16" s="3">
-        <v>4200</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>30300</v>
+        <v>800</v>
       </c>
       <c r="I16" s="1">
-        <v>26100</v>
+        <v>800</v>
       </c>
       <c r="J16" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="L16" s="5">
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="C17" s="8">
-        <v>1890.6801130439101</v>
+        <v>117.397956373951</v>
       </c>
       <c r="D17" s="4">
-        <v>20800</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>93100</v>
+        <v>2300</v>
       </c>
       <c r="F17" s="6">
-        <v>72300</v>
+        <v>2300</v>
       </c>
       <c r="G17" s="4">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="H17" s="2">
-        <v>41700</v>
+        <v>1100</v>
       </c>
       <c r="I17" s="2">
-        <v>38400</v>
+        <v>1100</v>
       </c>
       <c r="J17" s="4">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K17" s="2">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="L17" s="6">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C18" s="7">
-        <v>90.007504839441694</v>
+        <v>483.53114811865299</v>
       </c>
       <c r="D18" s="3">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="E18" s="1">
-        <v>4200</v>
+        <v>9800</v>
       </c>
       <c r="F18" s="5">
-        <v>3100</v>
+        <v>9400</v>
       </c>
       <c r="G18" s="3">
         <v>100</v>
       </c>
       <c r="H18" s="1">
-        <v>2000</v>
+        <v>4800</v>
       </c>
       <c r="I18" s="1">
-        <v>1900</v>
+        <v>4700</v>
       </c>
       <c r="J18" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="L18" s="5">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C19" s="8">
-        <v>196.94089867308799</v>
+        <v>101.364205283625</v>
       </c>
       <c r="D19" s="4">
-        <v>4400</v>
+        <v>100</v>
       </c>
       <c r="E19" s="2">
-        <v>10900</v>
+        <v>2000</v>
       </c>
       <c r="F19" s="6">
-        <v>6500</v>
+        <v>1900</v>
       </c>
       <c r="G19" s="4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H19" s="2">
-        <v>4600</v>
+        <v>1000</v>
       </c>
       <c r="I19" s="2">
-        <v>4200</v>
+        <v>1000</v>
       </c>
       <c r="J19" s="4">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="K19" s="2">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="L19" s="6">
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C20" s="7">
-        <v>53.509231055920203</v>
+        <v>125.58237485286701</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2800</v>
+      </c>
+      <c r="F20" s="5">
+        <v>2400</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="1">
-        <v>2200</v>
-      </c>
-      <c r="F20" s="5">
-        <v>2000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>400</v>
-      </c>
       <c r="H20" s="1">
+        <v>1400</v>
+      </c>
+      <c r="I20" s="1">
         <v>1200</v>
       </c>
-      <c r="I20" s="1">
-        <v>800</v>
-      </c>
       <c r="J20" s="3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K20" s="1">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="L20" s="5">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C21" s="8">
-        <v>206.67853206462701</v>
+        <v>511.617326053608</v>
       </c>
       <c r="D21" s="4">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E21" s="2">
-        <v>6900</v>
+        <v>9500</v>
       </c>
       <c r="F21" s="6">
-        <v>6900</v>
+        <v>9200</v>
       </c>
       <c r="G21" s="4">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H21" s="2">
-        <v>3500</v>
+        <v>4700</v>
       </c>
       <c r="I21" s="2">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="J21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="2">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="L21" s="6">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="C22" s="7">
-        <v>125.56707350348</v>
+        <v>116.297622410401</v>
       </c>
       <c r="D22" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="F22" s="5">
-        <v>4100</v>
+        <v>2000</v>
       </c>
       <c r="G22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="I22" s="1">
-        <v>2100</v>
+        <v>1000</v>
       </c>
       <c r="J22" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="L22" s="5">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
@@ -2539,2134 +2341,2134 @@
         <v>21</v>
       </c>
       <c r="C23" s="8">
-        <v>339.86768156410301</v>
+        <v>413.19362160859401</v>
       </c>
       <c r="D23" s="4">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="E23" s="2">
-        <v>11600</v>
+        <v>7300</v>
       </c>
       <c r="F23" s="6">
-        <v>10700</v>
+        <v>7200</v>
       </c>
       <c r="G23" s="4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H23" s="2">
-        <v>5900</v>
+        <v>3600</v>
       </c>
       <c r="I23" s="2">
-        <v>5500</v>
+        <v>3600</v>
       </c>
       <c r="J23" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K23" s="2">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="L23" s="6">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>78.896766813276002</v>
+        <v>57.2227915107473</v>
       </c>
       <c r="D24" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>3700</v>
+        <v>1000</v>
       </c>
       <c r="F24" s="5">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="1">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="I24" s="1">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="J24" s="3">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="K24" s="1">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="L24" s="5">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="C25" s="8">
-        <v>413.213554424368</v>
+        <v>476.34036359432702</v>
       </c>
       <c r="D25" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E25" s="2">
-        <v>13000</v>
+        <v>7800</v>
       </c>
       <c r="F25" s="6">
-        <v>12900</v>
+        <v>7600</v>
       </c>
       <c r="G25" s="4">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H25" s="2">
-        <v>6400</v>
+        <v>4000</v>
       </c>
       <c r="I25" s="2">
-        <v>6400</v>
+        <v>3800</v>
       </c>
       <c r="J25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="2">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="L25" s="6">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C26" s="7">
-        <v>494.73190603417999</v>
+        <v>151.979673540373</v>
       </c>
       <c r="D26" s="3">
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>15200</v>
+        <v>2500</v>
       </c>
       <c r="F26" s="5">
-        <v>15200</v>
+        <v>2500</v>
       </c>
       <c r="G26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1">
-        <v>7700</v>
+        <v>1200</v>
       </c>
       <c r="I26" s="1">
-        <v>7600</v>
+        <v>1200</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="L26" s="5">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="C27" s="8">
-        <v>483.77842257270902</v>
+        <v>509.72929670403499</v>
       </c>
       <c r="D27" s="4">
-        <v>400</v>
+        <v>3200</v>
       </c>
       <c r="E27" s="2">
-        <v>14700</v>
+        <v>11400</v>
       </c>
       <c r="F27" s="6">
-        <v>14300</v>
+        <v>8200</v>
       </c>
       <c r="G27" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="2">
-        <v>7200</v>
+        <v>4100</v>
       </c>
       <c r="I27" s="2">
-        <v>7100</v>
+        <v>4100</v>
       </c>
       <c r="J27" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K27" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="L27" s="6">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C28" s="7">
-        <v>101.427315181918</v>
+        <v>107.922986825775</v>
       </c>
       <c r="D28" s="3">
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="E28" s="1">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="F28" s="5">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="G28" s="3">
         <v>0</v>
       </c>
       <c r="H28" s="1">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="I28" s="1">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="J28" s="3">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K28" s="1">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L28" s="5">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C29" s="8">
-        <v>210.313002290236</v>
+        <v>344.27239858806701</v>
       </c>
       <c r="D29" s="4">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E29" s="2">
-        <v>6700</v>
+        <v>5800</v>
       </c>
       <c r="F29" s="6">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="G29" s="4">
         <v>500</v>
       </c>
       <c r="H29" s="2">
-        <v>3600</v>
+        <v>3100</v>
       </c>
       <c r="I29" s="2">
-        <v>3100</v>
+        <v>2600</v>
       </c>
       <c r="J29" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K29" s="2">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="L29" s="6">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C30" s="7">
-        <v>117.527037188926</v>
+        <v>145.93119999578801</v>
       </c>
       <c r="D30" s="3">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="E30" s="1">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="F30" s="5">
-        <v>3200</v>
+        <v>2100</v>
       </c>
       <c r="G30" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H30" s="1">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="I30" s="1">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="J30" s="3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K30" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L30" s="5">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="C31" s="8">
-        <v>106.90420338243599</v>
+        <v>499.03605247411099</v>
       </c>
       <c r="D31" s="4">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="E31" s="2">
-        <v>2900</v>
+        <v>10000</v>
       </c>
       <c r="F31" s="6">
-        <v>2900</v>
+        <v>7200</v>
       </c>
       <c r="G31" s="4">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="H31" s="2">
-        <v>1500</v>
+        <v>4800</v>
       </c>
       <c r="I31" s="2">
-        <v>1500</v>
+        <v>3700</v>
       </c>
       <c r="J31" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K31" s="2">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L31" s="6">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C32" s="7">
-        <v>278.84569822594801</v>
+        <v>27.676562438789301</v>
       </c>
       <c r="D32" s="3">
-        <v>3600</v>
+        <v>700</v>
       </c>
       <c r="E32" s="1">
-        <v>10500</v>
+        <v>1100</v>
       </c>
       <c r="F32" s="5">
-        <v>6900</v>
+        <v>400</v>
       </c>
       <c r="G32" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H32" s="1">
-        <v>4800</v>
+        <v>200</v>
       </c>
       <c r="I32" s="1">
-        <v>4200</v>
+        <v>200</v>
       </c>
       <c r="J32" s="3">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="K32" s="1">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="L32" s="5">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="C33" s="8">
-        <v>511.67145119815001</v>
+        <v>114.845879044046</v>
       </c>
       <c r="D33" s="4">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E33" s="2">
-        <v>14100</v>
+        <v>1900</v>
       </c>
       <c r="F33" s="6">
-        <v>13800</v>
+        <v>1700</v>
       </c>
       <c r="G33" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H33" s="2">
-        <v>7000</v>
+        <v>1000</v>
       </c>
       <c r="I33" s="2">
-        <v>6800</v>
+        <v>900</v>
       </c>
       <c r="J33" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K33" s="2">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="L33" s="6">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C34" s="7">
-        <v>107.905746667272</v>
+        <v>164.162641224277</v>
       </c>
       <c r="D34" s="3">
-        <v>1400</v>
+        <v>5700</v>
       </c>
       <c r="E34" s="1">
-        <v>4100</v>
+        <v>7900</v>
       </c>
       <c r="F34" s="5">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="G34" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H34" s="1">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="I34" s="1">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="J34" s="3">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="K34" s="1">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L34" s="5">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C35" s="8">
-        <v>151.94169231478</v>
+        <v>1890.31308806021</v>
       </c>
       <c r="D35" s="4">
-        <v>0</v>
+        <v>20800</v>
       </c>
       <c r="E35" s="2">
-        <v>4000</v>
+        <v>50100</v>
       </c>
       <c r="F35" s="6">
-        <v>4000</v>
+        <v>29300</v>
       </c>
       <c r="G35" s="4">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="H35" s="2">
-        <v>2000</v>
+        <v>15100</v>
       </c>
       <c r="I35" s="2">
-        <v>2000</v>
+        <v>11800</v>
       </c>
       <c r="J35" s="4">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K35" s="2">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="L35" s="6">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C36" s="7">
-        <v>80.765250594613903</v>
+        <v>316.212062185295</v>
       </c>
       <c r="D36" s="3">
-        <v>0</v>
+        <v>15100</v>
       </c>
       <c r="E36" s="1">
-        <v>2000</v>
+        <v>19200</v>
       </c>
       <c r="F36" s="5">
-        <v>2000</v>
+        <v>4100</v>
       </c>
       <c r="G36" s="3">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="H36" s="1">
-        <v>1100</v>
+        <v>7500</v>
       </c>
       <c r="I36" s="1">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="J36" s="3">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="K36" s="1">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="L36" s="5">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="C37" s="8">
-        <v>344.23813090469099</v>
+        <v>530.84962783518495</v>
       </c>
       <c r="D37" s="4">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E37" s="2">
-        <v>9100</v>
+        <v>7200</v>
       </c>
       <c r="F37" s="6">
-        <v>8600</v>
+        <v>7200</v>
       </c>
       <c r="G37" s="4">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="H37" s="2">
-        <v>4800</v>
+        <v>3700</v>
       </c>
       <c r="I37" s="2">
-        <v>4300</v>
+        <v>3600</v>
       </c>
       <c r="J37" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K37" s="2">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="L37" s="6">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C38" s="7">
-        <v>509.777091869912</v>
+        <v>89.766708746868602</v>
       </c>
       <c r="D38" s="3">
-        <v>3200</v>
+        <v>1100</v>
       </c>
       <c r="E38" s="1">
-        <v>15500</v>
+        <v>2200</v>
       </c>
       <c r="F38" s="5">
-        <v>12300</v>
+        <v>1100</v>
       </c>
       <c r="G38" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H38" s="1">
-        <v>6200</v>
+        <v>900</v>
       </c>
       <c r="I38" s="1">
-        <v>6200</v>
+        <v>800</v>
       </c>
       <c r="J38" s="3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K38" s="1">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="L38" s="5">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="C39" s="8">
-        <v>114.845684875225</v>
+        <v>120.846324603498</v>
       </c>
       <c r="D39" s="4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E39" s="2">
-        <v>2900</v>
+        <v>1800</v>
       </c>
       <c r="F39" s="6">
-        <v>2700</v>
+        <v>1500</v>
       </c>
       <c r="G39" s="4">
         <v>100</v>
       </c>
       <c r="H39" s="2">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="I39" s="2">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="J39" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K39" s="2">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="L39" s="6">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="C40" s="7">
-        <v>476.34592956127199</v>
+        <v>95.711917637985195</v>
       </c>
       <c r="D40" s="3">
         <v>200</v>
       </c>
       <c r="E40" s="1">
-        <v>11200</v>
+        <v>1400</v>
       </c>
       <c r="F40" s="5">
-        <v>11000</v>
+        <v>1200</v>
       </c>
       <c r="G40" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H40" s="1">
-        <v>5700</v>
+        <v>600</v>
       </c>
       <c r="I40" s="1">
-        <v>5500</v>
+        <v>600</v>
       </c>
       <c r="J40" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K40" s="1">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L40" s="5">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C41" s="8">
-        <v>146.14164893037699</v>
+        <v>1391.8515591001401</v>
       </c>
       <c r="D41" s="4">
-        <v>1900</v>
+        <v>36500</v>
       </c>
       <c r="E41" s="2">
-        <v>4900</v>
+        <v>55800</v>
       </c>
       <c r="F41" s="6">
-        <v>3000</v>
+        <v>19300</v>
       </c>
       <c r="G41" s="4">
-        <v>600</v>
+        <v>10300</v>
       </c>
       <c r="H41" s="2">
-        <v>2600</v>
+        <v>18500</v>
       </c>
       <c r="I41" s="2">
-        <v>2000</v>
+        <v>8200</v>
       </c>
       <c r="J41" s="4">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K41" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L41" s="6">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="C42" s="7">
-        <v>499.20396701467001</v>
+        <v>1307.23784973538</v>
       </c>
       <c r="D42" s="3">
-        <v>2800</v>
+        <v>17400</v>
       </c>
       <c r="E42" s="1">
-        <v>13500</v>
+        <v>35700</v>
       </c>
       <c r="F42" s="5">
-        <v>10700</v>
+        <v>18300</v>
       </c>
       <c r="G42" s="3">
-        <v>1100</v>
+        <v>4200</v>
       </c>
       <c r="H42" s="1">
-        <v>6800</v>
+        <v>12000</v>
       </c>
       <c r="I42" s="1">
-        <v>5700</v>
+        <v>7800</v>
       </c>
       <c r="J42" s="3">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="K42" s="1">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L42" s="5">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="C43" s="8">
-        <v>530.78122493265403</v>
+        <v>1.1859149762649099</v>
       </c>
       <c r="D43" s="4">
         <v>0</v>
       </c>
       <c r="E43" s="2">
-        <v>11700</v>
+        <v>0</v>
       </c>
       <c r="F43" s="6">
-        <v>11700</v>
+        <v>0</v>
       </c>
       <c r="G43" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="2">
-        <v>5900</v>
+        <v>0</v>
       </c>
       <c r="I43" s="2">
-        <v>5800</v>
+        <v>0</v>
       </c>
       <c r="J43" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K43" s="2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="L43" s="6">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C44" s="7">
-        <v>102.508474881238</v>
+        <v>290.31166828585901</v>
       </c>
       <c r="D44" s="3">
-        <v>300</v>
+        <v>3500</v>
       </c>
       <c r="E44" s="1">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="F44" s="5">
-        <v>2200</v>
+        <v>3500</v>
       </c>
       <c r="G44" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="H44" s="1">
-        <v>1200</v>
+        <v>2600</v>
       </c>
       <c r="I44" s="1">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="J44" s="3">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K44" s="1">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L44" s="5">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C45" s="8">
-        <v>213.20689225382901</v>
+        <v>854.719517679349</v>
       </c>
       <c r="D45" s="4">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="E45" s="2">
-        <v>6000</v>
+        <v>12700</v>
       </c>
       <c r="F45" s="6">
-        <v>4100</v>
+        <v>10600</v>
       </c>
       <c r="G45" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H45" s="2">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="I45" s="2">
-        <v>2800</v>
+        <v>4500</v>
       </c>
       <c r="J45" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K45" s="2">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="L45" s="6">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="9" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="C46" s="7">
-        <v>84.288499801171696</v>
+        <v>213.140723166008</v>
       </c>
       <c r="D46" s="3">
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="E46" s="1">
-        <v>2800</v>
+        <v>4400</v>
       </c>
       <c r="F46" s="5">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
       </c>
       <c r="H46" s="1">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="I46" s="1">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="J46" s="3">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K46" s="1">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="L46" s="5">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="C47" s="8">
-        <v>32.210407699437198</v>
+        <v>512.70618747568994</v>
       </c>
       <c r="D47" s="4">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E47" s="2">
-        <v>1100</v>
+        <v>6400</v>
       </c>
       <c r="F47" s="6">
-        <v>600</v>
+        <v>5700</v>
       </c>
       <c r="G47" s="4">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="H47" s="2">
-        <v>500</v>
+        <v>3200</v>
       </c>
       <c r="I47" s="2">
-        <v>400</v>
+        <v>2800</v>
       </c>
       <c r="J47" s="4">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="K47" s="2">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="L47" s="6">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="C48" s="7">
-        <v>90.183564761705</v>
+        <v>64.243849065308396</v>
       </c>
       <c r="D48" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>2500</v>
+        <v>700</v>
       </c>
       <c r="F48" s="5">
-        <v>1700</v>
+        <v>700</v>
       </c>
       <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
         <v>300</v>
       </c>
-      <c r="H48" s="1">
-        <v>1400</v>
-      </c>
       <c r="I48" s="1">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="J48" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K48" s="1">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="L48" s="5">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="8">
+        <v>56.771371363901501</v>
+      </c>
+      <c r="D49" s="4">
+        <v>600</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1100</v>
+      </c>
+      <c r="F49" s="6">
+        <v>500</v>
+      </c>
+      <c r="G49" s="4">
+        <v>100</v>
+      </c>
+      <c r="H49" s="2">
+        <v>500</v>
+      </c>
+      <c r="I49" s="2">
+        <v>400</v>
+      </c>
+      <c r="J49" s="4">
         <v>12</v>
       </c>
-      <c r="C49" s="8">
-        <v>161.59728568027501</v>
-      </c>
-      <c r="D49" s="4">
-        <v>100</v>
-      </c>
-      <c r="E49" s="2">
-        <v>3500</v>
-      </c>
-      <c r="F49" s="6">
-        <v>3400</v>
-      </c>
-      <c r="G49" s="4">
-        <v>300</v>
-      </c>
-      <c r="H49" s="2">
-        <v>1900</v>
-      </c>
-      <c r="I49" s="2">
-        <v>1600</v>
-      </c>
-      <c r="J49" s="4">
-        <v>2</v>
-      </c>
       <c r="K49" s="2">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="L49" s="6">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="C50" s="7">
-        <v>447.45825828010902</v>
+        <v>331.15227926952599</v>
       </c>
       <c r="D50" s="3">
-        <v>3100</v>
+        <v>2600</v>
       </c>
       <c r="E50" s="1">
-        <v>12200</v>
+        <v>6100</v>
       </c>
       <c r="F50" s="5">
-        <v>9100</v>
+        <v>3500</v>
       </c>
       <c r="G50" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="H50" s="1">
-        <v>5700</v>
+        <v>2400</v>
       </c>
       <c r="I50" s="1">
-        <v>4900</v>
+        <v>1800</v>
       </c>
       <c r="J50" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K50" s="1">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="L50" s="5">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="C51" s="8">
-        <v>164.09405945088599</v>
+        <v>107.65341241807</v>
       </c>
       <c r="D51" s="4">
-        <v>5700</v>
+        <v>500</v>
       </c>
       <c r="E51" s="2">
-        <v>7800</v>
+        <v>1500</v>
       </c>
       <c r="F51" s="6">
-        <v>2100</v>
+        <v>1000</v>
       </c>
       <c r="G51" s="4">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="H51" s="2">
-        <v>3100</v>
+        <v>1300</v>
       </c>
       <c r="I51" s="2">
-        <v>2900</v>
+        <v>700</v>
       </c>
       <c r="J51" s="4">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="K51" s="2">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="L51" s="6">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="9" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="C52" s="7">
-        <v>206.051120627747</v>
+        <v>155.042279693214</v>
       </c>
       <c r="D52" s="3">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>5700</v>
+        <v>1600</v>
       </c>
       <c r="F52" s="5">
-        <v>3900</v>
+        <v>1600</v>
       </c>
       <c r="G52" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H52" s="1">
-        <v>2300</v>
+        <v>900</v>
       </c>
       <c r="I52" s="1">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="J52" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K52" s="1">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="L52" s="5">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="C53" s="8">
-        <v>491.78639645752298</v>
+        <v>59.345403981058297</v>
       </c>
       <c r="D53" s="4">
-        <v>4800</v>
+        <v>500</v>
       </c>
       <c r="E53" s="2">
-        <v>14200</v>
+        <v>1100</v>
       </c>
       <c r="F53" s="6">
-        <v>9400</v>
+        <v>600</v>
       </c>
       <c r="G53" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H53" s="2">
-        <v>6000</v>
+        <v>300</v>
       </c>
       <c r="I53" s="2">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="J53" s="4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K53" s="2">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="L53" s="6">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" s="9" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C54" s="7">
-        <v>100.634197224806</v>
+        <v>260.394231304941</v>
       </c>
       <c r="D54" s="3">
-        <v>400</v>
+        <v>7100</v>
       </c>
       <c r="E54" s="1">
+        <v>9600</v>
+      </c>
+      <c r="F54" s="5">
         <v>2500</v>
       </c>
-      <c r="F54" s="5">
-        <v>2100</v>
-      </c>
       <c r="G54" s="3">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="H54" s="1">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="I54" s="1">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="J54" s="3">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="K54" s="1">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="L54" s="5">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C55" s="8">
-        <v>512.72078469825499</v>
+        <v>577.43037372527101</v>
       </c>
       <c r="D55" s="4">
-        <v>700</v>
+        <v>14600</v>
       </c>
       <c r="E55" s="2">
-        <v>10500</v>
+        <v>20700</v>
       </c>
       <c r="F55" s="6">
-        <v>9800</v>
+        <v>6100</v>
       </c>
       <c r="G55" s="4">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="H55" s="2">
-        <v>5300</v>
+        <v>4000</v>
       </c>
       <c r="I55" s="2">
-        <v>4900</v>
+        <v>2500</v>
       </c>
       <c r="J55" s="4">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="K55" s="2">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="L55" s="6">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" s="9" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="C56" s="7">
-        <v>5.4381003781739903</v>
+        <v>430.64664990306301</v>
       </c>
       <c r="D56" s="3">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="E56" s="1">
-        <v>100</v>
+        <v>7100</v>
       </c>
       <c r="F56" s="5">
-        <v>100</v>
+        <v>4200</v>
       </c>
       <c r="G56" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="H56" s="1">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="I56" s="1">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J56" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K56" s="1">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="L56" s="5">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="C57" s="8">
-        <v>116.377284283677</v>
+        <v>157.88652454704501</v>
       </c>
       <c r="D57" s="4">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="E57" s="2">
-        <v>2100</v>
+        <v>3900</v>
       </c>
       <c r="F57" s="6">
-        <v>2100</v>
+        <v>1200</v>
       </c>
       <c r="G57" s="4">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H57" s="2">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="I57" s="2">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="J57" s="4">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K57" s="2">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="L57" s="6">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" s="9" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="C58" s="7">
-        <v>2.0814282435876001</v>
+        <v>411.95410230322199</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="E58" s="1">
-        <v>0</v>
+        <v>9400</v>
       </c>
       <c r="F58" s="5">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H58" s="1">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="I58" s="1">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K58" s="1">
         <v>28</v>
       </c>
       <c r="L58" s="5">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="C59" s="8">
-        <v>92.433048526823299</v>
+        <v>56.508938850792603</v>
       </c>
       <c r="D59" s="4">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E59" s="2">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="F59" s="6">
-        <v>1700</v>
+        <v>500</v>
       </c>
       <c r="G59" s="4">
         <v>200</v>
       </c>
       <c r="H59" s="2">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="I59" s="2">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="J59" s="4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K59" s="2">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="L59" s="6">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" s="9" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="C60" s="7">
-        <v>22.716056534861401</v>
+        <v>99.749783688097097</v>
       </c>
       <c r="D60" s="3">
         <v>300</v>
       </c>
       <c r="E60" s="1">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="F60" s="5">
+        <v>800</v>
+      </c>
+      <c r="G60" s="3">
+        <v>100</v>
+      </c>
+      <c r="H60" s="1">
+        <v>500</v>
+      </c>
+      <c r="I60" s="1">
         <v>400</v>
       </c>
-      <c r="G60" s="3">
-        <v>100</v>
-      </c>
-      <c r="H60" s="1">
-        <v>300</v>
-      </c>
-      <c r="I60" s="1">
-        <v>200</v>
-      </c>
       <c r="J60" s="3">
+        <v>4</v>
+      </c>
+      <c r="K60" s="1">
         <v>17</v>
       </c>
-      <c r="K60" s="1">
-        <v>45</v>
-      </c>
       <c r="L60" s="5">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="C61" s="8">
-        <v>165.311654897181</v>
+        <v>773.33737477900399</v>
       </c>
       <c r="D61" s="4">
-        <v>200</v>
+        <v>1600</v>
       </c>
       <c r="E61" s="2">
-        <v>3300</v>
+        <v>8300</v>
       </c>
       <c r="F61" s="6">
-        <v>3100</v>
+        <v>6700</v>
       </c>
       <c r="G61" s="4">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="H61" s="2">
-        <v>1700</v>
+        <v>4200</v>
       </c>
       <c r="I61" s="2">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="J61" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K61" s="2">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L61" s="6">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B62" s="9" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C62" s="7">
-        <v>855.25117038238704</v>
+        <v>39.194420614384498</v>
       </c>
       <c r="D62" s="3">
-        <v>2100</v>
+        <v>400</v>
       </c>
       <c r="E62" s="1">
-        <v>17500</v>
+        <v>700</v>
       </c>
       <c r="F62" s="5">
-        <v>15400</v>
+        <v>300</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
       </c>
       <c r="H62" s="1">
-        <v>7800</v>
+        <v>200</v>
       </c>
       <c r="I62" s="1">
-        <v>7800</v>
+        <v>200</v>
       </c>
       <c r="J62" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K62" s="1">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="L62" s="5">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="C63" s="8">
-        <v>250.854884111628</v>
+        <v>210.54261478070401</v>
       </c>
       <c r="D63" s="4">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="E63" s="2">
-        <v>5200</v>
+        <v>2800</v>
       </c>
       <c r="F63" s="6">
-        <v>4800</v>
+        <v>1800</v>
       </c>
       <c r="G63" s="4">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H63" s="2">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="I63" s="2">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="J63" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K63" s="2">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="L63" s="6">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" s="9" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C64" s="7">
-        <v>430.68940003761401</v>
+        <v>155.16676243044901</v>
       </c>
       <c r="D64" s="3">
-        <v>2900</v>
+        <v>1200</v>
       </c>
       <c r="E64" s="1">
-        <v>10800</v>
+        <v>2500</v>
       </c>
       <c r="F64" s="5">
-        <v>7900</v>
+        <v>1300</v>
       </c>
       <c r="G64" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="H64" s="1">
-        <v>5300</v>
+        <v>700</v>
       </c>
       <c r="I64" s="1">
-        <v>4500</v>
+        <v>600</v>
       </c>
       <c r="J64" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K64" s="1">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="L64" s="5">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="C65" s="8">
-        <v>5.1076048039969404</v>
+        <v>111.987511316007</v>
       </c>
       <c r="D65" s="4">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E65" s="2">
-        <v>100</v>
+        <v>2200</v>
       </c>
       <c r="F65" s="6">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="G65" s="4">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H65" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I65" s="2">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J65" s="4">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="K65" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L65" s="6">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66" s="9" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="C66" s="7">
-        <v>290.21471148448501</v>
+        <v>447.42111316211299</v>
       </c>
       <c r="D66" s="3">
-        <v>3500</v>
+        <v>3100</v>
       </c>
       <c r="E66" s="1">
-        <v>8400</v>
+        <v>7100</v>
       </c>
       <c r="F66" s="5">
-        <v>4900</v>
+        <v>4000</v>
       </c>
       <c r="G66" s="3">
         <v>800</v>
       </c>
       <c r="H66" s="1">
-        <v>3700</v>
+        <v>3000</v>
       </c>
       <c r="I66" s="1">
-        <v>2900</v>
+        <v>2200</v>
       </c>
       <c r="J66" s="3">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K66" s="1">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L66" s="5">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="C67" s="8">
-        <v>331.04088995847798</v>
+        <v>115.338209119553</v>
       </c>
       <c r="D67" s="4">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="E67" s="2">
-        <v>8200</v>
+        <v>3700</v>
       </c>
       <c r="F67" s="6">
-        <v>5600</v>
+        <v>1000</v>
       </c>
       <c r="G67" s="4">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H67" s="2">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="I67" s="2">
-        <v>3400</v>
+        <v>500</v>
       </c>
       <c r="J67" s="4">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="K67" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L67" s="6">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B68" s="9" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="C68" s="7">
-        <v>200.51852727275801</v>
+        <v>78.918319133637993</v>
       </c>
       <c r="D68" s="3">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="E68" s="1">
-        <v>4200</v>
+        <v>1900</v>
       </c>
       <c r="F68" s="5">
-        <v>3600</v>
+        <v>500</v>
       </c>
       <c r="G68" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H68" s="1">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="I68" s="1">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="J68" s="3">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K68" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L68" s="5">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="C69" s="8">
-        <v>155.17502912545501</v>
+        <v>205.980426932803</v>
       </c>
       <c r="D69" s="4">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="E69" s="2">
-        <v>3900</v>
+        <v>3300</v>
       </c>
       <c r="F69" s="6">
-        <v>2700</v>
+        <v>1500</v>
       </c>
       <c r="G69" s="4">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H69" s="2">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="I69" s="2">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="J69" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K69" s="2">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="L69" s="6">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C70" s="7">
-        <v>271.52714064600099</v>
+        <v>491.65592965925202</v>
       </c>
       <c r="D70" s="3">
-        <v>2600</v>
+        <v>4800</v>
       </c>
       <c r="E70" s="1">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="F70" s="5">
-        <v>4400</v>
+        <v>3700</v>
       </c>
       <c r="G70" s="3">
         <v>1000</v>
       </c>
       <c r="H70" s="1">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="I70" s="1">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="J70" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K70" s="1">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="L70" s="5">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="C71" s="8">
-        <v>739.18887322574403</v>
+        <v>200.18027099615401</v>
       </c>
       <c r="D71" s="4">
-        <v>8000</v>
+        <v>600</v>
       </c>
       <c r="E71" s="2">
-        <v>19700</v>
+        <v>2200</v>
       </c>
       <c r="F71" s="6">
-        <v>11700</v>
+        <v>1600</v>
       </c>
       <c r="G71" s="4">
-        <v>2500</v>
+        <v>200</v>
       </c>
       <c r="H71" s="2">
-        <v>9800</v>
+        <v>900</v>
       </c>
       <c r="I71" s="2">
-        <v>7300</v>
+        <v>700</v>
       </c>
       <c r="J71" s="4">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="K71" s="2">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="L71" s="6">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72" s="9" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C72" s="7">
-        <v>157.865262627329</v>
+        <v>21.8307668974875</v>
       </c>
       <c r="D72" s="3">
-        <v>2700</v>
+        <v>300</v>
       </c>
       <c r="E72" s="1">
-        <v>4800</v>
+        <v>500</v>
       </c>
       <c r="F72" s="5">
-        <v>2100</v>
+        <v>200</v>
       </c>
       <c r="G72" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="H72" s="1">
-        <v>2200</v>
+        <v>200</v>
       </c>
       <c r="I72" s="1">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="J72" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K72" s="1">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="L72" s="5">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="C73" s="8">
-        <v>39.226294106339303</v>
+        <v>170.00440862177601</v>
       </c>
       <c r="D73" s="4">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="E73" s="2">
-        <v>1000</v>
+        <v>2700</v>
       </c>
       <c r="F73" s="6">
+        <v>1200</v>
+      </c>
+      <c r="G73" s="4">
+        <v>100</v>
+      </c>
+      <c r="H73" s="2">
+        <v>700</v>
+      </c>
+      <c r="I73" s="2">
         <v>600</v>
       </c>
-      <c r="G73" s="4">
-        <v>0</v>
-      </c>
-      <c r="H73" s="2">
-        <v>400</v>
-      </c>
-      <c r="I73" s="2">
-        <v>400</v>
-      </c>
       <c r="J73" s="4">
+        <v>9</v>
+      </c>
+      <c r="K73" s="2">
+        <v>20</v>
+      </c>
+      <c r="L73" s="6">
         <v>11</v>
-      </c>
-      <c r="K73" s="2">
-        <v>36</v>
-      </c>
-      <c r="L73" s="6">
-        <v>25</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B74" s="9" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C74" s="7">
-        <v>22.921167342366399</v>
+        <v>95.884863479733795</v>
       </c>
       <c r="D74" s="3">
         <v>300</v>
       </c>
       <c r="E74" s="1">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="F74" s="5">
+        <v>700</v>
+      </c>
+      <c r="G74" s="3">
+        <v>500</v>
+      </c>
+      <c r="H74" s="1">
+        <v>800</v>
+      </c>
+      <c r="I74" s="1">
         <v>300</v>
       </c>
-      <c r="G74" s="3">
-        <v>0</v>
-      </c>
-      <c r="H74" s="1">
-        <v>200</v>
-      </c>
-      <c r="I74" s="1">
-        <v>200</v>
-      </c>
       <c r="J74" s="3">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="K74" s="1">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="L74" s="5">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>196</v>
+        <v>121</v>
       </c>
       <c r="C75" s="8">
-        <v>27.137697813189199</v>
+        <v>124.16426071444999</v>
       </c>
       <c r="D75" s="4">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E75" s="2">
         <v>900</v>
       </c>
       <c r="F75" s="6">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G75" s="4">
         <v>0</v>
       </c>
       <c r="H75" s="2">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I75" s="2">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J75" s="4">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K75" s="2">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="L75" s="6">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B76" s="9" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="C76" s="7">
-        <v>33.329996436085899</v>
+        <v>124.932468750914</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="E76" s="1">
-        <v>600</v>
+        <v>4200</v>
       </c>
       <c r="F76" s="5">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G76" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H76" s="1">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="I76" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="J76" s="3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="K76" s="1">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L76" s="5">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="C77" s="8">
-        <v>411.99159396953502</v>
+        <v>83.228908110546499</v>
       </c>
       <c r="D77" s="4">
-        <v>5600</v>
+        <v>500</v>
       </c>
       <c r="E77" s="2">
-        <v>11300</v>
+        <v>900</v>
       </c>
       <c r="F77" s="6">
-        <v>5700</v>
+        <v>400</v>
       </c>
       <c r="G77" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H77" s="2">
-        <v>4200</v>
+        <v>400</v>
       </c>
       <c r="I77" s="2">
-        <v>4000</v>
+        <v>300</v>
       </c>
       <c r="J77" s="4">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K77" s="2">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="L77" s="6">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B78" s="9" t="s">
-        <v>215</v>
+        <v>86</v>
       </c>
       <c r="C78" s="7">
-        <v>74.040496169183797</v>
+        <v>92.424345096758302</v>
       </c>
       <c r="D78" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E78" s="1">
         <v>1300</v>
       </c>
       <c r="F78" s="5">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G78" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H78" s="1">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="I78" s="1">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="J78" s="3">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K78" s="1">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="L78" s="5">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="C79" s="8">
-        <v>235.52382086180799</v>
+        <v>110.58451637028099</v>
       </c>
       <c r="D79" s="4">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E79" s="2">
-        <v>4400</v>
+        <v>800</v>
       </c>
       <c r="F79" s="6">
-        <v>3700</v>
+        <v>600</v>
       </c>
       <c r="G79" s="4">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="H79" s="2">
-        <v>2200</v>
+        <v>600</v>
       </c>
       <c r="I79" s="2">
-        <v>1700</v>
+        <v>300</v>
       </c>
       <c r="J79" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K79" s="2">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L79" s="6">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B80" s="9" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="C80" s="7">
-        <v>167.97470457797701</v>
+        <v>52.753586155478899</v>
       </c>
       <c r="D80" s="3">
-        <v>2200</v>
+        <v>400</v>
       </c>
       <c r="E80" s="1">
-        <v>4500</v>
+        <v>700</v>
       </c>
       <c r="F80" s="5">
-        <v>2300</v>
+        <v>300</v>
       </c>
       <c r="G80" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H80" s="1">
-        <v>1900</v>
+        <v>400</v>
       </c>
       <c r="I80" s="1">
-        <v>1600</v>
+        <v>200</v>
       </c>
       <c r="J80" s="3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K80" s="1">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="L80" s="5">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="C81" s="8">
-        <v>124.212333458487</v>
+        <v>235.44144687327801</v>
       </c>
       <c r="D81" s="4">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="E81" s="2">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="F81" s="6">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="G81" s="4">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H81" s="2">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="I81" s="2">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="J81" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K81" s="2">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="L81" s="6">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82" s="9" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="C82" s="7">
-        <v>100.983564733753</v>
+        <v>33.829419291167298</v>
       </c>
       <c r="D82" s="3">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="E82" s="1">
-        <v>2200</v>
+        <v>400</v>
       </c>
       <c r="F82" s="5">
-        <v>1300</v>
+        <v>200</v>
       </c>
       <c r="G82" s="3">
         <v>200</v>
       </c>
       <c r="H82" s="1">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="I82" s="1">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="J82" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K82" s="1">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L82" s="5">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C83" s="8">
-        <v>386.31657073384201</v>
+        <v>363.135024368833</v>
       </c>
       <c r="D83" s="4">
-        <v>4200</v>
+        <v>3800</v>
       </c>
       <c r="E83" s="2">
-        <v>9700</v>
+        <v>6100</v>
       </c>
       <c r="F83" s="6">
-        <v>5500</v>
+        <v>2300</v>
       </c>
       <c r="G83" s="4">
         <v>400</v>
       </c>
       <c r="H83" s="2">
-        <v>3400</v>
+        <v>1500</v>
       </c>
       <c r="I83" s="2">
-        <v>3000</v>
+        <v>1100</v>
       </c>
       <c r="J83" s="4">
         <v>12</v>
       </c>
       <c r="K83" s="2">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L83" s="6">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
@@ -4674,786 +4476,786 @@
         <v>31</v>
       </c>
       <c r="C84" s="7">
-        <v>23.088368655764299</v>
+        <v>137.00541351475999</v>
       </c>
       <c r="D84" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E84" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F84" s="5">
+        <v>800</v>
+      </c>
+      <c r="G84" s="3">
+        <v>300</v>
+      </c>
+      <c r="H84" s="1">
+        <v>700</v>
+      </c>
+      <c r="I84" s="1">
         <v>400</v>
       </c>
-      <c r="F84" s="5">
-        <v>400</v>
-      </c>
-      <c r="G84" s="3">
-        <v>100</v>
-      </c>
-      <c r="H84" s="1">
-        <v>200</v>
-      </c>
-      <c r="I84" s="1">
-        <v>100</v>
-      </c>
       <c r="J84" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K84" s="1">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="L84" s="5">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="C85" s="8">
-        <v>64.724727451680593</v>
+        <v>43.134278765713397</v>
       </c>
       <c r="D85" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E85" s="2">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="F85" s="6">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G85" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H85" s="2">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="I85" s="2">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="J85" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K85" s="2">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="L85" s="6">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B86" s="9" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="C86" s="7">
-        <v>100.409221851352</v>
+        <v>101.73044050137101</v>
       </c>
       <c r="D86" s="3">
-        <v>100</v>
+        <v>1700</v>
       </c>
       <c r="E86" s="1">
-        <v>1600</v>
+        <v>2200</v>
       </c>
       <c r="F86" s="5">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G86" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H86" s="1">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="I86" s="1">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="J86" s="3">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="K86" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L86" s="5">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C87" s="8">
-        <v>111.920866883881</v>
+        <v>380.71160928159202</v>
       </c>
       <c r="D87" s="4">
-        <v>1300</v>
+        <v>2300</v>
       </c>
       <c r="E87" s="2">
-        <v>2700</v>
+        <v>4300</v>
       </c>
       <c r="F87" s="6">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="G87" s="4">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H87" s="2">
         <v>1300</v>
       </c>
       <c r="I87" s="2">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="J87" s="4">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="K87" s="2">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="L87" s="6">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B88" s="9" t="s">
-        <v>191</v>
+        <v>41</v>
       </c>
       <c r="C88" s="7">
-        <v>32.254802759997602</v>
+        <v>339.03193591173402</v>
       </c>
       <c r="D88" s="3">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="E88" s="1">
-        <v>500</v>
+        <v>5800</v>
       </c>
       <c r="F88" s="5">
+        <v>1800</v>
+      </c>
+      <c r="G88" s="3">
         <v>400</v>
       </c>
-      <c r="G88" s="3">
-        <v>0</v>
-      </c>
       <c r="H88" s="1">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="I88" s="1">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="J88" s="3">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="K88" s="1">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L88" s="5">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="C89" s="8">
-        <v>27.778286065541099</v>
+        <v>138.24022353009201</v>
       </c>
       <c r="D89" s="4">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="E89" s="2">
-        <v>400</v>
+        <v>3800</v>
       </c>
       <c r="F89" s="6">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="G89" s="4">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="H89" s="2">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="I89" s="2">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J89" s="4">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="K89" s="2">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="L89" s="6">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B90" s="9" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
       <c r="C90" s="7">
-        <v>97.798896905877498</v>
+        <v>928.81910401452899</v>
       </c>
       <c r="D90" s="3">
-        <v>200</v>
+        <v>25000</v>
       </c>
       <c r="E90" s="1">
-        <v>1500</v>
+        <v>29100</v>
       </c>
       <c r="F90" s="5">
-        <v>1300</v>
+        <v>4100</v>
       </c>
       <c r="G90" s="3">
-        <v>0</v>
+        <v>3700</v>
       </c>
       <c r="H90" s="1">
-        <v>700</v>
+        <v>7100</v>
       </c>
       <c r="I90" s="1">
-        <v>700</v>
+        <v>3400</v>
       </c>
       <c r="J90" s="3">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="K90" s="1">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="L90" s="5">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="C91" s="8">
-        <v>773.42242946104705</v>
+        <v>80.270260120692399</v>
       </c>
       <c r="D91" s="4">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="E91" s="2">
-        <v>12400</v>
+        <v>500</v>
       </c>
       <c r="F91" s="6">
-        <v>10800</v>
+        <v>500</v>
       </c>
       <c r="G91" s="4">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="H91" s="2">
-        <v>6300</v>
+        <v>500</v>
       </c>
       <c r="I91" s="2">
-        <v>5500</v>
+        <v>200</v>
       </c>
       <c r="J91" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K91" s="2">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L91" s="6">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B92" s="9" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="C92" s="7">
-        <v>115.378748310937</v>
+        <v>176.77329204288799</v>
       </c>
       <c r="D92" s="3">
-        <v>2700</v>
+        <v>800</v>
       </c>
       <c r="E92" s="1">
-        <v>4200</v>
+        <v>1800</v>
       </c>
       <c r="F92" s="5">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G92" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H92" s="1">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I92" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="J92" s="3">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="K92" s="1">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="L92" s="5">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="C93" s="8">
-        <v>25.8109461182184</v>
+        <v>267.926220506096</v>
       </c>
       <c r="D93" s="4">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="E93" s="2">
-        <v>300</v>
+        <v>4500</v>
       </c>
       <c r="F93" s="6">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="G93" s="4">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H93" s="2">
-        <v>200</v>
+        <v>1300</v>
       </c>
       <c r="I93" s="2">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="J93" s="4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K93" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L93" s="6">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B94" s="9" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C94" s="7">
-        <v>95.791592241097803</v>
+        <v>70.611976668679802</v>
       </c>
       <c r="D94" s="3">
-        <v>600</v>
+        <v>2600</v>
       </c>
       <c r="E94" s="1">
-        <v>1900</v>
+        <v>2900</v>
       </c>
       <c r="F94" s="5">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H94" s="1">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="I94" s="1">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="J94" s="3">
+        <v>39</v>
+      </c>
+      <c r="K94" s="1">
+        <v>46</v>
+      </c>
+      <c r="L94" s="5">
         <v>7</v>
-      </c>
-      <c r="K94" s="1">
-        <v>27</v>
-      </c>
-      <c r="L94" s="5">
-        <v>20</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="C95" s="8">
-        <v>927.37540419971299</v>
+        <v>110.744573336139</v>
       </c>
       <c r="D95" s="4">
-        <v>25000</v>
+        <v>1200</v>
       </c>
       <c r="E95" s="2">
-        <v>33900</v>
+        <v>1700</v>
       </c>
       <c r="F95" s="6">
-        <v>8900</v>
+        <v>500</v>
       </c>
       <c r="G95" s="4">
-        <v>3700</v>
+        <v>500</v>
       </c>
       <c r="H95" s="2">
-        <v>13000</v>
+        <v>800</v>
       </c>
       <c r="I95" s="2">
-        <v>9300</v>
+        <v>300</v>
       </c>
       <c r="J95" s="4">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="K95" s="2">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="L95" s="6">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B96" s="9" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="C96" s="7">
-        <v>56.646934232479701</v>
+        <v>85.215944153242106</v>
       </c>
       <c r="D96" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E96" s="1">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F96" s="5">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G96" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H96" s="1">
         <v>500</v>
       </c>
       <c r="I96" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J96" s="3">
+        <v>8</v>
+      </c>
+      <c r="K96" s="1">
+        <v>15</v>
+      </c>
+      <c r="L96" s="5">
         <v>7</v>
-      </c>
-      <c r="K96" s="1">
-        <v>26</v>
-      </c>
-      <c r="L96" s="5">
-        <v>19</v>
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="C97" s="8">
-        <v>426.58065671573701</v>
+        <v>84.421644650153496</v>
       </c>
       <c r="D97" s="4">
-        <v>3800</v>
+        <v>200</v>
       </c>
       <c r="E97" s="2">
-        <v>8500</v>
+        <v>600</v>
       </c>
       <c r="F97" s="6">
-        <v>4700</v>
+        <v>400</v>
       </c>
       <c r="G97" s="4">
-        <v>2700</v>
+        <v>100</v>
       </c>
       <c r="H97" s="2">
-        <v>5800</v>
+        <v>300</v>
       </c>
       <c r="I97" s="2">
-        <v>3100</v>
+        <v>200</v>
       </c>
       <c r="J97" s="4">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K97" s="2">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="L97" s="6">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B98" s="9" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C98" s="7">
-        <v>14.4184230444713</v>
+        <v>419.92496383397997</v>
       </c>
       <c r="D98" s="3">
-        <v>400</v>
+        <v>5900</v>
       </c>
       <c r="E98" s="1">
-        <v>500</v>
+        <v>7900</v>
       </c>
       <c r="F98" s="5">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="G98" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H98" s="1">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="I98" s="1">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="J98" s="3">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="K98" s="1">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="L98" s="5">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c r="C99" s="8">
-        <v>102.706702827662</v>
+        <v>34.740374167911497</v>
       </c>
       <c r="D99" s="4">
-        <v>2600</v>
+        <v>400</v>
       </c>
       <c r="E99" s="2">
-        <v>3600</v>
+        <v>500</v>
       </c>
       <c r="F99" s="6">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G99" s="4">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H99" s="2">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="I99" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="J99" s="4">
+        <v>18</v>
+      </c>
+      <c r="K99" s="2">
         <v>25</v>
       </c>
-      <c r="K99" s="2">
-        <v>44</v>
-      </c>
       <c r="L99" s="6">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B100" s="9" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="C100" s="7">
-        <v>5.6145517162076697</v>
+        <v>103.55758268594499</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E100" s="1">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="F100" s="5">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H100" s="1">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="I100" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J100" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K100" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L100" s="5">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="C101" s="8">
-        <v>141.39924713305001</v>
+        <v>22.9246785522</v>
       </c>
       <c r="D101" s="4">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="E101" s="2">
-        <v>3200</v>
+        <v>400</v>
       </c>
       <c r="F101" s="6">
-        <v>1700</v>
+        <v>100</v>
       </c>
       <c r="G101" s="4">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H101" s="2">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="I101" s="2">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="J101" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K101" s="2">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L101" s="6">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B102" s="9" t="s">
-        <v>163</v>
+        <v>53</v>
       </c>
       <c r="C102" s="7">
-        <v>107.622093879787</v>
+        <v>336.499530098604</v>
       </c>
       <c r="D102" s="3">
-        <v>500</v>
+        <v>14300</v>
       </c>
       <c r="E102" s="1">
+        <v>15900</v>
+      </c>
+      <c r="F102" s="5">
         <v>1600</v>
       </c>
-      <c r="F102" s="5">
-        <v>1100</v>
-      </c>
       <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="1">
+        <v>700</v>
+      </c>
+      <c r="I102" s="1">
         <v>600</v>
       </c>
-      <c r="H102" s="1">
-        <v>1400</v>
-      </c>
-      <c r="I102" s="1">
-        <v>800</v>
-      </c>
       <c r="J102" s="3">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="K102" s="1">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="L102" s="5">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C103" s="8">
-        <v>298.99909313342602</v>
+        <v>154.44815879192299</v>
       </c>
       <c r="D103" s="4">
-        <v>3900</v>
+        <v>2700</v>
       </c>
       <c r="E103" s="2">
-        <v>7000</v>
+        <v>3400</v>
       </c>
       <c r="F103" s="6">
-        <v>3100</v>
+        <v>700</v>
       </c>
       <c r="G103" s="4">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="H103" s="2">
-        <v>3600</v>
+        <v>900</v>
       </c>
       <c r="I103" s="2">
-        <v>2400</v>
+        <v>300</v>
       </c>
       <c r="J103" s="4">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K103" s="2">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L103" s="6">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B104" s="9" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="C104" s="7">
-        <v>124.78803317737599</v>
+        <v>148.11595587360699</v>
       </c>
       <c r="D104" s="3">
-        <v>3400</v>
+        <v>100</v>
       </c>
       <c r="E104" s="1">
-        <v>4500</v>
+        <v>700</v>
       </c>
       <c r="F104" s="5">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="G104" s="3">
         <v>300</v>
       </c>
       <c r="H104" s="1">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="I104" s="1">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="J104" s="3">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="K104" s="1">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="L104" s="5">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
-        <v>193</v>
+        <v>7</v>
       </c>
       <c r="C105" s="8">
-        <v>2.6671709597120001</v>
+        <v>739.19016457215798</v>
       </c>
       <c r="D105" s="4">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="E105" s="2">
-        <v>0</v>
+        <v>11200</v>
       </c>
       <c r="F105" s="6">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="G105" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="H105" s="2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="I105" s="2">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="J105" s="4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K105" s="2">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L105" s="6">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B106" s="9" t="s">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c r="C106" s="7">
-        <v>20.800153218318101</v>
+        <v>55.628335301250502</v>
       </c>
       <c r="D106" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E106" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F106" s="5">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G106" s="3">
         <v>0</v>
@@ -5465,660 +5267,660 @@
         <v>100</v>
       </c>
       <c r="J106" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K106" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L106" s="5">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
-        <v>181</v>
+        <v>88</v>
       </c>
       <c r="C107" s="8">
-        <v>0.35301802103979901</v>
+        <v>271.81388938152202</v>
       </c>
       <c r="D107" s="4">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="E107" s="2">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="F107" s="6">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G107" s="4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H107" s="2">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="I107" s="2">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J107" s="4">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K107" s="2">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L107" s="6">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B108" s="9" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="C108" s="7">
-        <v>22.791408939855501</v>
+        <v>21.507384993370302</v>
       </c>
       <c r="D108" s="3">
         <v>0</v>
       </c>
       <c r="E108" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F108" s="5">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G108" s="3">
         <v>100</v>
       </c>
       <c r="H108" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I108" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J108" s="3">
+        <v>4</v>
+      </c>
+      <c r="K108" s="1">
+        <v>10</v>
+      </c>
+      <c r="L108" s="5">
         <v>6</v>
-      </c>
-      <c r="K108" s="1">
-        <v>23</v>
-      </c>
-      <c r="L108" s="5">
-        <v>17</v>
       </c>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="C109" s="8">
-        <v>255.129806417879</v>
+        <v>115.35180092047899</v>
       </c>
       <c r="D109" s="4">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="E109" s="2">
-        <v>4800</v>
+        <v>1900</v>
       </c>
       <c r="F109" s="6">
-        <v>3100</v>
+        <v>400</v>
       </c>
       <c r="G109" s="4">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="H109" s="2">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="I109" s="2">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="J109" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K109" s="2">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L109" s="6">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B110" s="9" t="s">
-        <v>157</v>
+        <v>58</v>
       </c>
       <c r="C110" s="7">
-        <v>100.814989710744</v>
+        <v>25.478251634623199</v>
       </c>
       <c r="D110" s="3">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="E110" s="1">
-        <v>2400</v>
+        <v>500</v>
       </c>
       <c r="F110" s="5">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="G110" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H110" s="1">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="I110" s="1">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="J110" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K110" s="1">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="L110" s="5">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C111" s="8">
-        <v>420.06891976348902</v>
+        <v>53.453818442418303</v>
       </c>
       <c r="D111" s="4">
-        <v>5900</v>
+        <v>200</v>
       </c>
       <c r="E111" s="2">
-        <v>10400</v>
+        <v>500</v>
       </c>
       <c r="F111" s="6">
-        <v>4500</v>
+        <v>300</v>
       </c>
       <c r="G111" s="4">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="H111" s="2">
-        <v>3200</v>
+        <v>400</v>
       </c>
       <c r="I111" s="2">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="J111" s="4">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K111" s="2">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="L111" s="6">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B112" s="9" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C112" s="7">
-        <v>149.98426440965801</v>
+        <v>14.4952248380496</v>
       </c>
       <c r="D112" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E112" s="1">
-        <v>2400</v>
+        <v>400</v>
       </c>
       <c r="F112" s="5">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="G112" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H112" s="1">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="I112" s="1">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="J112" s="3">
+        <v>31</v>
+      </c>
+      <c r="K112" s="1">
+        <v>37</v>
+      </c>
+      <c r="L112" s="5">
         <v>6</v>
-      </c>
-      <c r="K112" s="1">
-        <v>23</v>
-      </c>
-      <c r="L112" s="5">
-        <v>17</v>
       </c>
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B113" s="10" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="C113" s="8">
-        <v>56.546080520746401</v>
+        <v>46.743100400889098</v>
       </c>
       <c r="D113" s="4">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E113" s="2">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="F113" s="6">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G113" s="4">
         <v>200</v>
       </c>
       <c r="H113" s="2">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I113" s="2">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J113" s="4">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K113" s="2">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="L113" s="6">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B114" s="9" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="C114" s="7">
-        <v>2.5273148128254301</v>
+        <v>109.53354959624301</v>
       </c>
       <c r="D114" s="3">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="E114" s="1">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F114" s="5">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G114" s="3">
         <v>0</v>
       </c>
       <c r="H114" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I114" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J114" s="3">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="K114" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L114" s="5">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B115" s="10" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="C115" s="8">
-        <v>108.51369460178501</v>
+        <v>167.55890278623099</v>
       </c>
       <c r="D115" s="4">
-        <v>200</v>
+        <v>2200</v>
       </c>
       <c r="E115" s="2">
-        <v>1400</v>
+        <v>2900</v>
       </c>
       <c r="F115" s="6">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="G115" s="4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H115" s="2">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I115" s="2">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="J115" s="4">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K115" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L115" s="6">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B116" s="9" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="C116" s="7">
-        <v>25.461889464413598</v>
+        <v>64.762034715930596</v>
       </c>
       <c r="D116" s="3">
+        <v>100</v>
+      </c>
+      <c r="E116" s="1">
         <v>400</v>
       </c>
-      <c r="E116" s="1">
-        <v>600</v>
-      </c>
       <c r="F116" s="5">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G116" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H116" s="1">
         <v>200</v>
       </c>
       <c r="I116" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J116" s="3">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="K116" s="1">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="L116" s="5">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B117" s="10" t="s">
-        <v>225</v>
+        <v>132</v>
       </c>
       <c r="C117" s="8">
-        <v>115.02312837926399</v>
+        <v>65.353562356640495</v>
       </c>
       <c r="D117" s="4">
+        <v>700</v>
+      </c>
+      <c r="E117" s="2">
         <v>900</v>
       </c>
-      <c r="E117" s="2">
-        <v>2100</v>
-      </c>
       <c r="F117" s="6">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="G117" s="4">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H117" s="2">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="I117" s="2">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="J117" s="4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K117" s="2">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L117" s="6">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B118" s="9" t="s">
-        <v>170</v>
+        <v>106</v>
       </c>
       <c r="C118" s="7">
-        <v>33.160288398777602</v>
+        <v>32.189503917227</v>
       </c>
       <c r="D118" s="3">
+        <v>500</v>
+      </c>
+      <c r="E118" s="1">
+        <v>600</v>
+      </c>
+      <c r="F118" s="5">
+        <v>100</v>
+      </c>
+      <c r="G118" s="3">
+        <v>100</v>
+      </c>
+      <c r="H118" s="1">
         <v>200</v>
       </c>
-      <c r="E118" s="1">
-        <v>500</v>
-      </c>
-      <c r="F118" s="5">
-        <v>300</v>
-      </c>
-      <c r="G118" s="3">
-        <v>100</v>
-      </c>
-      <c r="H118" s="1">
-        <v>300</v>
-      </c>
       <c r="I118" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J118" s="3">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K118" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L118" s="5">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B119" s="10" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="C119" s="8">
-        <v>56.140673655826497</v>
+        <v>41.580517344563702</v>
       </c>
       <c r="D119" s="4">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="E119" s="2">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F119" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G119" s="4">
         <v>0</v>
       </c>
       <c r="H119" s="2">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I119" s="2">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J119" s="4">
+        <v>22</v>
+      </c>
+      <c r="K119" s="2">
+        <v>27</v>
+      </c>
+      <c r="L119" s="6">
         <v>5</v>
-      </c>
-      <c r="K119" s="2">
-        <v>20</v>
-      </c>
-      <c r="L119" s="6">
-        <v>15</v>
       </c>
     </row>
     <row r="120" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B120" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C120" s="7">
-        <v>154.43584299340401</v>
+        <v>207.29117773237601</v>
       </c>
       <c r="D120" s="3">
-        <v>2700</v>
+        <v>4100</v>
       </c>
       <c r="E120" s="1">
-        <v>3900</v>
+        <v>4800</v>
       </c>
       <c r="F120" s="5">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="G120" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H120" s="1">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="I120" s="1">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="J120" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K120" s="1">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="L120" s="5">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C121" s="8">
-        <v>381.220249592752</v>
+        <v>102.697425287353</v>
       </c>
       <c r="D121" s="4">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="E121" s="2">
-        <v>6000</v>
+        <v>2800</v>
       </c>
       <c r="F121" s="6">
-        <v>3600</v>
+        <v>200</v>
       </c>
       <c r="G121" s="4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H121" s="2">
-        <v>2300</v>
+        <v>300</v>
       </c>
       <c r="I121" s="2">
-        <v>1900</v>
+        <v>300</v>
       </c>
       <c r="J121" s="4">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="K121" s="2">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L121" s="6">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B122" s="9" t="s">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="C122" s="7">
-        <v>339.164823310293</v>
+        <v>35.907902480713702</v>
       </c>
       <c r="D122" s="3">
-        <v>4000</v>
+        <v>800</v>
       </c>
       <c r="E122" s="1">
-        <v>6700</v>
+        <v>900</v>
       </c>
       <c r="F122" s="5">
-        <v>2700</v>
+        <v>100</v>
       </c>
       <c r="G122" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H122" s="1">
-        <v>2900</v>
+        <v>100</v>
       </c>
       <c r="I122" s="1">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="J122" s="3">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="K122" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L122" s="5">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="C123" s="8">
-        <v>126.79543598792</v>
+        <v>182.81284189375199</v>
       </c>
       <c r="D123" s="4">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="E123" s="2">
-        <v>4000</v>
+        <v>700</v>
       </c>
       <c r="F123" s="6">
+        <v>600</v>
+      </c>
+      <c r="G123" s="4">
+        <v>700</v>
+      </c>
+      <c r="H123" s="2">
         <v>1000</v>
       </c>
-      <c r="G123" s="4">
-        <v>600</v>
-      </c>
-      <c r="H123" s="2">
-        <v>1500</v>
-      </c>
       <c r="I123" s="2">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="J123" s="4">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="K123" s="2">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="L123" s="6">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B124" s="9" t="s">
-        <v>211</v>
+        <v>29</v>
       </c>
       <c r="C124" s="7">
-        <v>99.174345231307896</v>
+        <v>139.22995567624099</v>
       </c>
       <c r="D124" s="3">
+        <v>900</v>
+      </c>
+      <c r="E124" s="1">
+        <v>1400</v>
+      </c>
+      <c r="F124" s="5">
+        <v>500</v>
+      </c>
+      <c r="G124" s="3">
+        <v>100</v>
+      </c>
+      <c r="H124" s="1">
         <v>300</v>
       </c>
-      <c r="E124" s="1">
-        <v>1300</v>
-      </c>
-      <c r="F124" s="5">
-        <v>1000</v>
-      </c>
-      <c r="G124" s="3">
+      <c r="I124" s="1">
         <v>200</v>
       </c>
-      <c r="H124" s="1">
-        <v>700</v>
-      </c>
-      <c r="I124" s="1">
-        <v>500</v>
-      </c>
       <c r="J124" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K124" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L124" s="5">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
-        <v>194</v>
+        <v>141</v>
       </c>
       <c r="C125" s="8">
-        <v>18.995384165797699</v>
+        <v>12.650576132046499</v>
       </c>
       <c r="D125" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E125" s="2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F125" s="6">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G125" s="4">
         <v>100</v>
@@ -6130,546 +5932,546 @@
         <v>0</v>
       </c>
       <c r="J125" s="4">
+        <v>6</v>
+      </c>
+      <c r="K125" s="2">
         <v>11</v>
       </c>
-      <c r="K125" s="2">
-        <v>25</v>
-      </c>
       <c r="L125" s="6">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B126" s="9" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="C126" s="7">
-        <v>48.804116761303597</v>
+        <v>74.546396585402107</v>
       </c>
       <c r="D126" s="3">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="E126" s="1">
-        <v>600</v>
+        <v>1700</v>
       </c>
       <c r="F126" s="5">
+        <v>200</v>
+      </c>
+      <c r="G126" s="3">
+        <v>400</v>
+      </c>
+      <c r="H126" s="1">
         <v>500</v>
       </c>
-      <c r="G126" s="3">
-        <v>200</v>
-      </c>
-      <c r="H126" s="1">
-        <v>400</v>
-      </c>
       <c r="I126" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J126" s="3">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="K126" s="1">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="L126" s="5">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B127" s="10" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C127" s="8">
-        <v>103.92303373183</v>
+        <v>219.93961435708101</v>
       </c>
       <c r="D127" s="4">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="E127" s="2">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="F127" s="6">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G127" s="4">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="H127" s="2">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="I127" s="2">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="J127" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K127" s="2">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="L127" s="6">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B128" s="9" t="s">
-        <v>214</v>
+        <v>81</v>
       </c>
       <c r="C128" s="7">
-        <v>4.5134555753378098</v>
+        <v>426.38742595105401</v>
       </c>
       <c r="D128" s="3">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="E128" s="1">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="F128" s="5">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="G128" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="H128" s="1">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="I128" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="J128" s="3">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K128" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L128" s="5">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B129" s="10" t="s">
-        <v>206</v>
+        <v>75</v>
       </c>
       <c r="C129" s="8">
-        <v>105.51151106592999</v>
+        <v>100.992624610916</v>
       </c>
       <c r="D129" s="4">
+        <v>900</v>
+      </c>
+      <c r="E129" s="2">
+        <v>1100</v>
+      </c>
+      <c r="F129" s="6">
+        <v>200</v>
+      </c>
+      <c r="G129" s="4">
+        <v>200</v>
+      </c>
+      <c r="H129" s="2">
         <v>400</v>
       </c>
-      <c r="E129" s="2">
-        <v>1500</v>
-      </c>
-      <c r="F129" s="6">
-        <v>1100</v>
-      </c>
-      <c r="G129" s="4">
-        <v>500</v>
-      </c>
-      <c r="H129" s="2">
-        <v>800</v>
-      </c>
       <c r="I129" s="2">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J129" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K129" s="2">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L129" s="6">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B130" s="9" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="C130" s="7">
-        <v>103.606251025744</v>
+        <v>299.04491646500099</v>
       </c>
       <c r="D130" s="3">
-        <v>400</v>
+        <v>3900</v>
       </c>
       <c r="E130" s="1">
-        <v>1300</v>
+        <v>4600</v>
       </c>
       <c r="F130" s="5">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="G130" s="3">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="H130" s="1">
-        <v>900</v>
+        <v>1700</v>
       </c>
       <c r="I130" s="1">
         <v>500</v>
       </c>
       <c r="J130" s="3">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="K130" s="1">
         <v>21</v>
       </c>
       <c r="L130" s="5">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B131" s="10" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="C131" s="8">
-        <v>70.558642236179793</v>
+        <v>33.880689348942099</v>
       </c>
       <c r="D131" s="4">
-        <v>2600</v>
+        <v>200</v>
       </c>
       <c r="E131" s="2">
-        <v>2800</v>
+        <v>200</v>
       </c>
       <c r="F131" s="6">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G131" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H131" s="2">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="I131" s="2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="J131" s="4">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="K131" s="2">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="L131" s="6">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B132" s="9" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="C132" s="7">
-        <v>156.601463830586</v>
+        <v>114.989185312942</v>
       </c>
       <c r="D132" s="3">
-        <v>4500</v>
+        <v>100</v>
       </c>
       <c r="E132" s="1">
-        <v>4900</v>
+        <v>400</v>
       </c>
       <c r="F132" s="5">
+        <v>300</v>
+      </c>
+      <c r="G132" s="3">
+        <v>200</v>
+      </c>
+      <c r="H132" s="1">
         <v>400</v>
       </c>
-      <c r="G132" s="3">
-        <v>600</v>
-      </c>
-      <c r="H132" s="1">
-        <v>2200</v>
-      </c>
       <c r="I132" s="1">
-        <v>1600</v>
+        <v>200</v>
       </c>
       <c r="J132" s="3">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="K132" s="1">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="L132" s="5">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B133" s="10" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="C133" s="8">
-        <v>138.25314838881101</v>
+        <v>68.478376805279595</v>
       </c>
       <c r="D133" s="4">
-        <v>3100</v>
+        <v>0</v>
       </c>
       <c r="E133" s="2">
-        <v>4300</v>
+        <v>200</v>
       </c>
       <c r="F133" s="6">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="G133" s="4">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="H133" s="2">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="I133" s="2">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="J133" s="4">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="K133" s="2">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="L133" s="6">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B134" s="9" t="s">
-        <v>223</v>
+        <v>42</v>
       </c>
       <c r="C134" s="7">
-        <v>144.966344231275</v>
+        <v>23.767310909282902</v>
       </c>
       <c r="D134" s="3">
         <v>400</v>
       </c>
       <c r="E134" s="1">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="F134" s="5">
-        <v>1400</v>
+        <v>100</v>
       </c>
       <c r="G134" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="H134" s="1">
-        <v>1300</v>
+        <v>100</v>
       </c>
       <c r="I134" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J134" s="3">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="K134" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L134" s="5">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B135" s="10" t="s">
-        <v>210</v>
+        <v>149</v>
       </c>
       <c r="C135" s="8">
-        <v>100.710309894272</v>
+        <v>72.453487665738805</v>
       </c>
       <c r="D135" s="4">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="E135" s="2">
         <v>1800</v>
       </c>
       <c r="F135" s="6">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="G135" s="4">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H135" s="2">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="I135" s="2">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J135" s="4">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="K135" s="2">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="L135" s="6">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B136" s="9" t="s">
-        <v>204</v>
+        <v>23</v>
       </c>
       <c r="C136" s="7">
-        <v>13.046429494285301</v>
+        <v>452.61679144507599</v>
       </c>
       <c r="D136" s="3">
-        <v>100</v>
+        <v>12200</v>
       </c>
       <c r="E136" s="1">
-        <v>200</v>
+        <v>13000</v>
       </c>
       <c r="F136" s="5">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="G136" s="3">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="H136" s="1">
-        <v>100</v>
+        <v>3100</v>
       </c>
       <c r="I136" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J136" s="3">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="K136" s="1">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L136" s="5">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B137" s="10" t="s">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="C137" s="8">
-        <v>24.442262541165199</v>
+        <v>4.4064962869784701</v>
       </c>
       <c r="D137" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E137" s="2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F137" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G137" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H137" s="2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I137" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J137" s="4">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="K137" s="2">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="L137" s="6">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B138" s="9" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="C138" s="7">
-        <v>33.135827215233498</v>
+        <v>55.5967114829064</v>
       </c>
       <c r="D138" s="3">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="E138" s="1">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="F138" s="5">
+        <v>100</v>
+      </c>
+      <c r="G138" s="3">
+        <v>100</v>
+      </c>
+      <c r="H138" s="1">
         <v>200</v>
       </c>
-      <c r="G138" s="3">
-        <v>0</v>
-      </c>
-      <c r="H138" s="1">
-        <v>300</v>
-      </c>
       <c r="I138" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J138" s="3">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K138" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L138" s="5">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B139" s="10" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="C139" s="8">
-        <v>114.840166059438</v>
+        <v>30.938149542212098</v>
       </c>
       <c r="D139" s="4">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E139" s="2">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F139" s="6">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="G139" s="4">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H139" s="2">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="I139" s="2">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J139" s="4">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="K139" s="2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L139" s="6">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B140" s="9" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="C140" s="7">
-        <v>17.481614231398201</v>
+        <v>156.62402664258701</v>
       </c>
       <c r="D140" s="3">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="E140" s="1">
-        <v>200</v>
+        <v>4700</v>
       </c>
       <c r="F140" s="5">
         <v>200</v>
       </c>
       <c r="G140" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="H140" s="1">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="I140" s="1">
         <v>100</v>
       </c>
       <c r="J140" s="3">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="K140" s="1">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="L140" s="5">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B141" s="10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C141" s="8">
-        <v>4.4106636155368104</v>
+        <v>23.086442578497</v>
       </c>
       <c r="D141" s="4">
         <v>0</v>
@@ -6681,2857 +6483,510 @@
         <v>0</v>
       </c>
       <c r="G141" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H141" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I141" s="2">
         <v>0</v>
       </c>
       <c r="J141" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K141" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L141" s="6">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B142" s="9" t="s">
-        <v>224</v>
+        <v>27</v>
       </c>
       <c r="C142" s="7">
-        <v>48.003856249891697</v>
+        <v>126.848809376349</v>
       </c>
       <c r="D142" s="3">
-        <v>200</v>
+        <v>3000</v>
       </c>
       <c r="E142" s="1">
+        <v>3100</v>
+      </c>
+      <c r="F142" s="5">
+        <v>100</v>
+      </c>
+      <c r="G142" s="3">
         <v>600</v>
       </c>
-      <c r="F142" s="5">
-        <v>400</v>
-      </c>
-      <c r="G142" s="3">
-        <v>500</v>
-      </c>
       <c r="H142" s="1">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I142" s="1">
         <v>100</v>
       </c>
       <c r="J142" s="3">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K142" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L142" s="5">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B143" s="10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C143" s="8">
-        <v>83.262562443706798</v>
+        <v>98.052428322630504</v>
       </c>
       <c r="D143" s="4">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E143" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F143" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G143" s="4">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H143" s="2">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I143" s="2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J143" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K143" s="2">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="L143" s="6">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B144" s="9" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C144" s="7">
-        <v>38.431809762203301</v>
+        <v>8.2216910735482198</v>
       </c>
       <c r="D144" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E144" s="1">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F144" s="5">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G144" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H144" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I144" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J144" s="3">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K144" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L144" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B145" s="10" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C145" s="8">
-        <v>85.287118029391493</v>
+        <v>96.6508128756888</v>
       </c>
       <c r="D145" s="4">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E145" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F145" s="6">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="G145" s="4">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H145" s="2">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="I145" s="2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J145" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K145" s="2">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="L145" s="6">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B146" s="9" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="C146" s="7">
-        <v>2.3766106324584499</v>
+        <v>845.68579825562199</v>
       </c>
       <c r="D146" s="3">
         <v>0</v>
       </c>
       <c r="E146" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F146" s="5">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G146" s="3">
         <v>0</v>
       </c>
       <c r="H146" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I146" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J146" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K146" s="1">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="L146" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B147" s="10" t="s">
-        <v>222</v>
+        <v>154</v>
       </c>
       <c r="C147" s="8">
-        <v>52.357757942995597</v>
+        <v>53.9411229196741</v>
       </c>
       <c r="D147" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E147" s="2">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="F147" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G147" s="4">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="H147" s="2">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="I147" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J147" s="4">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="K147" s="2">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="L147" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B148" s="9" t="s">
-        <v>217</v>
+        <v>150</v>
       </c>
       <c r="C148" s="7">
-        <v>108.64414500335501</v>
+        <v>28.7521035349451</v>
       </c>
       <c r="D148" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E148" s="1">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="F148" s="5">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G148" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="H148" s="1">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="I148" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J148" s="3">
+        <v>3</v>
+      </c>
+      <c r="K148" s="1">
         <v>4</v>
       </c>
-      <c r="K148" s="1">
-        <v>14</v>
-      </c>
       <c r="L148" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B149" s="10" t="s">
-        <v>177</v>
+        <v>9</v>
       </c>
       <c r="C149" s="8">
-        <v>111.627115906638</v>
+        <v>149.907469235696</v>
       </c>
       <c r="D149" s="4">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="E149" s="2">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="F149" s="6">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="G149" s="4">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="H149" s="2">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="I149" s="2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="J149" s="4">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="K149" s="2">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="L149" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B150" s="9" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="C150" s="7">
-        <v>83.356842959705006</v>
+        <v>125.609566144543</v>
       </c>
       <c r="D150" s="3">
-        <v>600</v>
+        <v>4700</v>
       </c>
       <c r="E150" s="1">
-        <v>1100</v>
+        <v>4700</v>
       </c>
       <c r="F150" s="5">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G150" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H150" s="1">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="I150" s="1">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J150" s="3">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="K150" s="1">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="L150" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B151" s="10" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="C151" s="8">
-        <v>115.397919720125</v>
+        <v>65.625240951786495</v>
       </c>
       <c r="D151" s="4">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="E151" s="2">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="F151" s="6">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G151" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H151" s="2">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="I151" s="2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="J151" s="4">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K151" s="2">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="L151" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B152" s="9" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="C152" s="7">
-        <v>21.350700112842802</v>
+        <v>98.245093911622106</v>
       </c>
       <c r="D152" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E152" s="1">
-        <v>100</v>
+        <v>1600</v>
       </c>
       <c r="F152" s="5">
         <v>100</v>
       </c>
       <c r="G152" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="H152" s="1">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="I152" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J152" s="3">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="K152" s="1">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L152" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B153" s="10" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="C153" s="8">
-        <v>207.128930355715</v>
+        <v>303.504072514754</v>
       </c>
       <c r="D153" s="4">
-        <v>4100</v>
+        <v>13300</v>
       </c>
       <c r="E153" s="2">
-        <v>5100</v>
+        <v>13300</v>
       </c>
       <c r="F153" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G153" s="4">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="H153" s="2">
-        <v>1700</v>
+        <v>100</v>
       </c>
       <c r="I153" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J153" s="4">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="K153" s="2">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="L153" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B154" s="9" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="C154" s="7">
-        <v>139.33442276984499</v>
+        <v>2.7386570445659402</v>
       </c>
       <c r="D154" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="E154" s="1">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="F154" s="5">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G154" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H154" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I154" s="1">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J154" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K154" s="1">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="L154" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B155" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="C155" s="8">
-        <v>31.234277875364199</v>
-      </c>
-      <c r="D155" s="4">
-        <v>0</v>
-      </c>
-      <c r="E155" s="2">
-        <v>200</v>
-      </c>
-      <c r="F155" s="6">
-        <v>200</v>
-      </c>
-      <c r="G155" s="4">
-        <v>100</v>
-      </c>
-      <c r="H155" s="2">
-        <v>200</v>
-      </c>
-      <c r="I155" s="2">
-        <v>100</v>
-      </c>
-      <c r="J155" s="4">
-        <v>4</v>
-      </c>
-      <c r="K155" s="2">
-        <v>13</v>
-      </c>
-      <c r="L155" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="156" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B156" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="C156" s="7">
-        <v>185.869677210693</v>
-      </c>
-      <c r="D156" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E156" s="1">
-        <v>2900</v>
-      </c>
-      <c r="F156" s="5">
-        <v>900</v>
-      </c>
-      <c r="G156" s="3">
-        <v>700</v>
-      </c>
-      <c r="H156" s="1">
-        <v>1300</v>
-      </c>
-      <c r="I156" s="1">
-        <v>600</v>
-      </c>
-      <c r="J156" s="3">
-        <v>14</v>
-      </c>
-      <c r="K156" s="1">
-        <v>23</v>
-      </c>
-      <c r="L156" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="157" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B157" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C157" s="8">
-        <v>65.279010067524595</v>
-      </c>
-      <c r="D157" s="4">
-        <v>700</v>
-      </c>
-      <c r="E157" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F157" s="6">
-        <v>300</v>
-      </c>
-      <c r="G157" s="4">
-        <v>200</v>
-      </c>
-      <c r="H157" s="2">
-        <v>500</v>
-      </c>
-      <c r="I157" s="2">
-        <v>300</v>
-      </c>
-      <c r="J157" s="4">
-        <v>14</v>
-      </c>
-      <c r="K157" s="2">
-        <v>23</v>
-      </c>
-      <c r="L157" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="158" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B158" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="C158" s="7">
-        <v>0.32169044620147802</v>
-      </c>
-      <c r="D158" s="3">
-        <v>0</v>
-      </c>
-      <c r="E158" s="1">
-        <v>0</v>
-      </c>
-      <c r="F158" s="5">
-        <v>0</v>
-      </c>
-      <c r="G158" s="3">
-        <v>0</v>
-      </c>
-      <c r="H158" s="1">
-        <v>0</v>
-      </c>
-      <c r="I158" s="1">
-        <v>0</v>
-      </c>
-      <c r="J158" s="3">
-        <v>3</v>
-      </c>
-      <c r="K158" s="1">
-        <v>12</v>
-      </c>
-      <c r="L158" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="159" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B159" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C159" s="8">
-        <v>130.98135778679301</v>
-      </c>
-      <c r="D159" s="4">
-        <v>800</v>
-      </c>
-      <c r="E159" s="2">
-        <v>1600</v>
-      </c>
-      <c r="F159" s="6">
-        <v>800</v>
-      </c>
-      <c r="G159" s="4">
-        <v>700</v>
-      </c>
-      <c r="H159" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I159" s="2">
-        <v>300</v>
-      </c>
-      <c r="J159" s="4">
-        <v>11</v>
-      </c>
-      <c r="K159" s="2">
-        <v>20</v>
-      </c>
-      <c r="L159" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="160" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B160" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C160" s="7">
-        <v>56.0601525825303</v>
-      </c>
-      <c r="D160" s="3">
-        <v>1100</v>
-      </c>
-      <c r="E160" s="1">
-        <v>1400</v>
-      </c>
-      <c r="F160" s="5">
-        <v>300</v>
-      </c>
-      <c r="G160" s="3">
-        <v>100</v>
-      </c>
-      <c r="H160" s="1">
-        <v>400</v>
-      </c>
-      <c r="I160" s="1">
-        <v>300</v>
-      </c>
-      <c r="J160" s="3">
-        <v>22</v>
-      </c>
-      <c r="K160" s="1">
-        <v>31</v>
-      </c>
-      <c r="L160" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="161" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B161" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C161" s="8">
-        <v>336.333365628536</v>
-      </c>
-      <c r="D161" s="4">
-        <v>14300</v>
-      </c>
-      <c r="E161" s="2">
-        <v>16100</v>
-      </c>
-      <c r="F161" s="6">
-        <v>1800</v>
-      </c>
-      <c r="G161" s="4">
-        <v>100</v>
-      </c>
-      <c r="H161" s="2">
-        <v>1500</v>
-      </c>
-      <c r="I161" s="2">
-        <v>1400</v>
-      </c>
-      <c r="J161" s="4">
-        <v>43</v>
-      </c>
-      <c r="K161" s="2">
-        <v>52</v>
-      </c>
-      <c r="L161" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="162" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B162" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C162" s="7">
-        <v>23.806446552370499</v>
-      </c>
-      <c r="D162" s="3">
-        <v>400</v>
-      </c>
-      <c r="E162" s="1">
-        <v>500</v>
-      </c>
-      <c r="F162" s="5">
-        <v>100</v>
-      </c>
-      <c r="G162" s="3">
-        <v>100</v>
-      </c>
-      <c r="H162" s="1">
-        <v>200</v>
-      </c>
-      <c r="I162" s="1">
-        <v>100</v>
-      </c>
-      <c r="J162" s="3">
-        <v>22</v>
-      </c>
-      <c r="K162" s="1">
-        <v>31</v>
-      </c>
-      <c r="L162" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="163" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B163" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C163" s="8">
-        <v>8.1801902305051204</v>
-      </c>
-      <c r="D163" s="4">
-        <v>100</v>
-      </c>
-      <c r="E163" s="2">
-        <v>100</v>
-      </c>
-      <c r="F163" s="6">
-        <v>0</v>
-      </c>
-      <c r="G163" s="4">
-        <v>0</v>
-      </c>
-      <c r="H163" s="2">
-        <v>0</v>
-      </c>
-      <c r="I163" s="2">
-        <v>0</v>
-      </c>
-      <c r="J163" s="4">
-        <v>12</v>
-      </c>
-      <c r="K163" s="2">
-        <v>20</v>
-      </c>
-      <c r="L163" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="164" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B164" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C164" s="7">
-        <v>186.48739094023301</v>
-      </c>
-      <c r="D164" s="3">
-        <v>700</v>
-      </c>
-      <c r="E164" s="1">
-        <v>1800</v>
-      </c>
-      <c r="F164" s="5">
-        <v>1100</v>
-      </c>
-      <c r="G164" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H164" s="1">
-        <v>1500</v>
-      </c>
-      <c r="I164" s="1">
-        <v>400</v>
-      </c>
-      <c r="J164" s="3">
-        <v>10</v>
-      </c>
-      <c r="K164" s="1">
-        <v>18</v>
-      </c>
-      <c r="L164" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="165" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B165" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C165" s="8">
-        <v>111.89529273264399</v>
-      </c>
-      <c r="D165" s="4">
-        <v>1900</v>
-      </c>
-      <c r="E165" s="2">
-        <v>2100</v>
-      </c>
-      <c r="F165" s="6">
-        <v>200</v>
-      </c>
-      <c r="G165" s="4">
-        <v>200</v>
-      </c>
-      <c r="H165" s="2">
-        <v>800</v>
-      </c>
-      <c r="I165" s="2">
-        <v>600</v>
-      </c>
-      <c r="J165" s="4">
-        <v>19</v>
-      </c>
-      <c r="K165" s="2">
-        <v>27</v>
-      </c>
-      <c r="L165" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="166" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B166" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C166" s="7">
-        <v>11.048428684763801</v>
-      </c>
-      <c r="D166" s="3">
-        <v>0</v>
-      </c>
-      <c r="E166" s="1">
-        <v>100</v>
-      </c>
-      <c r="F166" s="5">
-        <v>100</v>
-      </c>
-      <c r="G166" s="3">
-        <v>0</v>
-      </c>
-      <c r="H166" s="1">
-        <v>100</v>
-      </c>
-      <c r="I166" s="1">
-        <v>100</v>
-      </c>
-      <c r="J166" s="3">
-        <v>6</v>
-      </c>
-      <c r="K166" s="1">
-        <v>14</v>
-      </c>
-      <c r="L166" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="167" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B167" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="C167" s="8">
-        <v>119.50487748367701</v>
-      </c>
-      <c r="D167" s="4">
-        <v>1800</v>
-      </c>
-      <c r="E167" s="2">
-        <v>2500</v>
-      </c>
-      <c r="F167" s="6">
-        <v>700</v>
-      </c>
-      <c r="G167" s="4">
-        <v>400</v>
-      </c>
-      <c r="H167" s="2">
-        <v>800</v>
-      </c>
-      <c r="I167" s="2">
-        <v>400</v>
-      </c>
-      <c r="J167" s="4">
-        <v>19</v>
-      </c>
-      <c r="K167" s="2">
-        <v>27</v>
-      </c>
-      <c r="L167" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="168" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B168" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C168" s="7">
-        <v>34.614178384516997</v>
-      </c>
-      <c r="D168" s="3">
-        <v>400</v>
-      </c>
-      <c r="E168" s="1">
-        <v>500</v>
-      </c>
-      <c r="F168" s="5">
-        <v>100</v>
-      </c>
-      <c r="G168" s="3">
-        <v>200</v>
-      </c>
-      <c r="H168" s="1">
-        <v>300</v>
-      </c>
-      <c r="I168" s="1">
-        <v>100</v>
-      </c>
-      <c r="J168" s="3">
-        <v>18</v>
-      </c>
-      <c r="K168" s="1">
-        <v>26</v>
-      </c>
-      <c r="L168" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="169" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B169" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C169" s="8">
-        <v>17.2677847907729</v>
-      </c>
-      <c r="D169" s="4">
-        <v>0</v>
-      </c>
-      <c r="E169" s="2">
-        <v>100</v>
-      </c>
-      <c r="F169" s="6">
-        <v>100</v>
-      </c>
-      <c r="G169" s="4">
-        <v>100</v>
-      </c>
-      <c r="H169" s="2">
-        <v>100</v>
-      </c>
-      <c r="I169" s="2">
-        <v>0</v>
-      </c>
-      <c r="J169" s="4">
-        <v>6</v>
-      </c>
-      <c r="K169" s="2">
-        <v>14</v>
-      </c>
-      <c r="L169" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="170" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B170" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C170" s="7">
-        <v>452.79010750679998</v>
-      </c>
-      <c r="D170" s="3">
-        <v>12200</v>
-      </c>
-      <c r="E170" s="1">
-        <v>13900</v>
-      </c>
-      <c r="F170" s="5">
-        <v>1700</v>
-      </c>
-      <c r="G170" s="3">
-        <v>2600</v>
-      </c>
-      <c r="H170" s="1">
-        <v>4800</v>
-      </c>
-      <c r="I170" s="1">
-        <v>2200</v>
-      </c>
-      <c r="J170" s="3">
-        <v>33</v>
-      </c>
-      <c r="K170" s="1">
-        <v>41</v>
-      </c>
-      <c r="L170" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="171" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B171" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="C171" s="8">
-        <v>8.8031769900411998</v>
-      </c>
-      <c r="D171" s="4">
-        <v>100</v>
-      </c>
-      <c r="E171" s="2">
-        <v>200</v>
-      </c>
-      <c r="F171" s="6">
-        <v>100</v>
-      </c>
-      <c r="G171" s="4">
-        <v>0</v>
-      </c>
-      <c r="H171" s="2">
-        <v>0</v>
-      </c>
-      <c r="I171" s="2">
-        <v>0</v>
-      </c>
-      <c r="J171" s="4">
+      <c r="B155" s="11"/>
+      <c r="C155" s="12">
+        <v>36374.3731105755</v>
+      </c>
+      <c r="D155" s="13">
+        <v>483900</v>
+      </c>
+      <c r="E155" s="14">
+        <v>1011400</v>
+      </c>
+      <c r="F155" s="15">
+        <v>527500</v>
+      </c>
+      <c r="G155" s="13">
+        <v>84000</v>
+      </c>
+      <c r="H155" s="14">
+        <v>342600</v>
+      </c>
+      <c r="I155" s="14">
+        <v>258600</v>
+      </c>
+      <c r="J155" s="13">
         <v>16</v>
       </c>
-      <c r="K171" s="2">
-        <v>23</v>
-      </c>
-      <c r="L171" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="172" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B172" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C172" s="7">
-        <v>109.584007468064</v>
-      </c>
-      <c r="D172" s="3">
-        <v>2600</v>
-      </c>
-      <c r="E172" s="1">
-        <v>3100</v>
-      </c>
-      <c r="F172" s="5">
-        <v>500</v>
-      </c>
-      <c r="G172" s="3">
-        <v>0</v>
-      </c>
-      <c r="H172" s="1">
-        <v>300</v>
-      </c>
-      <c r="I172" s="1">
-        <v>300</v>
-      </c>
-      <c r="J172" s="3">
-        <v>24</v>
-      </c>
-      <c r="K172" s="1">
-        <v>31</v>
-      </c>
-      <c r="L172" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="173" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B173" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C173" s="8">
-        <v>11.251327379976001</v>
-      </c>
-      <c r="D173" s="4">
-        <v>0</v>
-      </c>
-      <c r="E173" s="2">
-        <v>100</v>
-      </c>
-      <c r="F173" s="6">
-        <v>100</v>
-      </c>
-      <c r="G173" s="4">
-        <v>100</v>
-      </c>
-      <c r="H173" s="2">
-        <v>100</v>
-      </c>
-      <c r="I173" s="2">
-        <v>0</v>
-      </c>
-      <c r="J173" s="4">
-        <v>6</v>
-      </c>
-      <c r="K173" s="2">
-        <v>13</v>
-      </c>
-      <c r="L173" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="174" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B174" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C174" s="7">
-        <v>28.915391460101201</v>
-      </c>
-      <c r="D174" s="3">
-        <v>0</v>
-      </c>
-      <c r="E174" s="1">
-        <v>100</v>
-      </c>
-      <c r="F174" s="5">
-        <v>100</v>
-      </c>
-      <c r="G174" s="3">
-        <v>100</v>
-      </c>
-      <c r="H174" s="1">
-        <v>100</v>
-      </c>
-      <c r="I174" s="1">
-        <v>0</v>
-      </c>
-      <c r="J174" s="3">
-        <v>3</v>
-      </c>
-      <c r="K174" s="1">
-        <v>10</v>
-      </c>
-      <c r="L174" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="175" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B175" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C175" s="8">
-        <v>38.374632256335701</v>
-      </c>
-      <c r="D175" s="4">
-        <v>800</v>
-      </c>
-      <c r="E175" s="2">
-        <v>900</v>
-      </c>
-      <c r="F175" s="6">
-        <v>100</v>
-      </c>
-      <c r="G175" s="4">
-        <v>100</v>
-      </c>
-      <c r="H175" s="2">
-        <v>300</v>
-      </c>
-      <c r="I175" s="2">
-        <v>200</v>
-      </c>
-      <c r="J175" s="4">
-        <v>23</v>
-      </c>
-      <c r="K175" s="2">
-        <v>30</v>
-      </c>
-      <c r="L175" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="176" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B176" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="C176" s="7">
-        <v>33.314311218662802</v>
-      </c>
-      <c r="D176" s="3">
-        <v>0</v>
-      </c>
-      <c r="E176" s="1">
-        <v>200</v>
-      </c>
-      <c r="F176" s="5">
-        <v>200</v>
-      </c>
-      <c r="G176" s="3">
-        <v>300</v>
-      </c>
-      <c r="H176" s="1">
-        <v>400</v>
-      </c>
-      <c r="I176" s="1">
-        <v>100</v>
-      </c>
-      <c r="J176" s="3">
-        <v>11</v>
-      </c>
-      <c r="K176" s="1">
-        <v>17</v>
-      </c>
-      <c r="L176" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="177" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B177" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C177" s="8">
-        <v>1.1288030710439101</v>
-      </c>
-      <c r="D177" s="4">
-        <v>0</v>
-      </c>
-      <c r="E177" s="2">
-        <v>0</v>
-      </c>
-      <c r="F177" s="6">
-        <v>0</v>
-      </c>
-      <c r="G177" s="4">
-        <v>0</v>
-      </c>
-      <c r="H177" s="2">
-        <v>0</v>
-      </c>
-      <c r="I177" s="2">
-        <v>0</v>
-      </c>
-      <c r="J177" s="4">
-        <v>6</v>
-      </c>
-      <c r="K177" s="2">
-        <v>12</v>
-      </c>
-      <c r="L177" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="178" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B178" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C178" s="7">
-        <v>97.132241606296603</v>
-      </c>
-      <c r="D178" s="3">
-        <v>0</v>
-      </c>
-      <c r="E178" s="1">
-        <v>500</v>
-      </c>
-      <c r="F178" s="5">
-        <v>500</v>
-      </c>
-      <c r="G178" s="3">
-        <v>300</v>
-      </c>
-      <c r="H178" s="1">
-        <v>500</v>
-      </c>
-      <c r="I178" s="1">
-        <v>200</v>
-      </c>
-      <c r="J178" s="3">
-        <v>3</v>
-      </c>
-      <c r="K178" s="1">
-        <v>9</v>
-      </c>
-      <c r="L178" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="179" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B179" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C179" s="8">
-        <v>34.040152640049499</v>
-      </c>
-      <c r="D179" s="4">
-        <v>200</v>
-      </c>
-      <c r="E179" s="2">
-        <v>300</v>
-      </c>
-      <c r="F179" s="6">
-        <v>100</v>
-      </c>
-      <c r="G179" s="4">
-        <v>100</v>
-      </c>
-      <c r="H179" s="2">
-        <v>100</v>
-      </c>
-      <c r="I179" s="2">
-        <v>0</v>
-      </c>
-      <c r="J179" s="4">
-        <v>6</v>
-      </c>
-      <c r="K179" s="2">
-        <v>12</v>
-      </c>
-      <c r="L179" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="180" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B180" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C180" s="7">
-        <v>1.5036379768615</v>
-      </c>
-      <c r="D180" s="3">
-        <v>100</v>
-      </c>
-      <c r="E180" s="1">
-        <v>100</v>
-      </c>
-      <c r="F180" s="5">
-        <v>0</v>
-      </c>
-      <c r="G180" s="3">
-        <v>0</v>
-      </c>
-      <c r="H180" s="1">
-        <v>0</v>
-      </c>
-      <c r="I180" s="1">
-        <v>0</v>
-      </c>
-      <c r="J180" s="3">
-        <v>41</v>
-      </c>
-      <c r="K180" s="1">
-        <v>47</v>
-      </c>
-      <c r="L180" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="181" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B181" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C181" s="8">
-        <v>24.603094080469699</v>
-      </c>
-      <c r="D181" s="4">
-        <v>100</v>
-      </c>
-      <c r="E181" s="2">
-        <v>200</v>
-      </c>
-      <c r="F181" s="6">
-        <v>100</v>
-      </c>
-      <c r="G181" s="4">
-        <v>0</v>
-      </c>
-      <c r="H181" s="2">
-        <v>0</v>
-      </c>
-      <c r="I181" s="2">
-        <v>0</v>
-      </c>
-      <c r="J181" s="4">
-        <v>4</v>
-      </c>
-      <c r="K181" s="2">
-        <v>9</v>
-      </c>
-      <c r="L181" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="182" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B182" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C182" s="7">
-        <v>34.566685836165902</v>
-      </c>
-      <c r="D182" s="3">
-        <v>100</v>
-      </c>
-      <c r="E182" s="1">
-        <v>200</v>
-      </c>
-      <c r="F182" s="5">
-        <v>100</v>
-      </c>
-      <c r="G182" s="3">
-        <v>200</v>
-      </c>
-      <c r="H182" s="1">
-        <v>300</v>
-      </c>
-      <c r="I182" s="1">
-        <v>100</v>
-      </c>
-      <c r="J182" s="3">
-        <v>8</v>
-      </c>
-      <c r="K182" s="1">
-        <v>13</v>
-      </c>
-      <c r="L182" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="183" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B183" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C183" s="8">
-        <v>33.9914985409577</v>
-      </c>
-      <c r="D183" s="4">
-        <v>800</v>
-      </c>
-      <c r="E183" s="2">
-        <v>900</v>
-      </c>
-      <c r="F183" s="6">
-        <v>100</v>
-      </c>
-      <c r="G183" s="4">
-        <v>0</v>
-      </c>
-      <c r="H183" s="2">
-        <v>100</v>
-      </c>
-      <c r="I183" s="2">
-        <v>100</v>
-      </c>
-      <c r="J183" s="4">
-        <v>25</v>
-      </c>
-      <c r="K183" s="2">
-        <v>30</v>
-      </c>
-      <c r="L183" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="184" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B184" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C184" s="7">
-        <v>33.6904717510781</v>
-      </c>
-      <c r="D184" s="3">
-        <v>300</v>
-      </c>
-      <c r="E184" s="1">
-        <v>400</v>
-      </c>
-      <c r="F184" s="5">
-        <v>100</v>
-      </c>
-      <c r="G184" s="3">
-        <v>200</v>
-      </c>
-      <c r="H184" s="1">
-        <v>300</v>
-      </c>
-      <c r="I184" s="1">
-        <v>100</v>
-      </c>
-      <c r="J184" s="3">
-        <v>16</v>
-      </c>
-      <c r="K184" s="1">
-        <v>20</v>
-      </c>
-      <c r="L184" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="185" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B185" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C185" s="8">
-        <v>98.284783780440094</v>
-      </c>
-      <c r="D185" s="4">
-        <v>1500</v>
-      </c>
-      <c r="E185" s="2">
-        <v>2000</v>
-      </c>
-      <c r="F185" s="6">
-        <v>500</v>
-      </c>
-      <c r="G185" s="4">
-        <v>800</v>
-      </c>
-      <c r="H185" s="2">
-        <v>700</v>
-      </c>
-      <c r="I185" s="2">
-        <v>-100</v>
-      </c>
-      <c r="J185" s="4">
-        <v>24</v>
-      </c>
-      <c r="K185" s="2">
-        <v>28</v>
-      </c>
-      <c r="L185" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="186" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B186" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C186" s="7">
-        <v>31.419710451925699</v>
-      </c>
-      <c r="D186" s="3">
-        <v>900</v>
-      </c>
-      <c r="E186" s="1">
-        <v>900</v>
-      </c>
-      <c r="F186" s="5">
-        <v>0</v>
-      </c>
-      <c r="G186" s="3">
-        <v>0</v>
-      </c>
-      <c r="H186" s="1">
-        <v>100</v>
-      </c>
-      <c r="I186" s="1">
-        <v>100</v>
-      </c>
-      <c r="J186" s="3">
-        <v>28</v>
-      </c>
-      <c r="K186" s="1">
-        <v>32</v>
-      </c>
-      <c r="L186" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="187" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B187" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C187" s="8">
-        <v>96.572740864052506</v>
-      </c>
-      <c r="D187" s="4">
-        <v>0</v>
-      </c>
-      <c r="E187" s="2">
-        <v>300</v>
-      </c>
-      <c r="F187" s="6">
-        <v>300</v>
-      </c>
-      <c r="G187" s="4">
-        <v>400</v>
-      </c>
-      <c r="H187" s="2">
-        <v>500</v>
-      </c>
-      <c r="I187" s="2">
-        <v>100</v>
-      </c>
-      <c r="J187" s="4">
-        <v>4</v>
-      </c>
-      <c r="K187" s="2">
-        <v>8</v>
-      </c>
-      <c r="L187" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="188" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B188" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C188" s="7">
-        <v>15.5350341393781</v>
-      </c>
-      <c r="D188" s="3">
-        <v>400</v>
-      </c>
-      <c r="E188" s="1">
-        <v>400</v>
-      </c>
-      <c r="F188" s="5">
-        <v>0</v>
-      </c>
-      <c r="G188" s="3">
-        <v>0</v>
-      </c>
-      <c r="H188" s="1">
-        <v>100</v>
-      </c>
-      <c r="I188" s="1">
-        <v>100</v>
-      </c>
-      <c r="J188" s="3">
-        <v>27</v>
-      </c>
-      <c r="K188" s="1">
-        <v>31</v>
-      </c>
-      <c r="L188" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="189" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B189" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C189" s="8">
-        <v>25.846060787437899</v>
-      </c>
-      <c r="D189" s="4">
-        <v>600</v>
-      </c>
-      <c r="E189" s="2">
-        <v>600</v>
-      </c>
-      <c r="F189" s="6">
-        <v>0</v>
-      </c>
-      <c r="G189" s="4">
-        <v>0</v>
-      </c>
-      <c r="H189" s="2">
-        <v>0</v>
-      </c>
-      <c r="I189" s="2">
-        <v>0</v>
-      </c>
-      <c r="J189" s="4">
-        <v>22</v>
-      </c>
-      <c r="K189" s="2">
-        <v>26</v>
-      </c>
-      <c r="L189" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="190" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B190" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C190" s="7">
-        <v>61.588359147545702</v>
-      </c>
-      <c r="D190" s="3">
-        <v>900</v>
-      </c>
-      <c r="E190" s="1">
-        <v>800</v>
-      </c>
-      <c r="F190" s="5">
-        <v>-100</v>
-      </c>
-      <c r="G190" s="3">
-        <v>300</v>
-      </c>
-      <c r="H190" s="1">
-        <v>600</v>
-      </c>
-      <c r="I190" s="1">
-        <v>300</v>
-      </c>
-      <c r="J190" s="3">
-        <v>20</v>
-      </c>
-      <c r="K190" s="1">
-        <v>23</v>
-      </c>
-      <c r="L190" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="191" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B191" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C191" s="8">
-        <v>24.3405035373444</v>
-      </c>
-      <c r="D191" s="4">
-        <v>800</v>
-      </c>
-      <c r="E191" s="2">
-        <v>800</v>
-      </c>
-      <c r="F191" s="6">
-        <v>0</v>
-      </c>
-      <c r="G191" s="4">
-        <v>200</v>
-      </c>
-      <c r="H191" s="2">
-        <v>200</v>
-      </c>
-      <c r="I191" s="2">
-        <v>0</v>
-      </c>
-      <c r="J191" s="4">
-        <v>39</v>
-      </c>
-      <c r="K191" s="2">
-        <v>42</v>
-      </c>
-      <c r="L191" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="192" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B192" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C192" s="7">
-        <v>2.0852685829921098</v>
-      </c>
-      <c r="D192" s="3">
-        <v>0</v>
-      </c>
-      <c r="E192" s="1">
-        <v>0</v>
-      </c>
-      <c r="F192" s="5">
-        <v>0</v>
-      </c>
-      <c r="G192" s="3">
-        <v>0</v>
-      </c>
-      <c r="H192" s="1">
-        <v>0</v>
-      </c>
-      <c r="I192" s="1">
-        <v>0</v>
-      </c>
-      <c r="J192" s="3">
-        <v>12</v>
-      </c>
-      <c r="K192" s="1">
-        <v>15</v>
-      </c>
-      <c r="L192" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="193" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B193" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C193" s="8">
-        <v>26.0641595306267</v>
-      </c>
-      <c r="D193" s="4">
-        <v>0</v>
-      </c>
-      <c r="E193" s="2">
-        <v>0</v>
-      </c>
-      <c r="F193" s="6">
-        <v>0</v>
-      </c>
-      <c r="G193" s="4">
-        <v>100</v>
-      </c>
-      <c r="H193" s="2">
-        <v>100</v>
-      </c>
-      <c r="I193" s="2">
-        <v>0</v>
-      </c>
-      <c r="J193" s="4">
-        <v>2</v>
-      </c>
-      <c r="K193" s="2">
-        <v>5</v>
-      </c>
-      <c r="L193" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="194" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B194" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C194" s="7">
-        <v>20.607412870724598</v>
-      </c>
-      <c r="D194" s="3">
-        <v>100</v>
-      </c>
-      <c r="E194" s="1">
-        <v>100</v>
-      </c>
-      <c r="F194" s="5">
-        <v>0</v>
-      </c>
-      <c r="G194" s="3">
-        <v>100</v>
-      </c>
-      <c r="H194" s="1">
-        <v>200</v>
-      </c>
-      <c r="I194" s="1">
-        <v>100</v>
-      </c>
-      <c r="J194" s="3">
-        <v>10</v>
-      </c>
-      <c r="K194" s="1">
-        <v>13</v>
-      </c>
-      <c r="L194" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="195" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B195" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C195" s="8">
-        <v>7.6538120185838796</v>
-      </c>
-      <c r="D195" s="4">
-        <v>100</v>
-      </c>
-      <c r="E195" s="2">
-        <v>100</v>
-      </c>
-      <c r="F195" s="6">
-        <v>0</v>
-      </c>
-      <c r="G195" s="4">
-        <v>0</v>
-      </c>
-      <c r="H195" s="2">
-        <v>0</v>
-      </c>
-      <c r="I195" s="2">
-        <v>0</v>
-      </c>
-      <c r="J195" s="4">
-        <v>16</v>
-      </c>
-      <c r="K195" s="2">
-        <v>19</v>
-      </c>
-      <c r="L195" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="196" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B196" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C196" s="7">
-        <v>221.460138434519</v>
-      </c>
-      <c r="D196" s="3">
-        <v>500</v>
-      </c>
-      <c r="E196" s="1">
-        <v>1100</v>
-      </c>
-      <c r="F196" s="5">
-        <v>600</v>
-      </c>
-      <c r="G196" s="3">
-        <v>2300</v>
-      </c>
-      <c r="H196" s="1">
-        <v>2300</v>
-      </c>
-      <c r="I196" s="1">
-        <v>0</v>
-      </c>
-      <c r="J196" s="3">
-        <v>13</v>
-      </c>
-      <c r="K196" s="1">
-        <v>15</v>
-      </c>
-      <c r="L196" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B197" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C197" s="8">
-        <v>99.387058094778695</v>
-      </c>
-      <c r="D197" s="4">
-        <v>2100</v>
-      </c>
-      <c r="E197" s="2">
-        <v>2300</v>
-      </c>
-      <c r="F197" s="6">
-        <v>200</v>
-      </c>
-      <c r="G197" s="4">
-        <v>200</v>
-      </c>
-      <c r="H197" s="2">
-        <v>300</v>
-      </c>
-      <c r="I197" s="2">
-        <v>100</v>
-      </c>
-      <c r="J197" s="4">
-        <v>24</v>
-      </c>
-      <c r="K197" s="2">
-        <v>26</v>
-      </c>
-      <c r="L197" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="198" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B198" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C198" s="7">
-        <v>200.45501585369999</v>
-      </c>
-      <c r="D198" s="3">
-        <v>4800</v>
-      </c>
-      <c r="E198" s="1">
-        <v>5100</v>
-      </c>
-      <c r="F198" s="5">
-        <v>300</v>
-      </c>
-      <c r="G198" s="3">
-        <v>200</v>
-      </c>
-      <c r="H198" s="1">
-        <v>300</v>
-      </c>
-      <c r="I198" s="1">
-        <v>100</v>
-      </c>
-      <c r="J198" s="3">
-        <v>25</v>
-      </c>
-      <c r="K198" s="1">
-        <v>27</v>
-      </c>
-      <c r="L198" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B199" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C199" s="8">
-        <v>103.05443585886201</v>
-      </c>
-      <c r="D199" s="4">
-        <v>0</v>
-      </c>
-      <c r="E199" s="2">
-        <v>200</v>
-      </c>
-      <c r="F199" s="6">
-        <v>200</v>
-      </c>
-      <c r="G199" s="4">
-        <v>0</v>
-      </c>
-      <c r="H199" s="2">
-        <v>100</v>
-      </c>
-      <c r="I199" s="2">
-        <v>100</v>
-      </c>
-      <c r="J199" s="4">
-        <v>0</v>
-      </c>
-      <c r="K199" s="2">
-        <v>2</v>
-      </c>
-      <c r="L199" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B200" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="C200" s="7">
-        <v>255.85023408644301</v>
-      </c>
-      <c r="D200" s="3">
-        <v>2200</v>
-      </c>
-      <c r="E200" s="1">
-        <v>2200</v>
-      </c>
-      <c r="F200" s="5">
-        <v>0</v>
-      </c>
-      <c r="G200" s="3">
-        <v>300</v>
-      </c>
-      <c r="H200" s="1">
-        <v>600</v>
-      </c>
-      <c r="I200" s="1">
-        <v>300</v>
-      </c>
-      <c r="J200" s="3">
-        <v>10</v>
-      </c>
-      <c r="K200" s="1">
-        <v>11</v>
-      </c>
-      <c r="L200" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B201" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C201" s="8">
-        <v>74.577603706415204</v>
-      </c>
-      <c r="D201" s="4">
-        <v>1500</v>
-      </c>
-      <c r="E201" s="2">
-        <v>1300</v>
-      </c>
-      <c r="F201" s="6">
-        <v>-200</v>
-      </c>
-      <c r="G201" s="4">
-        <v>400</v>
-      </c>
-      <c r="H201" s="2">
-        <v>700</v>
-      </c>
-      <c r="I201" s="2">
-        <v>300</v>
-      </c>
-      <c r="J201" s="4">
-        <v>25</v>
-      </c>
-      <c r="K201" s="2">
-        <v>26</v>
-      </c>
-      <c r="L201" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B202" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C202" s="7">
-        <v>81.765236225047701</v>
-      </c>
-      <c r="D202" s="3">
-        <v>200</v>
-      </c>
-      <c r="E202" s="1">
-        <v>500</v>
-      </c>
-      <c r="F202" s="5">
-        <v>300</v>
-      </c>
-      <c r="G202" s="3">
-        <v>700</v>
-      </c>
-      <c r="H202" s="1">
-        <v>500</v>
-      </c>
-      <c r="I202" s="1">
-        <v>-200</v>
-      </c>
-      <c r="J202" s="3">
-        <v>11</v>
-      </c>
-      <c r="K202" s="1">
-        <v>12</v>
-      </c>
-      <c r="L202" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B203" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C203" s="8">
-        <v>2.288846382544</v>
-      </c>
-      <c r="D203" s="4">
-        <v>0</v>
-      </c>
-      <c r="E203" s="2">
-        <v>0</v>
-      </c>
-      <c r="F203" s="6">
-        <v>0</v>
-      </c>
-      <c r="G203" s="4">
-        <v>0</v>
-      </c>
-      <c r="H203" s="2">
-        <v>0</v>
-      </c>
-      <c r="I203" s="2">
-        <v>0</v>
-      </c>
-      <c r="J203" s="4">
-        <v>35</v>
-      </c>
-      <c r="K203" s="2">
-        <v>36</v>
-      </c>
-      <c r="L203" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B204" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C204" s="7">
-        <v>65.719473319085495</v>
-      </c>
-      <c r="D204" s="3">
-        <v>0</v>
-      </c>
-      <c r="E204" s="1">
-        <v>100</v>
-      </c>
-      <c r="F204" s="5">
-        <v>100</v>
-      </c>
-      <c r="G204" s="3">
-        <v>0</v>
-      </c>
-      <c r="H204" s="1">
-        <v>100</v>
-      </c>
-      <c r="I204" s="1">
-        <v>100</v>
-      </c>
-      <c r="J204" s="3">
-        <v>1</v>
-      </c>
-      <c r="K204" s="1">
-        <v>2</v>
-      </c>
-      <c r="L204" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B205" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C205" s="8">
-        <v>845.62553905161406</v>
-      </c>
-      <c r="D205" s="4">
-        <v>0</v>
-      </c>
-      <c r="E205" s="2">
-        <v>800</v>
-      </c>
-      <c r="F205" s="6">
-        <v>800</v>
-      </c>
-      <c r="G205" s="4">
-        <v>0</v>
-      </c>
-      <c r="H205" s="2">
-        <v>400</v>
-      </c>
-      <c r="I205" s="2">
-        <v>400</v>
-      </c>
-      <c r="J205" s="4">
-        <v>0</v>
-      </c>
-      <c r="K205" s="2">
-        <v>1</v>
-      </c>
-      <c r="L205" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B206" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="C206" s="7">
-        <v>87.743092602793894</v>
-      </c>
-      <c r="D206" s="3">
-        <v>1900</v>
-      </c>
-      <c r="E206" s="1">
-        <v>1900</v>
-      </c>
-      <c r="F206" s="5">
-        <v>0</v>
-      </c>
-      <c r="G206" s="3">
-        <v>200</v>
-      </c>
-      <c r="H206" s="1">
-        <v>200</v>
-      </c>
-      <c r="I206" s="1">
-        <v>0</v>
-      </c>
-      <c r="J206" s="3">
-        <v>24</v>
-      </c>
-      <c r="K206" s="1">
-        <v>24</v>
-      </c>
-      <c r="L206" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B207" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C207" s="8">
-        <v>4.5688841177699998E-5</v>
-      </c>
-      <c r="D207" s="4">
-        <v>0</v>
-      </c>
-      <c r="E207" s="2">
-        <v>0</v>
-      </c>
-      <c r="F207" s="6">
-        <v>0</v>
-      </c>
-      <c r="G207" s="4">
-        <v>0</v>
-      </c>
-      <c r="H207" s="2">
-        <v>0</v>
-      </c>
-      <c r="I207" s="2">
-        <v>0</v>
-      </c>
-      <c r="J207" s="4">
-        <v>0</v>
-      </c>
-      <c r="K207" s="2">
-        <v>0</v>
-      </c>
-      <c r="L207" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B208" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="C208" s="7">
-        <v>125.663744480631</v>
-      </c>
-      <c r="D208" s="3">
-        <v>4700</v>
-      </c>
-      <c r="E208" s="1">
-        <v>4700</v>
-      </c>
-      <c r="F208" s="5">
-        <v>0</v>
-      </c>
-      <c r="G208" s="3">
-        <v>0</v>
-      </c>
-      <c r="H208" s="1">
-        <v>0</v>
-      </c>
-      <c r="I208" s="1">
-        <v>0</v>
-      </c>
-      <c r="J208" s="3">
+      <c r="K155" s="14">
         <v>37</v>
       </c>
-      <c r="K208" s="1">
-        <v>37</v>
-      </c>
-      <c r="L208" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B209" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C209" s="8">
-        <v>12.607126831663701</v>
-      </c>
-      <c r="D209" s="4">
-        <v>100</v>
-      </c>
-      <c r="E209" s="2">
-        <v>100</v>
-      </c>
-      <c r="F209" s="6">
-        <v>0</v>
-      </c>
-      <c r="G209" s="4">
-        <v>100</v>
-      </c>
-      <c r="H209" s="2">
-        <v>100</v>
-      </c>
-      <c r="I209" s="2">
-        <v>0</v>
-      </c>
-      <c r="J209" s="4">
-        <v>16</v>
-      </c>
-      <c r="K209" s="2">
-        <v>16</v>
-      </c>
-      <c r="L209" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B210" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="C210" s="7">
-        <v>32.865841961842698</v>
-      </c>
-      <c r="D210" s="3">
-        <v>0</v>
-      </c>
-      <c r="E210" s="1">
-        <v>0</v>
-      </c>
-      <c r="F210" s="5">
-        <v>0</v>
-      </c>
-      <c r="G210" s="3">
-        <v>0</v>
-      </c>
-      <c r="H210" s="1">
-        <v>0</v>
-      </c>
-      <c r="I210" s="1">
-        <v>0</v>
-      </c>
-      <c r="J210" s="3">
-        <v>1</v>
-      </c>
-      <c r="K210" s="1">
-        <v>1</v>
-      </c>
-      <c r="L210" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B211" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="C211" s="8">
-        <v>303.60369454789998</v>
-      </c>
-      <c r="D211" s="4">
-        <v>13300</v>
-      </c>
-      <c r="E211" s="2">
-        <v>13300</v>
-      </c>
-      <c r="F211" s="6">
-        <v>0</v>
-      </c>
-      <c r="G211" s="4">
-        <v>100</v>
-      </c>
-      <c r="H211" s="2">
-        <v>100</v>
-      </c>
-      <c r="I211" s="2">
-        <v>0</v>
-      </c>
-      <c r="J211" s="4">
-        <v>44</v>
-      </c>
-      <c r="K211" s="2">
-        <v>44</v>
-      </c>
-      <c r="L211" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B212" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="C212" s="7">
-        <v>4.6439659680693697E-2</v>
-      </c>
-      <c r="D212" s="3">
-        <v>0</v>
-      </c>
-      <c r="E212" s="1">
-        <v>0</v>
-      </c>
-      <c r="F212" s="5">
-        <v>0</v>
-      </c>
-      <c r="G212" s="3">
-        <v>0</v>
-      </c>
-      <c r="H212" s="1">
-        <v>0</v>
-      </c>
-      <c r="I212" s="1">
-        <v>0</v>
-      </c>
-      <c r="J212" s="3">
-        <v>0</v>
-      </c>
-      <c r="K212" s="1">
-        <v>0</v>
-      </c>
-      <c r="L212" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B213" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C213" s="8">
-        <v>9.5803015937099903E-3</v>
-      </c>
-      <c r="D213" s="4">
-        <v>0</v>
-      </c>
-      <c r="E213" s="2">
-        <v>0</v>
-      </c>
-      <c r="F213" s="6">
-        <v>0</v>
-      </c>
-      <c r="G213" s="4">
-        <v>0</v>
-      </c>
-      <c r="H213" s="2">
-        <v>0</v>
-      </c>
-      <c r="I213" s="2">
-        <v>0</v>
-      </c>
-      <c r="J213" s="4">
-        <v>0</v>
-      </c>
-      <c r="K213" s="2">
-        <v>0</v>
-      </c>
-      <c r="L213" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B214" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C214" s="7">
-        <v>0.71680167875790002</v>
-      </c>
-      <c r="D214" s="3">
-        <v>0</v>
-      </c>
-      <c r="E214" s="1">
-        <v>0</v>
-      </c>
-      <c r="F214" s="5">
-        <v>0</v>
-      </c>
-      <c r="G214" s="3">
-        <v>0</v>
-      </c>
-      <c r="H214" s="1">
-        <v>0</v>
-      </c>
-      <c r="I214" s="1">
-        <v>0</v>
-      </c>
-      <c r="J214" s="3">
-        <v>0</v>
-      </c>
-      <c r="K214" s="1">
-        <v>0</v>
-      </c>
-      <c r="L214" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B215" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C215" s="8">
-        <v>83.013608947083796</v>
-      </c>
-      <c r="D215" s="4">
-        <v>3600</v>
-      </c>
-      <c r="E215" s="2">
-        <v>3600</v>
-      </c>
-      <c r="F215" s="6">
-        <v>0</v>
-      </c>
-      <c r="G215" s="4">
-        <v>0</v>
-      </c>
-      <c r="H215" s="2">
-        <v>0</v>
-      </c>
-      <c r="I215" s="2">
-        <v>0</v>
-      </c>
-      <c r="J215" s="4">
-        <v>44</v>
-      </c>
-      <c r="K215" s="2">
-        <v>44</v>
-      </c>
-      <c r="L215" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B216" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="C216" s="7">
-        <v>100.32908773148201</v>
-      </c>
-      <c r="D216" s="3">
-        <v>900</v>
-      </c>
-      <c r="E216" s="1">
-        <v>600</v>
-      </c>
-      <c r="F216" s="5">
-        <v>-300</v>
-      </c>
-      <c r="G216" s="3">
-        <v>0</v>
-      </c>
-      <c r="H216" s="1">
-        <v>100</v>
-      </c>
-      <c r="I216" s="1">
-        <v>100</v>
-      </c>
-      <c r="J216" s="3">
-        <v>9</v>
-      </c>
-      <c r="K216" s="1">
-        <v>7</v>
-      </c>
-      <c r="L216" s="5">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="217" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B217" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C217" s="8">
-        <v>0.86333529777622997</v>
-      </c>
-      <c r="D217" s="4">
-        <v>0</v>
-      </c>
-      <c r="E217" s="2">
-        <v>0</v>
-      </c>
-      <c r="F217" s="6">
-        <v>0</v>
-      </c>
-      <c r="G217" s="4">
-        <v>0</v>
-      </c>
-      <c r="H217" s="2">
-        <v>0</v>
-      </c>
-      <c r="I217" s="2">
-        <v>0</v>
-      </c>
-      <c r="J217" s="4">
-        <v>30</v>
-      </c>
-      <c r="K217" s="2">
-        <v>24</v>
-      </c>
-      <c r="L217" s="6">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="218" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B218" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C218" s="7">
-        <v>72.597445748179595</v>
-      </c>
-      <c r="D218" s="3">
-        <v>1600</v>
-      </c>
-      <c r="E218" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F218" s="5">
-        <v>-600</v>
-      </c>
-      <c r="G218" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H218" s="1">
-        <v>1100</v>
-      </c>
-      <c r="I218" s="1">
-        <v>100</v>
-      </c>
-      <c r="J218" s="3">
-        <v>37</v>
-      </c>
-      <c r="K218" s="1">
-        <v>30</v>
-      </c>
-      <c r="L218" s="5">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="219" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B219" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C219" s="8">
-        <v>48.9411491913297</v>
-      </c>
-      <c r="D219" s="4">
-        <v>1100</v>
-      </c>
-      <c r="E219" s="2">
-        <v>400</v>
-      </c>
-      <c r="F219" s="6">
-        <v>-700</v>
-      </c>
-      <c r="G219" s="4">
-        <v>200</v>
-      </c>
-      <c r="H219" s="2">
-        <v>400</v>
-      </c>
-      <c r="I219" s="2">
-        <v>200</v>
-      </c>
-      <c r="J219" s="4">
-        <v>28</v>
-      </c>
-      <c r="K219" s="2">
-        <v>18</v>
-      </c>
-      <c r="L219" s="6">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="220" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B220" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C220" s="7">
-        <v>0.1856622124997</v>
-      </c>
-      <c r="D220" s="3">
-        <v>0</v>
-      </c>
-      <c r="E220" s="1">
-        <v>0</v>
-      </c>
-      <c r="F220" s="5">
-        <v>0</v>
-      </c>
-      <c r="G220" s="3">
-        <v>0</v>
-      </c>
-      <c r="H220" s="1">
-        <v>0</v>
-      </c>
-      <c r="I220" s="1">
-        <v>0</v>
-      </c>
-      <c r="J220" s="3">
-        <v>27</v>
-      </c>
-      <c r="K220" s="1">
-        <v>11</v>
-      </c>
-      <c r="L220" s="5">
-        <v>-16</v>
-      </c>
-    </row>
-    <row r="221" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B221" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C221" s="8">
-        <v>33.249586012910697</v>
-      </c>
-      <c r="D221" s="4">
-        <v>1300</v>
-      </c>
-      <c r="E221" s="2">
-        <v>400</v>
-      </c>
-      <c r="F221" s="6">
-        <v>-900</v>
-      </c>
-      <c r="G221" s="4">
-        <v>200</v>
-      </c>
-      <c r="H221" s="2">
-        <v>300</v>
-      </c>
-      <c r="I221" s="2">
-        <v>100</v>
-      </c>
-      <c r="J221" s="4">
-        <v>44</v>
-      </c>
-      <c r="K221" s="2">
+      <c r="L155" s="15">
         <v>21</v>
-      </c>
-      <c r="L221" s="6">
-        <v>-23</v>
-      </c>
-    </row>
-    <row r="222" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B222" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C222" s="12">
-        <v>39842.109024337697</v>
-      </c>
-      <c r="D222" s="13">
-        <v>520500</v>
-      </c>
-      <c r="E222" s="14">
-        <v>1508000</v>
-      </c>
-      <c r="F222" s="15">
-        <v>987500</v>
-      </c>
-      <c r="G222" s="13">
-        <v>97300</v>
-      </c>
-      <c r="H222" s="14">
-        <v>655900</v>
-      </c>
-      <c r="I222" s="14">
-        <v>558600</v>
-      </c>
-      <c r="J222" s="13">
-        <v>16</v>
-      </c>
-      <c r="K222" s="14">
-        <v>54</v>
-      </c>
-      <c r="L222" s="15">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/results/SummaryTable_Area_wTotals_formatted.xlsx
+++ b/results/SummaryTable_Area_wTotals_formatted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Centers-Capacity-Tool\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8EDC23-4621-4CEC-AE7C-7551D0DA504F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCD3600-0B9C-43D8-B794-9453092E3913}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15630" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1606,7 +1606,7 @@
   <dimension ref="B2:L155"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1682,28 +1682,28 @@
         <v>73600</v>
       </c>
       <c r="E4" s="1">
-        <v>172100</v>
+        <v>170600</v>
       </c>
       <c r="F4" s="5">
-        <v>98500</v>
+        <v>97000</v>
       </c>
       <c r="G4" s="3">
         <v>6400</v>
       </c>
       <c r="H4" s="1">
-        <v>57000</v>
+        <v>56200</v>
       </c>
       <c r="I4" s="1">
-        <v>50600</v>
+        <v>49800</v>
       </c>
       <c r="J4" s="3">
         <v>86</v>
       </c>
       <c r="K4" s="1">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L4" s="5">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -6965,19 +6965,19 @@
         <v>483900</v>
       </c>
       <c r="E155" s="14">
-        <v>1011400</v>
+        <v>1009900</v>
       </c>
       <c r="F155" s="15">
-        <v>527500</v>
+        <v>526000</v>
       </c>
       <c r="G155" s="13">
         <v>84000</v>
       </c>
       <c r="H155" s="14">
-        <v>342600</v>
+        <v>341800</v>
       </c>
       <c r="I155" s="14">
-        <v>258600</v>
+        <v>257800</v>
       </c>
       <c r="J155" s="13">
         <v>16</v>

--- a/results/SummaryTable_Area_wTotals_formatted.xlsx
+++ b/results/SummaryTable_Area_wTotals_formatted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Centers-Capacity-Tool\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCD3600-0B9C-43D8-B794-9453092E3913}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86035D2-91BF-44C8-8B6B-33ED5561F3F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15630" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1606,7 +1606,7 @@
   <dimension ref="B2:L155"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1676,559 +1676,559 @@
         <v>39</v>
       </c>
       <c r="C4" s="7">
-        <v>933.46952034663798</v>
+        <v>933.469520346639</v>
       </c>
       <c r="D4" s="3">
         <v>73600</v>
       </c>
       <c r="E4" s="1">
-        <v>170600</v>
+        <v>402200</v>
       </c>
       <c r="F4" s="5">
-        <v>97000</v>
+        <v>328600</v>
       </c>
       <c r="G4" s="3">
         <v>6400</v>
       </c>
       <c r="H4" s="1">
-        <v>56200</v>
+        <v>97100</v>
       </c>
       <c r="I4" s="1">
-        <v>49800</v>
+        <v>90700</v>
       </c>
       <c r="J4" s="3">
         <v>86</v>
       </c>
       <c r="K4" s="1">
-        <v>243</v>
+        <v>535</v>
       </c>
       <c r="L4" s="5">
-        <v>157</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="C5" s="8">
-        <v>124.54350029075</v>
+        <v>216.967153513938</v>
       </c>
       <c r="D5" s="4">
-        <v>2200</v>
+        <v>5100</v>
       </c>
       <c r="E5" s="2">
-        <v>7000</v>
+        <v>34700</v>
       </c>
       <c r="F5" s="6">
-        <v>4800</v>
+        <v>29600</v>
       </c>
       <c r="G5" s="4">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H5" s="2">
-        <v>2400</v>
+        <v>8400</v>
       </c>
       <c r="I5" s="2">
-        <v>2300</v>
+        <v>7400</v>
       </c>
       <c r="J5" s="4">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K5" s="2">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="L5" s="6">
-        <v>57</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C6" s="7">
-        <v>825.74286737377497</v>
+        <v>330.36080234194799</v>
       </c>
       <c r="D6" s="3">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="E6" s="1">
-        <v>32700</v>
+        <v>39700</v>
       </c>
       <c r="F6" s="5">
-        <v>30200</v>
+        <v>38100</v>
       </c>
       <c r="G6" s="3">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="H6" s="1">
-        <v>13100</v>
+        <v>9900</v>
       </c>
       <c r="I6" s="1">
-        <v>12900</v>
+        <v>8900</v>
       </c>
       <c r="J6" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K6" s="1">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L6" s="5">
-        <v>52</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C7" s="8">
-        <v>700.20815985119896</v>
+        <v>124.54350029075</v>
       </c>
       <c r="D7" s="4">
-        <v>9500</v>
+        <v>2200</v>
       </c>
       <c r="E7" s="2">
-        <v>34400</v>
+        <v>15800</v>
       </c>
       <c r="F7" s="6">
-        <v>24900</v>
+        <v>13600</v>
       </c>
       <c r="G7" s="4">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="H7" s="2">
-        <v>11500</v>
+        <v>3400</v>
       </c>
       <c r="I7" s="2">
-        <v>10600</v>
+        <v>3300</v>
       </c>
       <c r="J7" s="4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K7" s="2">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="L7" s="6">
-        <v>51</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="C8" s="7">
-        <v>330.36080234194799</v>
+        <v>260.394231304941</v>
       </c>
       <c r="D8" s="3">
-        <v>1600</v>
+        <v>7100</v>
       </c>
       <c r="E8" s="1">
-        <v>12700</v>
+        <v>32900</v>
       </c>
       <c r="F8" s="5">
-        <v>11100</v>
+        <v>25800</v>
       </c>
       <c r="G8" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="H8" s="1">
-        <v>6500</v>
+        <v>8100</v>
       </c>
       <c r="I8" s="1">
-        <v>5500</v>
+        <v>6800</v>
       </c>
       <c r="J8" s="3">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="K8" s="1">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="L8" s="5">
-        <v>50</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="C9" s="8">
-        <v>216.967153513938</v>
+        <v>577.43037372527101</v>
       </c>
       <c r="D9" s="4">
-        <v>5100</v>
+        <v>14600</v>
       </c>
       <c r="E9" s="2">
-        <v>11500</v>
+        <v>71700</v>
       </c>
       <c r="F9" s="6">
-        <v>6400</v>
+        <v>57100</v>
       </c>
       <c r="G9" s="4">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="H9" s="2">
-        <v>4600</v>
+        <v>15600</v>
       </c>
       <c r="I9" s="2">
-        <v>3600</v>
+        <v>14100</v>
       </c>
       <c r="J9" s="4">
         <v>28</v>
       </c>
       <c r="K9" s="2">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="L9" s="6">
-        <v>46</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
-        <v>496.188406426987</v>
+        <v>1406.49380087586</v>
       </c>
       <c r="D10" s="3">
-        <v>16900</v>
+        <v>26000</v>
       </c>
       <c r="E10" s="1">
-        <v>30100</v>
+        <v>164100</v>
       </c>
       <c r="F10" s="5">
-        <v>13200</v>
+        <v>138100</v>
       </c>
       <c r="G10" s="3">
-        <v>700</v>
+        <v>2200</v>
       </c>
       <c r="H10" s="1">
-        <v>7300</v>
+        <v>34100</v>
       </c>
       <c r="I10" s="1">
-        <v>6600</v>
+        <v>31900</v>
       </c>
       <c r="J10" s="3">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K10" s="1">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="L10" s="5">
-        <v>40</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C11" s="8">
-        <v>339.87759333421099</v>
+        <v>496.188406426987</v>
       </c>
       <c r="D11" s="4">
-        <v>900</v>
+        <v>16900</v>
       </c>
       <c r="E11" s="2">
-        <v>9400</v>
+        <v>61800</v>
       </c>
       <c r="F11" s="6">
-        <v>8500</v>
+        <v>44900</v>
       </c>
       <c r="G11" s="4">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="H11" s="2">
-        <v>4600</v>
+        <v>12200</v>
       </c>
       <c r="I11" s="2">
-        <v>4200</v>
+        <v>11500</v>
       </c>
       <c r="J11" s="4">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="K11" s="2">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="L11" s="6">
-        <v>37</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7">
-        <v>1406.49380087586</v>
+        <v>316.212062185295</v>
       </c>
       <c r="D12" s="3">
-        <v>26000</v>
+        <v>15100</v>
       </c>
       <c r="E12" s="1">
-        <v>60900</v>
+        <v>43800</v>
       </c>
       <c r="F12" s="5">
-        <v>34900</v>
+        <v>28700</v>
       </c>
       <c r="G12" s="3">
-        <v>2200</v>
+        <v>5000</v>
       </c>
       <c r="H12" s="1">
-        <v>18300</v>
+        <v>11800</v>
       </c>
       <c r="I12" s="1">
-        <v>16100</v>
+        <v>6800</v>
       </c>
       <c r="J12" s="3">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="K12" s="1">
-        <v>56</v>
+        <v>176</v>
       </c>
       <c r="L12" s="5">
-        <v>36</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="C13" s="8">
-        <v>494.63289052801701</v>
+        <v>700.20815985119896</v>
       </c>
       <c r="D13" s="4">
-        <v>0</v>
+        <v>9500</v>
       </c>
       <c r="E13" s="2">
-        <v>11300</v>
+        <v>71600</v>
       </c>
       <c r="F13" s="6">
-        <v>11300</v>
+        <v>62100</v>
       </c>
       <c r="G13" s="4">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="H13" s="2">
-        <v>5700</v>
+        <v>16100</v>
       </c>
       <c r="I13" s="2">
-        <v>5600</v>
+        <v>15200</v>
       </c>
       <c r="J13" s="4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K13" s="2">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="L13" s="6">
-        <v>35</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="C14" s="7">
-        <v>202.028360907456</v>
+        <v>825.74286737377497</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E14" s="1">
-        <v>4600</v>
+        <v>76200</v>
       </c>
       <c r="F14" s="5">
-        <v>4600</v>
+        <v>73700</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H14" s="1">
-        <v>2300</v>
+        <v>16100</v>
       </c>
       <c r="I14" s="1">
-        <v>2300</v>
+        <v>15900</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K14" s="1">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="L14" s="5">
-        <v>34</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="C15" s="8">
-        <v>197.00882046739301</v>
+        <v>1391.8515591001401</v>
       </c>
       <c r="D15" s="4">
-        <v>4300</v>
+        <v>36500</v>
       </c>
       <c r="E15" s="2">
-        <v>8500</v>
+        <v>150900</v>
       </c>
       <c r="F15" s="6">
-        <v>4200</v>
+        <v>114400</v>
       </c>
       <c r="G15" s="4">
-        <v>400</v>
+        <v>10300</v>
       </c>
       <c r="H15" s="2">
-        <v>2400</v>
+        <v>34300</v>
       </c>
       <c r="I15" s="2">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="J15" s="4">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="K15" s="2">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="L15" s="6">
-        <v>31</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C16" s="7">
-        <v>85.568222862049893</v>
+        <v>1307.23784973538</v>
       </c>
       <c r="D16" s="3">
-        <v>0</v>
+        <v>17400</v>
       </c>
       <c r="E16" s="1">
-        <v>1700</v>
+        <v>112300</v>
       </c>
       <c r="F16" s="5">
-        <v>1700</v>
+        <v>94900</v>
       </c>
       <c r="G16" s="3">
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="H16" s="1">
-        <v>800</v>
+        <v>24200</v>
       </c>
       <c r="I16" s="1">
-        <v>800</v>
+        <v>20000</v>
       </c>
       <c r="J16" s="3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K16" s="1">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="L16" s="5">
-        <v>30</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="C17" s="8">
-        <v>117.397956373951</v>
+        <v>1890.31308806021</v>
       </c>
       <c r="D17" s="4">
-        <v>0</v>
+        <v>20800</v>
       </c>
       <c r="E17" s="2">
-        <v>2300</v>
+        <v>135300</v>
       </c>
       <c r="F17" s="6">
-        <v>2300</v>
+        <v>114500</v>
       </c>
       <c r="G17" s="4">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="H17" s="2">
-        <v>1100</v>
+        <v>27800</v>
       </c>
       <c r="I17" s="2">
-        <v>1100</v>
+        <v>24500</v>
       </c>
       <c r="J17" s="4">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K17" s="2">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="L17" s="6">
-        <v>29</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="7">
+        <v>197.00882046739301</v>
+      </c>
+      <c r="D18" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E18" s="1">
+        <v>13500</v>
+      </c>
+      <c r="F18" s="5">
+        <v>9200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>400</v>
+      </c>
+      <c r="H18" s="1">
+        <v>4100</v>
+      </c>
+      <c r="I18" s="1">
+        <v>3700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>24</v>
+      </c>
+      <c r="K18" s="1">
+        <v>89</v>
+      </c>
+      <c r="L18" s="5">
         <v>65</v>
-      </c>
-      <c r="C18" s="7">
-        <v>483.53114811865299</v>
-      </c>
-      <c r="D18" s="3">
-        <v>400</v>
-      </c>
-      <c r="E18" s="1">
-        <v>9800</v>
-      </c>
-      <c r="F18" s="5">
-        <v>9400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>100</v>
-      </c>
-      <c r="H18" s="1">
-        <v>4800</v>
-      </c>
-      <c r="I18" s="1">
-        <v>4700</v>
-      </c>
-      <c r="J18" s="3">
-        <v>1</v>
-      </c>
-      <c r="K18" s="1">
-        <v>30</v>
-      </c>
-      <c r="L18" s="5">
-        <v>29</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C19" s="8">
-        <v>101.364205283625</v>
+        <v>339.87759333421099</v>
       </c>
       <c r="D19" s="4">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="E19" s="2">
-        <v>2000</v>
+        <v>17200</v>
       </c>
       <c r="F19" s="6">
-        <v>1900</v>
+        <v>16300</v>
       </c>
       <c r="G19" s="4">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H19" s="2">
-        <v>1000</v>
+        <v>5200</v>
       </c>
       <c r="I19" s="2">
-        <v>1000</v>
+        <v>4800</v>
       </c>
       <c r="J19" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K19" s="2">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="L19" s="6">
-        <v>28</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
@@ -2242,2355 +2242,2355 @@
         <v>400</v>
       </c>
       <c r="E20" s="1">
-        <v>2800</v>
+        <v>6300</v>
       </c>
       <c r="F20" s="5">
-        <v>2400</v>
+        <v>5900</v>
       </c>
       <c r="G20" s="3">
         <v>200</v>
       </c>
       <c r="H20" s="1">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="I20" s="1">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="J20" s="3">
         <v>5</v>
       </c>
       <c r="K20" s="1">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="L20" s="5">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="8">
+        <v>56.771371363901501</v>
+      </c>
+      <c r="D21" s="4">
+        <v>600</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2800</v>
+      </c>
+      <c r="F21" s="6">
+        <v>2200</v>
+      </c>
+      <c r="G21" s="4">
         <v>100</v>
       </c>
-      <c r="C21" s="8">
-        <v>511.617326053608</v>
-      </c>
-      <c r="D21" s="4">
-        <v>300</v>
-      </c>
-      <c r="E21" s="2">
-        <v>9500</v>
-      </c>
-      <c r="F21" s="6">
-        <v>9200</v>
-      </c>
-      <c r="G21" s="4">
-        <v>200</v>
-      </c>
       <c r="H21" s="2">
-        <v>4700</v>
+        <v>800</v>
       </c>
       <c r="I21" s="2">
-        <v>4500</v>
+        <v>700</v>
       </c>
       <c r="J21" s="4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K21" s="2">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="L21" s="6">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C22" s="7">
-        <v>116.297622410401</v>
+        <v>494.63289052801701</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>2000</v>
+        <v>19400</v>
       </c>
       <c r="F22" s="5">
-        <v>2000</v>
+        <v>19400</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="1">
-        <v>1000</v>
+        <v>5700</v>
       </c>
       <c r="I22" s="1">
-        <v>1000</v>
+        <v>5600</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="L22" s="5">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="C23" s="8">
-        <v>413.19362160859401</v>
+        <v>202.028360907456</v>
       </c>
       <c r="D23" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>7300</v>
+        <v>7900</v>
       </c>
       <c r="F23" s="6">
-        <v>7200</v>
+        <v>7900</v>
       </c>
       <c r="G23" s="4">
         <v>0</v>
       </c>
       <c r="H23" s="2">
-        <v>3600</v>
+        <v>2300</v>
       </c>
       <c r="I23" s="2">
-        <v>3600</v>
+        <v>2300</v>
       </c>
       <c r="J23" s="4">
         <v>0</v>
       </c>
       <c r="K23" s="2">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="L23" s="6">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C24" s="7">
-        <v>57.2227915107473</v>
+        <v>413.19362160859401</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="1">
-        <v>1000</v>
+        <v>15600</v>
       </c>
       <c r="F24" s="5">
-        <v>1000</v>
+        <v>15500</v>
       </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1">
-        <v>500</v>
+        <v>4500</v>
       </c>
       <c r="I24" s="1">
-        <v>400</v>
+        <v>4500</v>
       </c>
       <c r="J24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="L24" s="5">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C25" s="8">
-        <v>476.34036359432702</v>
+        <v>107.922986825775</v>
       </c>
       <c r="D25" s="4">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="E25" s="2">
-        <v>7800</v>
+        <v>5200</v>
       </c>
       <c r="F25" s="6">
-        <v>7600</v>
+        <v>3800</v>
       </c>
       <c r="G25" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H25" s="2">
-        <v>4000</v>
+        <v>1400</v>
       </c>
       <c r="I25" s="2">
-        <v>3800</v>
+        <v>1400</v>
       </c>
       <c r="J25" s="4">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K25" s="2">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="L25" s="6">
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="7">
+        <v>164.162641224277</v>
+      </c>
+      <c r="D26" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E26" s="1">
+        <v>10600</v>
+      </c>
+      <c r="F26" s="5">
+        <v>4900</v>
+      </c>
+      <c r="G26" s="3">
+        <v>200</v>
+      </c>
+      <c r="H26" s="1">
+        <v>2900</v>
+      </c>
+      <c r="I26" s="1">
+        <v>2700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>36</v>
+      </c>
+      <c r="K26" s="1">
         <v>82</v>
       </c>
-      <c r="C26" s="7">
-        <v>151.979673540373</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1">
-        <v>2500</v>
-      </c>
-      <c r="F26" s="5">
-        <v>2500</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1200</v>
-      </c>
-      <c r="I26" s="1">
-        <v>1200</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="1">
-        <v>24</v>
-      </c>
       <c r="L26" s="5">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="C27" s="8">
-        <v>509.72929670403499</v>
+        <v>101.364205283625</v>
       </c>
       <c r="D27" s="4">
-        <v>3200</v>
+        <v>100</v>
       </c>
       <c r="E27" s="2">
-        <v>11400</v>
+        <v>3700</v>
       </c>
       <c r="F27" s="6">
-        <v>8200</v>
+        <v>3600</v>
       </c>
       <c r="G27" s="4">
         <v>0</v>
       </c>
       <c r="H27" s="2">
-        <v>4100</v>
+        <v>1100</v>
       </c>
       <c r="I27" s="2">
-        <v>4100</v>
+        <v>1100</v>
       </c>
       <c r="J27" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K27" s="2">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="L27" s="6">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C28" s="7">
-        <v>107.922986825775</v>
+        <v>483.53114811865299</v>
       </c>
       <c r="D28" s="3">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="E28" s="1">
-        <v>3000</v>
+        <v>17500</v>
       </c>
       <c r="F28" s="5">
-        <v>1600</v>
+        <v>17100</v>
       </c>
       <c r="G28" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H28" s="1">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="I28" s="1">
-        <v>1000</v>
+        <v>4900</v>
       </c>
       <c r="J28" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="K28" s="1">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="L28" s="5">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="C29" s="8">
-        <v>344.27239858806701</v>
+        <v>85.568222862049893</v>
       </c>
       <c r="D29" s="4">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E29" s="2">
-        <v>5800</v>
+        <v>3100</v>
       </c>
       <c r="F29" s="6">
-        <v>5300</v>
+        <v>3100</v>
       </c>
       <c r="G29" s="4">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H29" s="2">
-        <v>3100</v>
+        <v>900</v>
       </c>
       <c r="I29" s="2">
-        <v>2600</v>
+        <v>900</v>
       </c>
       <c r="J29" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K29" s="2">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="L29" s="6">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C30" s="7">
-        <v>145.93119999578801</v>
+        <v>117.397956373951</v>
       </c>
       <c r="D30" s="3">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="F30" s="5">
-        <v>2100</v>
+        <v>3900</v>
       </c>
       <c r="G30" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H30" s="1">
-        <v>1800</v>
+        <v>1100</v>
       </c>
       <c r="I30" s="1">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="J30" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K30" s="1">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L30" s="5">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="C31" s="8">
-        <v>499.03605247411099</v>
+        <v>145.93119999578801</v>
       </c>
       <c r="D31" s="4">
-        <v>2800</v>
+        <v>1900</v>
       </c>
       <c r="E31" s="2">
-        <v>10000</v>
+        <v>6400</v>
       </c>
       <c r="F31" s="6">
-        <v>7200</v>
+        <v>4500</v>
       </c>
       <c r="G31" s="4">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="H31" s="2">
-        <v>4800</v>
+        <v>2200</v>
       </c>
       <c r="I31" s="2">
-        <v>3700</v>
+        <v>1700</v>
       </c>
       <c r="J31" s="4">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="K31" s="2">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="L31" s="6">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C32" s="7">
-        <v>27.676562438789301</v>
+        <v>511.61732605360902</v>
       </c>
       <c r="D32" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E32" s="1">
-        <v>1100</v>
+        <v>16800</v>
       </c>
       <c r="F32" s="5">
-        <v>400</v>
+        <v>16500</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H32" s="1">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="I32" s="1">
-        <v>200</v>
+        <v>4800</v>
       </c>
       <c r="J32" s="3">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="K32" s="1">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L32" s="5">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C33" s="8">
-        <v>114.845879044046</v>
+        <v>89.766708746868602</v>
       </c>
       <c r="D33" s="4">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="E33" s="2">
-        <v>1900</v>
+        <v>3800</v>
       </c>
       <c r="F33" s="6">
-        <v>1700</v>
+        <v>2700</v>
       </c>
       <c r="G33" s="4">
         <v>100</v>
       </c>
       <c r="H33" s="2">
+        <v>1100</v>
+      </c>
+      <c r="I33" s="2">
         <v>1000</v>
       </c>
-      <c r="I33" s="2">
-        <v>900</v>
-      </c>
       <c r="J33" s="4">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="K33" s="2">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="L33" s="6">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C34" s="7">
-        <v>164.162641224277</v>
+        <v>151.979673540373</v>
       </c>
       <c r="D34" s="3">
-        <v>5700</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>7900</v>
+        <v>4700</v>
       </c>
       <c r="F34" s="5">
-        <v>2200</v>
+        <v>4700</v>
       </c>
       <c r="G34" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H34" s="1">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I34" s="1">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="J34" s="3">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K34" s="1">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="L34" s="5">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="C35" s="8">
-        <v>1890.31308806021</v>
+        <v>290.31166828585901</v>
       </c>
       <c r="D35" s="4">
-        <v>20800</v>
+        <v>3500</v>
       </c>
       <c r="E35" s="2">
-        <v>50100</v>
+        <v>12300</v>
       </c>
       <c r="F35" s="6">
-        <v>29300</v>
+        <v>8800</v>
       </c>
       <c r="G35" s="4">
-        <v>3300</v>
+        <v>800</v>
       </c>
       <c r="H35" s="2">
-        <v>15100</v>
+        <v>3400</v>
       </c>
       <c r="I35" s="2">
-        <v>11800</v>
+        <v>2600</v>
       </c>
       <c r="J35" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K35" s="2">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="L35" s="6">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>316.212062185295</v>
+        <v>23.086442578497</v>
       </c>
       <c r="D36" s="3">
-        <v>15100</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>19200</v>
+        <v>700</v>
       </c>
       <c r="F36" s="5">
-        <v>4100</v>
+        <v>700</v>
       </c>
       <c r="G36" s="3">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="H36" s="1">
-        <v>7500</v>
+        <v>200</v>
       </c>
       <c r="I36" s="1">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="J36" s="3">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="K36" s="1">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="L36" s="5">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C37" s="8">
-        <v>530.84962783518495</v>
+        <v>57.2227915107473</v>
       </c>
       <c r="D37" s="4">
         <v>0</v>
       </c>
       <c r="E37" s="2">
-        <v>7200</v>
+        <v>1700</v>
       </c>
       <c r="F37" s="6">
-        <v>7200</v>
+        <v>1700</v>
       </c>
       <c r="G37" s="4">
         <v>100</v>
       </c>
       <c r="H37" s="2">
-        <v>3700</v>
+        <v>600</v>
       </c>
       <c r="I37" s="2">
-        <v>3600</v>
+        <v>500</v>
       </c>
       <c r="J37" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="2">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L37" s="6">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="C38" s="7">
-        <v>89.766708746868602</v>
+        <v>344.27239858806701</v>
       </c>
       <c r="D38" s="3">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="E38" s="1">
-        <v>2200</v>
+        <v>10800</v>
       </c>
       <c r="F38" s="5">
-        <v>1100</v>
+        <v>10300</v>
       </c>
       <c r="G38" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H38" s="1">
-        <v>900</v>
+        <v>3500</v>
       </c>
       <c r="I38" s="1">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="J38" s="3">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="K38" s="1">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L38" s="5">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C39" s="8">
-        <v>120.846324603498</v>
+        <v>116.297622410401</v>
       </c>
       <c r="D39" s="4">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E39" s="2">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="F39" s="6">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="G39" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H39" s="2">
         <v>1000</v>
       </c>
       <c r="I39" s="2">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="J39" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K39" s="2">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="L39" s="6">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="C40" s="7">
-        <v>95.711917637985195</v>
+        <v>509.72929670403499</v>
       </c>
       <c r="D40" s="3">
-        <v>200</v>
+        <v>3200</v>
       </c>
       <c r="E40" s="1">
-        <v>1400</v>
+        <v>17400</v>
       </c>
       <c r="F40" s="5">
-        <v>1200</v>
+        <v>14200</v>
       </c>
       <c r="G40" s="3">
         <v>0</v>
       </c>
       <c r="H40" s="1">
-        <v>600</v>
+        <v>4900</v>
       </c>
       <c r="I40" s="1">
-        <v>600</v>
+        <v>4900</v>
       </c>
       <c r="J40" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K40" s="1">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="L40" s="5">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="C41" s="8">
-        <v>1391.8515591001401</v>
+        <v>530.84962783518495</v>
       </c>
       <c r="D41" s="4">
-        <v>36500</v>
+        <v>0</v>
       </c>
       <c r="E41" s="2">
-        <v>55800</v>
+        <v>15000</v>
       </c>
       <c r="F41" s="6">
-        <v>19300</v>
+        <v>15000</v>
       </c>
       <c r="G41" s="4">
-        <v>10300</v>
+        <v>100</v>
       </c>
       <c r="H41" s="2">
-        <v>18500</v>
+        <v>4400</v>
       </c>
       <c r="I41" s="2">
-        <v>8200</v>
+        <v>4300</v>
       </c>
       <c r="J41" s="4">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="K41" s="2">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="L41" s="6">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="C42" s="7">
-        <v>1307.23784973538</v>
+        <v>114.845879044046</v>
       </c>
       <c r="D42" s="3">
-        <v>17400</v>
+        <v>200</v>
       </c>
       <c r="E42" s="1">
-        <v>35700</v>
+        <v>3500</v>
       </c>
       <c r="F42" s="5">
-        <v>18300</v>
+        <v>3300</v>
       </c>
       <c r="G42" s="3">
-        <v>4200</v>
+        <v>100</v>
       </c>
       <c r="H42" s="1">
-        <v>12000</v>
+        <v>1100</v>
       </c>
       <c r="I42" s="1">
-        <v>7800</v>
+        <v>1000</v>
       </c>
       <c r="J42" s="3">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="K42" s="1">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L42" s="5">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C43" s="8">
-        <v>1.1859149762649099</v>
+        <v>499.03605247411099</v>
       </c>
       <c r="D43" s="4">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="E43" s="2">
-        <v>0</v>
+        <v>16500</v>
       </c>
       <c r="F43" s="6">
-        <v>0</v>
+        <v>13700</v>
       </c>
       <c r="G43" s="4">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="H43" s="2">
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="I43" s="2">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="J43" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K43" s="2">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="L43" s="6">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="C44" s="7">
-        <v>290.31166828585901</v>
+        <v>430.64664990306301</v>
       </c>
       <c r="D44" s="3">
-        <v>3500</v>
+        <v>2900</v>
       </c>
       <c r="E44" s="1">
-        <v>7000</v>
+        <v>14600</v>
       </c>
       <c r="F44" s="5">
-        <v>3500</v>
+        <v>11700</v>
       </c>
       <c r="G44" s="3">
         <v>800</v>
       </c>
       <c r="H44" s="1">
-        <v>2600</v>
+        <v>4700</v>
       </c>
       <c r="I44" s="1">
-        <v>1800</v>
+        <v>3900</v>
       </c>
       <c r="J44" s="3">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K44" s="1">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L44" s="5">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="C45" s="8">
-        <v>854.719517679349</v>
+        <v>476.34036359432702</v>
       </c>
       <c r="D45" s="4">
-        <v>2100</v>
+        <v>200</v>
       </c>
       <c r="E45" s="2">
-        <v>12700</v>
+        <v>13300</v>
       </c>
       <c r="F45" s="6">
-        <v>10600</v>
+        <v>13100</v>
       </c>
       <c r="G45" s="4">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H45" s="2">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="I45" s="2">
-        <v>4500</v>
+        <v>3800</v>
       </c>
       <c r="J45" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K45" s="2">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L45" s="6">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="9" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C46" s="7">
-        <v>213.140723166008</v>
+        <v>39.194420614384498</v>
       </c>
       <c r="D46" s="3">
-        <v>1900</v>
+        <v>400</v>
       </c>
       <c r="E46" s="1">
-        <v>4400</v>
+        <v>1400</v>
       </c>
       <c r="F46" s="5">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="G46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H46" s="1">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="I46" s="1">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="J46" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K46" s="1">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="L46" s="5">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C47" s="8">
-        <v>512.70618747568994</v>
+        <v>213.140723166008</v>
       </c>
       <c r="D47" s="4">
-        <v>700</v>
+        <v>1900</v>
       </c>
       <c r="E47" s="2">
-        <v>6400</v>
+        <v>7400</v>
       </c>
       <c r="F47" s="6">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="G47" s="4">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H47" s="2">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="I47" s="2">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="J47" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K47" s="2">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="L47" s="6">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C48" s="7">
-        <v>64.243849065308396</v>
+        <v>148.11595587360699</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E48" s="1">
-        <v>700</v>
+        <v>4100</v>
       </c>
       <c r="F48" s="5">
-        <v>700</v>
+        <v>4000</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H48" s="1">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="I48" s="1">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K48" s="1">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="L48" s="5">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="C49" s="8">
-        <v>56.771371363901501</v>
+        <v>2.7386570445659402</v>
       </c>
       <c r="D49" s="4">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E49" s="2">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="F49" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G49" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H49" s="2">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I49" s="2">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J49" s="4">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K49" s="2">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="L49" s="6">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C50" s="7">
-        <v>331.15227926952599</v>
+        <v>99.749783688097097</v>
       </c>
       <c r="D50" s="3">
+        <v>300</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2900</v>
+      </c>
+      <c r="F50" s="5">
         <v>2600</v>
       </c>
-      <c r="E50" s="1">
-        <v>6100</v>
-      </c>
-      <c r="F50" s="5">
-        <v>3500</v>
-      </c>
       <c r="G50" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="H50" s="1">
-        <v>2400</v>
+        <v>800</v>
       </c>
       <c r="I50" s="1">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="J50" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K50" s="1">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="L50" s="5">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="C51" s="8">
-        <v>107.65341241807</v>
+        <v>491.65592965925202</v>
       </c>
       <c r="D51" s="4">
-        <v>500</v>
+        <v>4800</v>
       </c>
       <c r="E51" s="2">
-        <v>1500</v>
+        <v>17800</v>
       </c>
       <c r="F51" s="6">
+        <v>13000</v>
+      </c>
+      <c r="G51" s="4">
         <v>1000</v>
       </c>
-      <c r="G51" s="4">
-        <v>600</v>
-      </c>
       <c r="H51" s="2">
-        <v>1300</v>
+        <v>4800</v>
       </c>
       <c r="I51" s="2">
-        <v>700</v>
+        <v>3800</v>
       </c>
       <c r="J51" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K51" s="2">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="L51" s="6">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C52" s="7">
-        <v>155.042279693214</v>
+        <v>95.884863479733795</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E52" s="1">
-        <v>1600</v>
+        <v>3100</v>
       </c>
       <c r="F52" s="5">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H52" s="1">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I52" s="1">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="J52" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K52" s="1">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="L52" s="5">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C53" s="8">
-        <v>59.345403981058297</v>
+        <v>1.1859149762649099</v>
       </c>
       <c r="D53" s="4">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E53" s="2">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="F53" s="6">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G53" s="4">
         <v>0</v>
       </c>
       <c r="H53" s="2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I53" s="2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J53" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K53" s="2">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="L53" s="6">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="7">
+        <v>59.345403981058297</v>
+      </c>
+      <c r="D54" s="3">
+        <v>500</v>
+      </c>
+      <c r="E54" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F54" s="5">
+        <v>1500</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>500</v>
+      </c>
+      <c r="I54" s="1">
+        <v>500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>9</v>
+      </c>
+      <c r="K54" s="1">
+        <v>42</v>
+      </c>
+      <c r="L54" s="5">
         <v>33</v>
-      </c>
-      <c r="C54" s="7">
-        <v>260.394231304941</v>
-      </c>
-      <c r="D54" s="3">
-        <v>7100</v>
-      </c>
-      <c r="E54" s="1">
-        <v>9600</v>
-      </c>
-      <c r="F54" s="5">
-        <v>2500</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H54" s="1">
-        <v>2500</v>
-      </c>
-      <c r="I54" s="1">
-        <v>1200</v>
-      </c>
-      <c r="J54" s="3">
-        <v>32</v>
-      </c>
-      <c r="K54" s="1">
-        <v>47</v>
-      </c>
-      <c r="L54" s="5">
-        <v>15</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="C55" s="8">
-        <v>577.43037372527101</v>
+        <v>27.676562438789301</v>
       </c>
       <c r="D55" s="4">
-        <v>14600</v>
+        <v>700</v>
       </c>
       <c r="E55" s="2">
-        <v>20700</v>
+        <v>1400</v>
       </c>
       <c r="F55" s="6">
-        <v>6100</v>
+        <v>700</v>
       </c>
       <c r="G55" s="4">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="H55" s="2">
-        <v>4000</v>
+        <v>200</v>
       </c>
       <c r="I55" s="2">
-        <v>2500</v>
+        <v>200</v>
       </c>
       <c r="J55" s="4">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K55" s="2">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="L55" s="6">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" s="9" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="C56" s="7">
-        <v>430.64664990306301</v>
+        <v>120.846324603498</v>
       </c>
       <c r="D56" s="3">
-        <v>2900</v>
+        <v>300</v>
       </c>
       <c r="E56" s="1">
-        <v>7100</v>
+        <v>3300</v>
       </c>
       <c r="F56" s="5">
-        <v>4200</v>
+        <v>3000</v>
       </c>
       <c r="G56" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="H56" s="1">
-        <v>3300</v>
+        <v>1100</v>
       </c>
       <c r="I56" s="1">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="J56" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K56" s="1">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L56" s="5">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="C57" s="8">
-        <v>157.88652454704501</v>
+        <v>854.719517679349</v>
       </c>
       <c r="D57" s="4">
-        <v>2700</v>
+        <v>2100</v>
       </c>
       <c r="E57" s="2">
-        <v>3900</v>
+        <v>24500</v>
       </c>
       <c r="F57" s="6">
-        <v>1200</v>
+        <v>22400</v>
       </c>
       <c r="G57" s="4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H57" s="2">
-        <v>1300</v>
+        <v>4800</v>
       </c>
       <c r="I57" s="2">
-        <v>900</v>
+        <v>4800</v>
       </c>
       <c r="J57" s="4">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="K57" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L57" s="6">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" s="9" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="C58" s="7">
-        <v>411.95410230322199</v>
+        <v>155.16676243044901</v>
       </c>
       <c r="D58" s="3">
-        <v>5600</v>
+        <v>1200</v>
       </c>
       <c r="E58" s="1">
-        <v>9400</v>
+        <v>4900</v>
       </c>
       <c r="F58" s="5">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="G58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H58" s="1">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="I58" s="1">
-        <v>1900</v>
+        <v>1200</v>
       </c>
       <c r="J58" s="3">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="K58" s="1">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L58" s="5">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="C59" s="8">
-        <v>56.508938850792603</v>
+        <v>512.70618747568994</v>
       </c>
       <c r="D59" s="4">
         <v>700</v>
       </c>
       <c r="E59" s="2">
-        <v>1200</v>
+        <v>13500</v>
       </c>
       <c r="F59" s="6">
-        <v>500</v>
+        <v>12800</v>
       </c>
       <c r="G59" s="4">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H59" s="2">
-        <v>400</v>
+        <v>4200</v>
       </c>
       <c r="I59" s="2">
-        <v>200</v>
+        <v>3800</v>
       </c>
       <c r="J59" s="4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K59" s="2">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L59" s="6">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" s="9" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="C60" s="7">
-        <v>99.749783688097097</v>
+        <v>124.16426071444999</v>
       </c>
       <c r="D60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E60" s="1">
-        <v>1100</v>
+        <v>3100</v>
       </c>
       <c r="F60" s="5">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="G60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H60" s="1">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="I60" s="1">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="J60" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K60" s="1">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="L60" s="5">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C61" s="8">
-        <v>773.33737477900399</v>
+        <v>205.980426932803</v>
       </c>
       <c r="D61" s="4">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="E61" s="2">
-        <v>8300</v>
+        <v>6700</v>
       </c>
       <c r="F61" s="6">
-        <v>6700</v>
+        <v>4900</v>
       </c>
       <c r="G61" s="4">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="H61" s="2">
-        <v>4200</v>
+        <v>1700</v>
       </c>
       <c r="I61" s="2">
-        <v>3400</v>
+        <v>1400</v>
       </c>
       <c r="J61" s="4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K61" s="2">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="L61" s="6">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B62" s="9" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C62" s="7">
-        <v>39.194420614384498</v>
+        <v>92.424345096758302</v>
       </c>
       <c r="D62" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E62" s="1">
-        <v>700</v>
+        <v>3100</v>
       </c>
       <c r="F62" s="5">
-        <v>300</v>
+        <v>2300</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H62" s="1">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="I62" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="J62" s="3">
         <v>11</v>
       </c>
       <c r="K62" s="1">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="L62" s="5">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="C63" s="8">
-        <v>210.54261478070401</v>
+        <v>95.711917637985195</v>
       </c>
       <c r="D63" s="4">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="E63" s="2">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="F63" s="6">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="G63" s="4">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H63" s="2">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="I63" s="2">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="J63" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K63" s="2">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="L63" s="6">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" s="9" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="C64" s="7">
-        <v>155.16676243044901</v>
+        <v>52.753586155478999</v>
       </c>
       <c r="D64" s="3">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="E64" s="1">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="F64" s="5">
         <v>1300</v>
       </c>
       <c r="G64" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H64" s="1">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I64" s="1">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="J64" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K64" s="1">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="L64" s="5">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="C65" s="8">
-        <v>111.987511316007</v>
+        <v>411.95410230322199</v>
       </c>
       <c r="D65" s="4">
-        <v>1300</v>
+        <v>5600</v>
       </c>
       <c r="E65" s="2">
-        <v>2200</v>
+        <v>15100</v>
       </c>
       <c r="F65" s="6">
-        <v>900</v>
+        <v>9500</v>
       </c>
       <c r="G65" s="4">
         <v>200</v>
       </c>
       <c r="H65" s="2">
-        <v>600</v>
+        <v>3500</v>
       </c>
       <c r="I65" s="2">
-        <v>400</v>
+        <v>3300</v>
       </c>
       <c r="J65" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K65" s="2">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="L65" s="6">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66" s="9" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C66" s="7">
-        <v>447.42111316211299</v>
+        <v>380.71160928159298</v>
       </c>
       <c r="D66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E66" s="1">
+        <v>11500</v>
+      </c>
+      <c r="F66" s="5">
+        <v>9200</v>
+      </c>
+      <c r="G66" s="3">
+        <v>400</v>
+      </c>
+      <c r="H66" s="1">
         <v>3100</v>
       </c>
-      <c r="E66" s="1">
-        <v>7100</v>
-      </c>
-      <c r="F66" s="5">
-        <v>4000</v>
-      </c>
-      <c r="G66" s="3">
-        <v>800</v>
-      </c>
-      <c r="H66" s="1">
-        <v>3000</v>
-      </c>
       <c r="I66" s="1">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="J66" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K66" s="1">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="L66" s="5">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C67" s="8">
-        <v>115.338209119553</v>
+        <v>331.15227926952599</v>
       </c>
       <c r="D67" s="4">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="E67" s="2">
-        <v>3700</v>
+        <v>10200</v>
       </c>
       <c r="F67" s="6">
-        <v>1000</v>
+        <v>7600</v>
       </c>
       <c r="G67" s="4">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H67" s="2">
-        <v>500</v>
+        <v>2900</v>
       </c>
       <c r="I67" s="2">
-        <v>500</v>
+        <v>2300</v>
       </c>
       <c r="J67" s="4">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="K67" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L67" s="6">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B68" s="9" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C68" s="7">
-        <v>78.918319133637993</v>
+        <v>271.81388938152202</v>
       </c>
       <c r="D68" s="3">
-        <v>1400</v>
+        <v>2600</v>
       </c>
       <c r="E68" s="1">
-        <v>1900</v>
+        <v>8800</v>
       </c>
       <c r="F68" s="5">
-        <v>500</v>
+        <v>6200</v>
       </c>
       <c r="G68" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H68" s="1">
-        <v>400</v>
+        <v>2800</v>
       </c>
       <c r="I68" s="1">
-        <v>400</v>
+        <v>1800</v>
       </c>
       <c r="J68" s="3">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K68" s="1">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="L68" s="5">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C69" s="8">
-        <v>205.980426932803</v>
+        <v>200.18027099615401</v>
       </c>
       <c r="D69" s="4">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="E69" s="2">
-        <v>3300</v>
+        <v>5200</v>
       </c>
       <c r="F69" s="6">
+        <v>4600</v>
+      </c>
+      <c r="G69" s="4">
+        <v>200</v>
+      </c>
+      <c r="H69" s="2">
         <v>1500</v>
       </c>
-      <c r="G69" s="4">
-        <v>300</v>
-      </c>
-      <c r="H69" s="2">
-        <v>1000</v>
-      </c>
       <c r="I69" s="2">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="J69" s="4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K69" s="2">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L69" s="6">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70" s="9" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C70" s="7">
-        <v>491.65592965925202</v>
+        <v>64.243849065308396</v>
       </c>
       <c r="D70" s="3">
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="E70" s="1">
-        <v>8500</v>
+        <v>1400</v>
       </c>
       <c r="F70" s="5">
-        <v>3700</v>
+        <v>1400</v>
       </c>
       <c r="G70" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H70" s="1">
-        <v>3000</v>
+        <v>400</v>
       </c>
       <c r="I70" s="1">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="J70" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K70" s="1">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L70" s="5">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="C71" s="8">
-        <v>200.18027099615401</v>
+        <v>68.478376805279595</v>
       </c>
       <c r="D71" s="4">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E71" s="2">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="F71" s="6">
         <v>1600</v>
       </c>
       <c r="G71" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H71" s="2">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="I71" s="2">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="J71" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K71" s="2">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L71" s="6">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72" s="9" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C72" s="7">
-        <v>21.8307668974875</v>
+        <v>155.042279693214</v>
       </c>
       <c r="D72" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>500</v>
+        <v>3600</v>
       </c>
       <c r="F72" s="5">
-        <v>200</v>
+        <v>3600</v>
       </c>
       <c r="G72" s="3">
         <v>100</v>
       </c>
       <c r="H72" s="1">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="I72" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="J72" s="3">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="K72" s="1">
+        <v>30</v>
+      </c>
+      <c r="L72" s="5">
         <v>29</v>
-      </c>
-      <c r="L72" s="5">
-        <v>11</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="C73" s="8">
-        <v>170.00440862177601</v>
+        <v>137.00541351475999</v>
       </c>
       <c r="D73" s="4">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="E73" s="2">
-        <v>2700</v>
+        <v>3600</v>
       </c>
       <c r="F73" s="6">
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="G73" s="4">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H73" s="2">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="I73" s="2">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="J73" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K73" s="2">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L73" s="6">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B74" s="9" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="C74" s="7">
-        <v>95.884863479733795</v>
+        <v>299.04491646500099</v>
       </c>
       <c r="D74" s="3">
-        <v>300</v>
+        <v>3900</v>
       </c>
       <c r="E74" s="1">
-        <v>1000</v>
+        <v>10200</v>
       </c>
       <c r="F74" s="5">
-        <v>700</v>
+        <v>6300</v>
       </c>
       <c r="G74" s="3">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="H74" s="1">
-        <v>800</v>
+        <v>3100</v>
       </c>
       <c r="I74" s="1">
-        <v>300</v>
+        <v>1900</v>
       </c>
       <c r="J74" s="3">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="K74" s="1">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="L74" s="5">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="C75" s="8">
-        <v>124.16426071444999</v>
+        <v>22.9246785522</v>
       </c>
       <c r="D75" s="4">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E75" s="2">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F75" s="6">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="G75" s="4">
         <v>0</v>
       </c>
       <c r="H75" s="2">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I75" s="2">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="J75" s="4">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K75" s="2">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="L75" s="6">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B76" s="9" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C76" s="7">
-        <v>124.932468750914</v>
+        <v>53.453818442418303</v>
       </c>
       <c r="D76" s="3">
-        <v>3400</v>
+        <v>200</v>
       </c>
       <c r="E76" s="1">
-        <v>4200</v>
+        <v>1600</v>
       </c>
       <c r="F76" s="5">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="G76" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H76" s="1">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="I76" s="1">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="J76" s="3">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="K76" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L76" s="5">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="C77" s="8">
-        <v>83.228908110546499</v>
+        <v>100.992624610916</v>
       </c>
       <c r="D77" s="4">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E77" s="2">
+        <v>2900</v>
+      </c>
+      <c r="F77" s="6">
+        <v>2000</v>
+      </c>
+      <c r="G77" s="4">
+        <v>200</v>
+      </c>
+      <c r="H77" s="2">
         <v>900</v>
       </c>
-      <c r="F77" s="6">
-        <v>400</v>
-      </c>
-      <c r="G77" s="4">
-        <v>100</v>
-      </c>
-      <c r="H77" s="2">
-        <v>400</v>
-      </c>
       <c r="I77" s="2">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="J77" s="4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K77" s="2">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="L77" s="6">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B78" s="9" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C78" s="7">
-        <v>92.424345096758302</v>
+        <v>210.54261478070401</v>
       </c>
       <c r="D78" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E78" s="1">
+        <v>5400</v>
+      </c>
+      <c r="F78" s="5">
+        <v>4400</v>
+      </c>
+      <c r="G78" s="3">
+        <v>500</v>
+      </c>
+      <c r="H78" s="1">
+        <v>1800</v>
+      </c>
+      <c r="I78" s="1">
         <v>1300</v>
       </c>
-      <c r="F78" s="5">
-        <v>500</v>
-      </c>
-      <c r="G78" s="3">
-        <v>200</v>
-      </c>
-      <c r="H78" s="1">
-        <v>500</v>
-      </c>
-      <c r="I78" s="1">
-        <v>300</v>
-      </c>
       <c r="J78" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K78" s="1">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L78" s="5">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="C79" s="8">
-        <v>110.58451637028099</v>
+        <v>739.19016457215901</v>
       </c>
       <c r="D79" s="4">
-        <v>200</v>
+        <v>8000</v>
       </c>
       <c r="E79" s="2">
-        <v>800</v>
+        <v>22900</v>
       </c>
       <c r="F79" s="6">
-        <v>600</v>
+        <v>14900</v>
       </c>
       <c r="G79" s="4">
-        <v>300</v>
+        <v>2500</v>
       </c>
       <c r="H79" s="2">
-        <v>600</v>
+        <v>7600</v>
       </c>
       <c r="I79" s="2">
-        <v>300</v>
+        <v>5100</v>
       </c>
       <c r="J79" s="4">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K79" s="2">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="L79" s="6">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B80" s="9" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="C80" s="7">
-        <v>52.753586155478899</v>
+        <v>267.926220506096</v>
       </c>
       <c r="D80" s="3">
-        <v>400</v>
+        <v>3400</v>
       </c>
       <c r="E80" s="1">
-        <v>700</v>
+        <v>8500</v>
       </c>
       <c r="F80" s="5">
-        <v>300</v>
+        <v>5100</v>
       </c>
       <c r="G80" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H80" s="1">
-        <v>400</v>
+        <v>2500</v>
       </c>
       <c r="I80" s="1">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="J80" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K80" s="1">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="L80" s="5">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="C81" s="8">
-        <v>235.44144687327801</v>
+        <v>21.507384993370302</v>
       </c>
       <c r="D81" s="4">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E81" s="2">
-        <v>2100</v>
+        <v>500</v>
       </c>
       <c r="F81" s="6">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="G81" s="4">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="H81" s="2">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="I81" s="2">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="J81" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K81" s="2">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L81" s="6">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82" s="9" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="C82" s="7">
-        <v>33.829419291167298</v>
+        <v>21.8307668974875</v>
       </c>
       <c r="D82" s="3">
+        <v>300</v>
+      </c>
+      <c r="E82" s="1">
+        <v>800</v>
+      </c>
+      <c r="F82" s="5">
+        <v>500</v>
+      </c>
+      <c r="G82" s="3">
+        <v>100</v>
+      </c>
+      <c r="H82" s="1">
         <v>200</v>
-      </c>
-      <c r="E82" s="1">
-        <v>400</v>
-      </c>
-      <c r="F82" s="5">
-        <v>200</v>
-      </c>
-      <c r="G82" s="3">
-        <v>200</v>
-      </c>
-      <c r="H82" s="1">
-        <v>300</v>
       </c>
       <c r="I82" s="1">
         <v>100</v>
       </c>
       <c r="J82" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K82" s="1">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="L82" s="5">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="C83" s="8">
-        <v>363.135024368833</v>
+        <v>107.65341241807</v>
       </c>
       <c r="D83" s="4">
-        <v>3800</v>
+        <v>500</v>
       </c>
       <c r="E83" s="2">
-        <v>6100</v>
+        <v>2600</v>
       </c>
       <c r="F83" s="6">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="G83" s="4">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="H83" s="2">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="I83" s="2">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="J83" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K83" s="2">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L83" s="6">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84" s="9" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C84" s="7">
-        <v>137.00541351475999</v>
+        <v>64.762034715930596</v>
       </c>
       <c r="D84" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E84" s="1">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="F84" s="5">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="G84" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H84" s="1">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="I84" s="1">
         <v>400</v>
       </c>
       <c r="J84" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K84" s="1">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="L84" s="5">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="C85" s="8">
-        <v>43.134278765713397</v>
+        <v>80.270260120692498</v>
       </c>
       <c r="D85" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E85" s="2">
+        <v>1700</v>
+      </c>
+      <c r="F85" s="6">
+        <v>1700</v>
+      </c>
+      <c r="G85" s="4">
+        <v>300</v>
+      </c>
+      <c r="H85" s="2">
+        <v>700</v>
+      </c>
+      <c r="I85" s="2">
         <v>400</v>
       </c>
-      <c r="F85" s="6">
-        <v>200</v>
-      </c>
-      <c r="G85" s="4">
-        <v>0</v>
-      </c>
-      <c r="H85" s="2">
-        <v>200</v>
-      </c>
-      <c r="I85" s="2">
-        <v>200</v>
-      </c>
       <c r="J85" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K85" s="2">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L85" s="6">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B86" s="9" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="C86" s="7">
-        <v>101.73044050137101</v>
+        <v>111.987511316007</v>
       </c>
       <c r="D86" s="3">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="E86" s="1">
-        <v>2200</v>
+        <v>3400</v>
       </c>
       <c r="F86" s="5">
-        <v>500</v>
+        <v>2100</v>
       </c>
       <c r="G86" s="3">
         <v>200</v>
       </c>
       <c r="H86" s="1">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="I86" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J86" s="3">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K86" s="1">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="L86" s="5">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="C87" s="8">
-        <v>380.71160928159202</v>
+        <v>176.77329204288799</v>
       </c>
       <c r="D87" s="4">
-        <v>2300</v>
+        <v>800</v>
       </c>
       <c r="E87" s="2">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="F87" s="6">
-        <v>2000</v>
+        <v>3700</v>
       </c>
       <c r="G87" s="4">
         <v>400</v>
@@ -4605,342 +4605,342 @@
         <v>7</v>
       </c>
       <c r="K87" s="2">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="L87" s="6">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B88" s="9" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="C88" s="7">
-        <v>339.03193591173402</v>
+        <v>157.88652454704501</v>
       </c>
       <c r="D88" s="3">
-        <v>4000</v>
+        <v>2700</v>
       </c>
       <c r="E88" s="1">
-        <v>5800</v>
+        <v>5400</v>
       </c>
       <c r="F88" s="5">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="G88" s="3">
         <v>400</v>
       </c>
       <c r="H88" s="1">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="I88" s="1">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="J88" s="3">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K88" s="1">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="L88" s="5">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="C89" s="8">
-        <v>138.24022353009201</v>
+        <v>103.55758268594499</v>
       </c>
       <c r="D89" s="4">
-        <v>3100</v>
+        <v>400</v>
       </c>
       <c r="E89" s="2">
-        <v>3800</v>
+        <v>2500</v>
       </c>
       <c r="F89" s="6">
-        <v>700</v>
+        <v>2100</v>
       </c>
       <c r="G89" s="4">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="H89" s="2">
         <v>900</v>
       </c>
       <c r="I89" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="J89" s="4">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="K89" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L89" s="6">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B90" s="9" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C90" s="7">
-        <v>928.81910401452899</v>
+        <v>363.135024368833</v>
       </c>
       <c r="D90" s="3">
-        <v>25000</v>
+        <v>3800</v>
       </c>
       <c r="E90" s="1">
-        <v>29100</v>
+        <v>10800</v>
       </c>
       <c r="F90" s="5">
-        <v>4100</v>
+        <v>7000</v>
       </c>
       <c r="G90" s="3">
-        <v>3700</v>
+        <v>400</v>
       </c>
       <c r="H90" s="1">
-        <v>7100</v>
+        <v>2600</v>
       </c>
       <c r="I90" s="1">
-        <v>3400</v>
+        <v>2200</v>
       </c>
       <c r="J90" s="3">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="K90" s="1">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L90" s="5">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C91" s="8">
-        <v>80.270260120692399</v>
+        <v>928.81910401453001</v>
       </c>
       <c r="D91" s="4">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="E91" s="2">
-        <v>500</v>
+        <v>41400</v>
       </c>
       <c r="F91" s="6">
-        <v>500</v>
+        <v>16400</v>
       </c>
       <c r="G91" s="4">
-        <v>300</v>
+        <v>3700</v>
       </c>
       <c r="H91" s="2">
-        <v>500</v>
+        <v>10200</v>
       </c>
       <c r="I91" s="2">
-        <v>200</v>
+        <v>6500</v>
       </c>
       <c r="J91" s="4">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="K91" s="2">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="L91" s="6">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B92" s="9" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="C92" s="7">
-        <v>176.77329204288799</v>
+        <v>167.55890278623099</v>
       </c>
       <c r="D92" s="3">
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="E92" s="1">
-        <v>1800</v>
+        <v>5200</v>
       </c>
       <c r="F92" s="5">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G92" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H92" s="1">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="I92" s="1">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="J92" s="3">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K92" s="1">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="L92" s="5">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="C93" s="8">
-        <v>267.926220506096</v>
+        <v>447.42111316211299</v>
       </c>
       <c r="D93" s="4">
-        <v>3400</v>
+        <v>3100</v>
       </c>
       <c r="E93" s="2">
-        <v>4500</v>
+        <v>11800</v>
       </c>
       <c r="F93" s="6">
-        <v>1100</v>
+        <v>8700</v>
       </c>
       <c r="G93" s="4">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="H93" s="2">
-        <v>1300</v>
+        <v>3600</v>
       </c>
       <c r="I93" s="2">
-        <v>800</v>
+        <v>2800</v>
       </c>
       <c r="J93" s="4">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K93" s="2">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="L93" s="6">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B94" s="9" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C94" s="7">
-        <v>70.611976668679802</v>
+        <v>78.918319133637993</v>
       </c>
       <c r="D94" s="3">
-        <v>2600</v>
+        <v>1400</v>
       </c>
       <c r="E94" s="1">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="F94" s="5">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="G94" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H94" s="1">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="I94" s="1">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="J94" s="3">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="K94" s="1">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L94" s="5">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C95" s="8">
-        <v>110.744573336139</v>
+        <v>110.58451637028099</v>
       </c>
       <c r="D95" s="4">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="E95" s="2">
-        <v>1700</v>
+        <v>2300</v>
       </c>
       <c r="F95" s="6">
-        <v>500</v>
+        <v>2100</v>
       </c>
       <c r="G95" s="4">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="H95" s="2">
         <v>800</v>
       </c>
       <c r="I95" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="J95" s="4">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K95" s="2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L95" s="6">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B96" s="9" t="s">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="C96" s="7">
-        <v>85.215944153242106</v>
+        <v>235.44144687327801</v>
       </c>
       <c r="D96" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E96" s="1">
-        <v>800</v>
+        <v>5200</v>
       </c>
       <c r="F96" s="5">
+        <v>4500</v>
+      </c>
+      <c r="G96" s="3">
         <v>500</v>
       </c>
-      <c r="G96" s="3">
-        <v>300</v>
-      </c>
       <c r="H96" s="1">
-        <v>500</v>
+        <v>1700</v>
       </c>
       <c r="I96" s="1">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="J96" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K96" s="1">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="L96" s="5">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C97" s="8">
-        <v>84.421644650153496</v>
+        <v>32.189503917227</v>
       </c>
       <c r="D97" s="4">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E97" s="2">
+        <v>1100</v>
+      </c>
+      <c r="F97" s="6">
         <v>600</v>
-      </c>
-      <c r="F97" s="6">
-        <v>400</v>
       </c>
       <c r="G97" s="4">
         <v>100</v>
@@ -4952,1780 +4952,1780 @@
         <v>200</v>
       </c>
       <c r="J97" s="4">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="K97" s="2">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="L97" s="6">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B98" s="9" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="C98" s="7">
-        <v>419.92496383397997</v>
+        <v>85.215944153242106</v>
       </c>
       <c r="D98" s="3">
-        <v>5900</v>
+        <v>300</v>
       </c>
       <c r="E98" s="1">
-        <v>7900</v>
+        <v>2000</v>
       </c>
       <c r="F98" s="5">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="G98" s="3">
+        <v>300</v>
+      </c>
+      <c r="H98" s="1">
         <v>600</v>
       </c>
-      <c r="H98" s="1">
-        <v>1500</v>
-      </c>
       <c r="I98" s="1">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="J98" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K98" s="1">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L98" s="5">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="C99" s="8">
-        <v>34.740374167911497</v>
+        <v>115.338209119553</v>
       </c>
       <c r="D99" s="4">
-        <v>400</v>
+        <v>2700</v>
       </c>
       <c r="E99" s="2">
-        <v>500</v>
+        <v>4600</v>
       </c>
       <c r="F99" s="6">
-        <v>100</v>
+        <v>1900</v>
       </c>
       <c r="G99" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H99" s="2">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="I99" s="2">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="J99" s="4">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K99" s="2">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="L99" s="6">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B100" s="9" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="C100" s="7">
-        <v>103.55758268594499</v>
+        <v>4.4064962869784701</v>
       </c>
       <c r="D100" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E100" s="1">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="F100" s="5">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H100" s="1">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="I100" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>8</v>
       </c>
       <c r="K100" s="1">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L100" s="5">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="C101" s="8">
-        <v>22.9246785522</v>
+        <v>149.907469235696</v>
       </c>
       <c r="D101" s="4">
+        <v>600</v>
+      </c>
+      <c r="E101" s="2">
+        <v>3400</v>
+      </c>
+      <c r="F101" s="6">
+        <v>2800</v>
+      </c>
+      <c r="G101" s="4">
         <v>300</v>
       </c>
-      <c r="E101" s="2">
-        <v>400</v>
-      </c>
-      <c r="F101" s="6">
-        <v>100</v>
-      </c>
-      <c r="G101" s="4">
-        <v>0</v>
-      </c>
       <c r="H101" s="2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="I101" s="2">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="J101" s="4">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K101" s="2">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="L101" s="6">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B102" s="9" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C102" s="7">
-        <v>336.499530098604</v>
+        <v>773.33737477900399</v>
       </c>
       <c r="D102" s="3">
-        <v>14300</v>
+        <v>1600</v>
       </c>
       <c r="E102" s="1">
-        <v>15900</v>
+        <v>14800</v>
       </c>
       <c r="F102" s="5">
-        <v>1600</v>
+        <v>13200</v>
       </c>
       <c r="G102" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="H102" s="1">
-        <v>700</v>
+        <v>4700</v>
       </c>
       <c r="I102" s="1">
-        <v>600</v>
+        <v>3900</v>
       </c>
       <c r="J102" s="3">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="K102" s="1">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L102" s="5">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C103" s="8">
-        <v>154.44815879192299</v>
+        <v>25.478251634623199</v>
       </c>
       <c r="D103" s="4">
-        <v>2700</v>
+        <v>400</v>
       </c>
       <c r="E103" s="2">
-        <v>3400</v>
+        <v>800</v>
       </c>
       <c r="F103" s="6">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="G103" s="4">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H103" s="2">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="I103" s="2">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J103" s="4">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K103" s="2">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="L103" s="6">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B104" s="9" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="C104" s="7">
-        <v>148.11595587360699</v>
+        <v>83.228908110546499</v>
       </c>
       <c r="D104" s="3">
+        <v>500</v>
+      </c>
+      <c r="E104" s="1">
+        <v>1800</v>
+      </c>
+      <c r="F104" s="5">
+        <v>1300</v>
+      </c>
+      <c r="G104" s="3">
         <v>100</v>
       </c>
-      <c r="E104" s="1">
-        <v>700</v>
-      </c>
-      <c r="F104" s="5">
-        <v>600</v>
-      </c>
-      <c r="G104" s="3">
-        <v>300</v>
-      </c>
       <c r="H104" s="1">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I104" s="1">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J104" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K104" s="1">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="L104" s="5">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C105" s="8">
-        <v>739.19016457215798</v>
+        <v>14.4952248380496</v>
       </c>
       <c r="D105" s="4">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="E105" s="2">
-        <v>11200</v>
+        <v>600</v>
       </c>
       <c r="F105" s="6">
-        <v>3200</v>
+        <v>200</v>
       </c>
       <c r="G105" s="4">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="H105" s="2">
-        <v>4500</v>
+        <v>100</v>
       </c>
       <c r="I105" s="2">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="J105" s="4">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="K105" s="2">
+        <v>52</v>
+      </c>
+      <c r="L105" s="6">
         <v>21</v>
-      </c>
-      <c r="L105" s="6">
-        <v>7</v>
       </c>
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B106" s="9" t="s">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="C106" s="7">
-        <v>55.628335301250502</v>
+        <v>154.44815879192299</v>
       </c>
       <c r="D106" s="3">
-        <v>200</v>
+        <v>2700</v>
       </c>
       <c r="E106" s="1">
-        <v>500</v>
+        <v>4600</v>
       </c>
       <c r="F106" s="5">
-        <v>300</v>
+        <v>1900</v>
       </c>
       <c r="G106" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H106" s="1">
-        <v>100</v>
+        <v>1900</v>
       </c>
       <c r="I106" s="1">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="J106" s="3">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="K106" s="1">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="L106" s="5">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="C107" s="8">
-        <v>271.81388938152202</v>
+        <v>102.697425287353</v>
       </c>
       <c r="D107" s="4">
         <v>2600</v>
       </c>
       <c r="E107" s="2">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="F107" s="6">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="G107" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H107" s="2">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="I107" s="2">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="J107" s="4">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="K107" s="2">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L107" s="6">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B108" s="9" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C108" s="7">
-        <v>21.507384993370302</v>
+        <v>219.93961435708101</v>
       </c>
       <c r="D108" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E108" s="1">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="F108" s="5">
-        <v>100</v>
+        <v>3900</v>
       </c>
       <c r="G108" s="3">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="H108" s="1">
-        <v>100</v>
+        <v>1700</v>
       </c>
       <c r="I108" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J108" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K108" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L108" s="5">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="C109" s="8">
-        <v>115.35180092047899</v>
+        <v>426.387425951056</v>
       </c>
       <c r="D109" s="4">
-        <v>1500</v>
+        <v>3800</v>
       </c>
       <c r="E109" s="2">
-        <v>1900</v>
+        <v>10200</v>
       </c>
       <c r="F109" s="6">
-        <v>400</v>
+        <v>6400</v>
       </c>
       <c r="G109" s="4">
-        <v>200</v>
+        <v>2700</v>
       </c>
       <c r="H109" s="2">
-        <v>500</v>
+        <v>4800</v>
       </c>
       <c r="I109" s="2">
-        <v>300</v>
+        <v>2100</v>
       </c>
       <c r="J109" s="4">
         <v>15</v>
       </c>
       <c r="K109" s="2">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="L109" s="6">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B110" s="9" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="C110" s="7">
-        <v>25.478251634623199</v>
+        <v>56.508938850792603</v>
       </c>
       <c r="D110" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E110" s="1">
+        <v>1400</v>
+      </c>
+      <c r="F110" s="5">
+        <v>700</v>
+      </c>
+      <c r="G110" s="3">
+        <v>200</v>
+      </c>
+      <c r="H110" s="1">
         <v>500</v>
       </c>
-      <c r="F110" s="5">
-        <v>100</v>
-      </c>
-      <c r="G110" s="3">
-        <v>0</v>
-      </c>
-      <c r="H110" s="1">
-        <v>100</v>
-      </c>
       <c r="I110" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J110" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K110" s="1">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="L110" s="5">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C111" s="8">
-        <v>53.453818442418303</v>
+        <v>419.92496383397997</v>
       </c>
       <c r="D111" s="4">
-        <v>200</v>
+        <v>5900</v>
       </c>
       <c r="E111" s="2">
-        <v>500</v>
+        <v>11700</v>
       </c>
       <c r="F111" s="6">
-        <v>300</v>
+        <v>5800</v>
       </c>
       <c r="G111" s="4">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="H111" s="2">
-        <v>400</v>
+        <v>2700</v>
       </c>
       <c r="I111" s="2">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="J111" s="4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K111" s="2">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="L111" s="6">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B112" s="9" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="C112" s="7">
-        <v>14.4952248380496</v>
+        <v>43.134278765713397</v>
       </c>
       <c r="D112" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E112" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="F112" s="5">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G112" s="3">
         <v>0</v>
       </c>
       <c r="H112" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I112" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J112" s="3">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="K112" s="1">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="L112" s="5">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B113" s="10" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C113" s="8">
-        <v>46.743100400889098</v>
+        <v>115.35180092047899</v>
       </c>
       <c r="D113" s="4">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="E113" s="2">
-        <v>500</v>
+        <v>3100</v>
       </c>
       <c r="F113" s="6">
-        <v>200</v>
+        <v>1600</v>
       </c>
       <c r="G113" s="4">
         <v>200</v>
       </c>
       <c r="H113" s="2">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="I113" s="2">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="J113" s="4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K113" s="2">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="L113" s="6">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B114" s="9" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C114" s="7">
-        <v>109.53354959624301</v>
+        <v>33.829419291167298</v>
       </c>
       <c r="D114" s="3">
-        <v>2600</v>
+        <v>200</v>
       </c>
       <c r="E114" s="1">
-        <v>3000</v>
+        <v>700</v>
       </c>
       <c r="F114" s="5">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G114" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H114" s="1">
         <v>300</v>
       </c>
       <c r="I114" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J114" s="3">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="K114" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L114" s="5">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B115" s="10" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="C115" s="8">
-        <v>167.55890278623099</v>
+        <v>170.00440862177601</v>
       </c>
       <c r="D115" s="4">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="E115" s="2">
-        <v>2900</v>
+        <v>4000</v>
       </c>
       <c r="F115" s="6">
-        <v>700</v>
+        <v>2500</v>
       </c>
       <c r="G115" s="4">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H115" s="2">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="I115" s="2">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J115" s="4">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K115" s="2">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L115" s="6">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B116" s="9" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="C116" s="7">
-        <v>64.762034715930596</v>
+        <v>55.5967114829064</v>
       </c>
       <c r="D116" s="3">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="E116" s="1">
-        <v>400</v>
+        <v>1700</v>
       </c>
       <c r="F116" s="5">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="G116" s="3">
         <v>100</v>
       </c>
       <c r="H116" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I116" s="1">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J116" s="3">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="K116" s="1">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="L116" s="5">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B117" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C117" s="8">
-        <v>65.353562356640495</v>
+        <v>101.73044050137101</v>
       </c>
       <c r="D117" s="4">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="E117" s="2">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="F117" s="6">
-        <v>200</v>
+        <v>1300</v>
       </c>
       <c r="G117" s="4">
         <v>200</v>
       </c>
       <c r="H117" s="2">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="I117" s="2">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="J117" s="4">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K117" s="2">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="L117" s="6">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B118" s="9" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="C118" s="7">
-        <v>32.189503917227</v>
+        <v>46.743100400889098</v>
       </c>
       <c r="D118" s="3">
+        <v>300</v>
+      </c>
+      <c r="E118" s="1">
+        <v>900</v>
+      </c>
+      <c r="F118" s="5">
+        <v>600</v>
+      </c>
+      <c r="G118" s="3">
+        <v>200</v>
+      </c>
+      <c r="H118" s="1">
         <v>500</v>
       </c>
-      <c r="E118" s="1">
-        <v>600</v>
-      </c>
-      <c r="F118" s="5">
-        <v>100</v>
-      </c>
-      <c r="G118" s="3">
-        <v>100</v>
-      </c>
-      <c r="H118" s="1">
-        <v>200</v>
-      </c>
       <c r="I118" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J118" s="3">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K118" s="1">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L118" s="5">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B119" s="10" t="s">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="C119" s="8">
-        <v>41.580517344563702</v>
+        <v>339.03193591173402</v>
       </c>
       <c r="D119" s="4">
-        <v>900</v>
+        <v>4000</v>
       </c>
       <c r="E119" s="2">
-        <v>1000</v>
+        <v>7800</v>
       </c>
       <c r="F119" s="6">
-        <v>100</v>
+        <v>3800</v>
       </c>
       <c r="G119" s="4">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H119" s="2">
-        <v>100</v>
+        <v>2300</v>
       </c>
       <c r="I119" s="2">
-        <v>100</v>
+        <v>1900</v>
       </c>
       <c r="J119" s="4">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K119" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L119" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B120" s="9" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C120" s="7">
-        <v>207.29117773237601</v>
+        <v>138.24022353009201</v>
       </c>
       <c r="D120" s="3">
-        <v>4100</v>
+        <v>3100</v>
       </c>
       <c r="E120" s="1">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="F120" s="5">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="G120" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H120" s="1">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I120" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="J120" s="3">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K120" s="1">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="L120" s="5">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="C121" s="8">
-        <v>102.697425287353</v>
+        <v>114.989185312942</v>
       </c>
       <c r="D121" s="4">
-        <v>2600</v>
+        <v>100</v>
       </c>
       <c r="E121" s="2">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="F121" s="6">
+        <v>1500</v>
+      </c>
+      <c r="G121" s="4">
         <v>200</v>
       </c>
-      <c r="G121" s="4">
-        <v>0</v>
-      </c>
       <c r="H121" s="2">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I121" s="2">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J121" s="4">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="K121" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L121" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B122" s="9" t="s">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="C122" s="7">
-        <v>35.907902480713702</v>
+        <v>139.22995567624099</v>
       </c>
       <c r="D122" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E122" s="1">
-        <v>900</v>
+        <v>2600</v>
       </c>
       <c r="F122" s="5">
+        <v>1700</v>
+      </c>
+      <c r="G122" s="3">
         <v>100</v>
       </c>
-      <c r="G122" s="3">
-        <v>0</v>
-      </c>
       <c r="H122" s="1">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="I122" s="1">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="J122" s="3">
+        <v>7</v>
+      </c>
+      <c r="K122" s="1">
         <v>24</v>
       </c>
-      <c r="K122" s="1">
-        <v>29</v>
-      </c>
       <c r="L122" s="5">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C123" s="8">
-        <v>182.81284189375199</v>
+        <v>65.353562356640396</v>
       </c>
       <c r="D123" s="4">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="E123" s="2">
+        <v>1400</v>
+      </c>
+      <c r="F123" s="6">
         <v>700</v>
       </c>
-      <c r="F123" s="6">
-        <v>600</v>
-      </c>
       <c r="G123" s="4">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="H123" s="2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I123" s="2">
         <v>300</v>
       </c>
       <c r="J123" s="4">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K123" s="2">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="L123" s="6">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B124" s="9" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="C124" s="7">
-        <v>139.22995567624099</v>
+        <v>124.932468750914</v>
       </c>
       <c r="D124" s="3">
-        <v>900</v>
+        <v>3400</v>
       </c>
       <c r="E124" s="1">
+        <v>4400</v>
+      </c>
+      <c r="F124" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G124" s="3">
+        <v>300</v>
+      </c>
+      <c r="H124" s="1">
         <v>1400</v>
       </c>
-      <c r="F124" s="5">
-        <v>500</v>
-      </c>
-      <c r="G124" s="3">
-        <v>100</v>
-      </c>
-      <c r="H124" s="1">
-        <v>300</v>
-      </c>
       <c r="I124" s="1">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="J124" s="3">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="K124" s="1">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="L124" s="5">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C125" s="8">
-        <v>12.650576132046499</v>
+        <v>35.907902480713702</v>
       </c>
       <c r="D125" s="4">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E125" s="2">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F125" s="6">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G125" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H125" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I125" s="2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J125" s="4">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="K125" s="2">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="L125" s="6">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B126" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C126" s="7">
-        <v>74.546396585402107</v>
+        <v>182.81284189375199</v>
       </c>
       <c r="D126" s="3">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="E126" s="1">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="F126" s="5">
-        <v>200</v>
+        <v>2400</v>
       </c>
       <c r="G126" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="H126" s="1">
+        <v>1200</v>
+      </c>
+      <c r="I126" s="1">
         <v>500</v>
       </c>
-      <c r="I126" s="1">
-        <v>100</v>
-      </c>
       <c r="J126" s="3">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="K126" s="1">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="L126" s="5">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B127" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C127" s="8">
-        <v>219.93961435708101</v>
+        <v>34.740374167911497</v>
       </c>
       <c r="D127" s="4">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="E127" s="2">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="F127" s="6">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G127" s="4">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="H127" s="2">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="I127" s="2">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J127" s="4">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="K127" s="2">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="L127" s="6">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B128" s="9" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="C128" s="7">
-        <v>426.38742595105401</v>
+        <v>110.744573336139</v>
       </c>
       <c r="D128" s="3">
-        <v>3800</v>
+        <v>1200</v>
       </c>
       <c r="E128" s="1">
-        <v>5000</v>
+        <v>2300</v>
       </c>
       <c r="F128" s="5">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G128" s="3">
-        <v>2700</v>
+        <v>500</v>
       </c>
       <c r="H128" s="1">
-        <v>3300</v>
+        <v>1100</v>
       </c>
       <c r="I128" s="1">
         <v>600</v>
       </c>
       <c r="J128" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K128" s="1">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L128" s="5">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B129" s="10" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="C129" s="8">
-        <v>100.992624610916</v>
+        <v>84.421644650153496</v>
       </c>
       <c r="D129" s="4">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="E129" s="2">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F129" s="6">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G129" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H129" s="2">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I129" s="2">
         <v>200</v>
       </c>
       <c r="J129" s="4">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K129" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L129" s="6">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B130" s="9" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C130" s="7">
-        <v>299.04491646500099</v>
+        <v>207.29117773237701</v>
       </c>
       <c r="D130" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="E130" s="1">
-        <v>4600</v>
+        <v>5600</v>
       </c>
       <c r="F130" s="5">
+        <v>1500</v>
+      </c>
+      <c r="G130" s="3">
         <v>700</v>
       </c>
-      <c r="G130" s="3">
-        <v>1200</v>
-      </c>
       <c r="H130" s="1">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="I130" s="1">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="J130" s="3">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K130" s="1">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="L130" s="5">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B131" s="10" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="C131" s="8">
-        <v>33.880689348942099</v>
+        <v>70.611976668679802</v>
       </c>
       <c r="D131" s="4">
+        <v>2600</v>
+      </c>
+      <c r="E131" s="2">
+        <v>3000</v>
+      </c>
+      <c r="F131" s="6">
+        <v>400</v>
+      </c>
+      <c r="G131" s="4">
         <v>200</v>
       </c>
-      <c r="E131" s="2">
-        <v>200</v>
-      </c>
-      <c r="F131" s="6">
-        <v>0</v>
-      </c>
-      <c r="G131" s="4">
-        <v>100</v>
-      </c>
       <c r="H131" s="2">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="I131" s="2">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J131" s="4">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="K131" s="2">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="L131" s="6">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B132" s="9" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="C132" s="7">
-        <v>114.989185312942</v>
+        <v>30.938149542212098</v>
       </c>
       <c r="D132" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E132" s="1">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="F132" s="5">
         <v>300</v>
       </c>
       <c r="G132" s="3">
+        <v>100</v>
+      </c>
+      <c r="H132" s="1">
         <v>200</v>
       </c>
-      <c r="H132" s="1">
-        <v>400</v>
-      </c>
       <c r="I132" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J132" s="3">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="K132" s="1">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="L132" s="5">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B133" s="10" t="s">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="C133" s="8">
-        <v>68.478376805279595</v>
+        <v>336.499530098604</v>
       </c>
       <c r="D133" s="4">
-        <v>0</v>
+        <v>14300</v>
       </c>
       <c r="E133" s="2">
-        <v>200</v>
+        <v>17500</v>
       </c>
       <c r="F133" s="6">
-        <v>200</v>
+        <v>3200</v>
       </c>
       <c r="G133" s="4">
         <v>100</v>
       </c>
       <c r="H133" s="2">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="I133" s="2">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="J133" s="4">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="K133" s="2">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="L133" s="6">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B134" s="9" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C134" s="7">
-        <v>23.767310909282902</v>
+        <v>452.61679144507502</v>
       </c>
       <c r="D134" s="3">
-        <v>400</v>
+        <v>12200</v>
       </c>
       <c r="E134" s="1">
-        <v>500</v>
+        <v>15400</v>
       </c>
       <c r="F134" s="5">
-        <v>100</v>
+        <v>3200</v>
       </c>
       <c r="G134" s="3">
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="H134" s="1">
-        <v>100</v>
+        <v>4900</v>
       </c>
       <c r="I134" s="1">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="J134" s="3">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K134" s="1">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="L134" s="5">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B135" s="10" t="s">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="C135" s="8">
-        <v>72.453487665738805</v>
+        <v>23.767310909282902</v>
       </c>
       <c r="D135" s="4">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="E135" s="2">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="F135" s="6">
         <v>200</v>
       </c>
       <c r="G135" s="4">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="H135" s="2">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="I135" s="2">
         <v>100</v>
       </c>
       <c r="J135" s="4">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="K135" s="2">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="L135" s="6">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B136" s="9" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="C136" s="7">
-        <v>452.61679144507599</v>
+        <v>12.650576132046499</v>
       </c>
       <c r="D136" s="3">
-        <v>12200</v>
+        <v>0</v>
       </c>
       <c r="E136" s="1">
-        <v>13000</v>
+        <v>100</v>
       </c>
       <c r="F136" s="5">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G136" s="3">
-        <v>2600</v>
+        <v>100</v>
       </c>
       <c r="H136" s="1">
-        <v>3100</v>
+        <v>100</v>
       </c>
       <c r="I136" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J136" s="3">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="K136" s="1">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="L136" s="5">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B137" s="10" t="s">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="C137" s="8">
-        <v>4.4064962869784701</v>
+        <v>28.7521035349451</v>
       </c>
       <c r="D137" s="4">
         <v>0</v>
       </c>
       <c r="E137" s="2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F137" s="6">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G137" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H137" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I137" s="2">
         <v>0</v>
       </c>
       <c r="J137" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K137" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L137" s="6">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B138" s="9" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="C138" s="7">
-        <v>55.5967114829064</v>
+        <v>33.880689348942099</v>
       </c>
       <c r="D138" s="3">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="E138" s="1">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="F138" s="5">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G138" s="3">
         <v>100</v>
       </c>
       <c r="H138" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I138" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J138" s="3">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="K138" s="1">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L138" s="5">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B139" s="10" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="C139" s="8">
-        <v>30.938149542212098</v>
+        <v>98.052428322630604</v>
       </c>
       <c r="D139" s="4">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E139" s="2">
         <v>700</v>
       </c>
       <c r="F139" s="6">
+        <v>700</v>
+      </c>
+      <c r="G139" s="4">
+        <v>300</v>
+      </c>
+      <c r="H139" s="2">
+        <v>400</v>
+      </c>
+      <c r="I139" s="2">
         <v>100</v>
       </c>
-      <c r="G139" s="4">
-        <v>100</v>
-      </c>
-      <c r="H139" s="2">
-        <v>100</v>
-      </c>
-      <c r="I139" s="2">
-        <v>0</v>
-      </c>
       <c r="J139" s="4">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="K139" s="2">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L139" s="6">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B140" s="9" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="C140" s="7">
-        <v>156.62402664258701</v>
+        <v>74.546396585402107</v>
       </c>
       <c r="D140" s="3">
-        <v>4500</v>
+        <v>1500</v>
       </c>
       <c r="E140" s="1">
-        <v>4700</v>
+        <v>1800</v>
       </c>
       <c r="F140" s="5">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G140" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="H140" s="1">
         <v>700</v>
       </c>
       <c r="I140" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J140" s="3">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K140" s="1">
         <v>34</v>
       </c>
       <c r="L140" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B141" s="10" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="C141" s="8">
-        <v>23.086442578497</v>
+        <v>41.580517344563702</v>
       </c>
       <c r="D141" s="4">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E141" s="2">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="F141" s="6">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G141" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H141" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I141" s="2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J141" s="4">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="K141" s="2">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="L141" s="6">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B142" s="9" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="C142" s="7">
-        <v>126.848809376349</v>
+        <v>55.628335301250502</v>
       </c>
       <c r="D142" s="3">
-        <v>3000</v>
+        <v>200</v>
       </c>
       <c r="E142" s="1">
-        <v>3100</v>
+        <v>600</v>
       </c>
       <c r="F142" s="5">
+        <v>400</v>
+      </c>
+      <c r="G142" s="3">
+        <v>0</v>
+      </c>
+      <c r="H142" s="1">
         <v>100</v>
-      </c>
-      <c r="G142" s="3">
-        <v>600</v>
-      </c>
-      <c r="H142" s="1">
-        <v>700</v>
       </c>
       <c r="I142" s="1">
         <v>100</v>
       </c>
       <c r="J142" s="3">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="K142" s="1">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L142" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B143" s="10" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C143" s="8">
-        <v>98.052428322630504</v>
+        <v>109.53354959624301</v>
       </c>
       <c r="D143" s="4">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="E143" s="2">
-        <v>100</v>
+        <v>3100</v>
       </c>
       <c r="F143" s="6">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G143" s="4">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H143" s="2">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I143" s="2">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J143" s="4">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="K143" s="2">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="L143" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B144" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C144" s="7">
-        <v>8.2216910735482198</v>
+        <v>96.6508128756888</v>
       </c>
       <c r="D144" s="3">
         <v>0</v>
       </c>
       <c r="E144" s="1">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F144" s="5">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G144" s="3">
+        <v>400</v>
+      </c>
+      <c r="H144" s="1">
+        <v>500</v>
+      </c>
+      <c r="I144" s="1">
         <v>100</v>
       </c>
-      <c r="H144" s="1">
-        <v>100</v>
-      </c>
-      <c r="I144" s="1">
-        <v>0</v>
-      </c>
       <c r="J144" s="3">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="K144" s="1">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L144" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B145" s="10" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C145" s="8">
-        <v>96.6508128756888</v>
+        <v>156.62402664258701</v>
       </c>
       <c r="D145" s="4">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="E145" s="2">
-        <v>100</v>
+        <v>4600</v>
       </c>
       <c r="F145" s="6">
         <v>100</v>
       </c>
       <c r="G145" s="4">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="H145" s="2">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="I145" s="2">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="J145" s="4">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="K145" s="2">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="L145" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B146" s="9" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="C146" s="7">
-        <v>845.68579825562199</v>
+        <v>98.245093911622106</v>
       </c>
       <c r="D146" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E146" s="1">
+        <v>2400</v>
+      </c>
+      <c r="F146" s="5">
+        <v>900</v>
+      </c>
+      <c r="G146" s="3">
+        <v>800</v>
+      </c>
+      <c r="H146" s="1">
         <v>500</v>
       </c>
-      <c r="F146" s="5">
-        <v>500</v>
-      </c>
-      <c r="G146" s="3">
-        <v>0</v>
-      </c>
-      <c r="H146" s="1">
-        <v>300</v>
-      </c>
       <c r="I146" s="1">
-        <v>300</v>
+        <v>-300</v>
       </c>
       <c r="J146" s="3">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K146" s="1">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="L146" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B147" s="10" t="s">
-        <v>154</v>
+        <v>27</v>
       </c>
       <c r="C147" s="8">
-        <v>53.9411229196741</v>
+        <v>126.848809376349</v>
       </c>
       <c r="D147" s="4">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="E147" s="2">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="F147" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G147" s="4">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="H147" s="2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="I147" s="2">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J147" s="4">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="K147" s="2">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L147" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B148" s="9" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C148" s="7">
-        <v>28.7521035349451</v>
+        <v>53.9411229196741</v>
       </c>
       <c r="D148" s="3">
         <v>0</v>
       </c>
       <c r="E148" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F148" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G148" s="3">
         <v>100</v>
@@ -6737,45 +6737,45 @@
         <v>0</v>
       </c>
       <c r="J148" s="3">
+        <v>2</v>
+      </c>
+      <c r="K148" s="1">
+        <v>5</v>
+      </c>
+      <c r="L148" s="5">
         <v>3</v>
-      </c>
-      <c r="K148" s="1">
-        <v>4</v>
-      </c>
-      <c r="L148" s="5">
-        <v>1</v>
       </c>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B149" s="10" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="C149" s="8">
-        <v>149.907469235696</v>
+        <v>8.2216910735482198</v>
       </c>
       <c r="D149" s="4">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E149" s="2">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="F149" s="6">
+        <v>0</v>
+      </c>
+      <c r="G149" s="4">
         <v>100</v>
       </c>
-      <c r="G149" s="4">
-        <v>300</v>
-      </c>
       <c r="H149" s="2">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I149" s="2">
         <v>0</v>
       </c>
       <c r="J149" s="4">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="K149" s="2">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="L149" s="6">
         <v>1</v>
@@ -6783,19 +6783,19 @@
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B150" s="9" t="s">
-        <v>155</v>
+        <v>104</v>
       </c>
       <c r="C150" s="7">
-        <v>125.609566144543</v>
+        <v>65.625240951786495</v>
       </c>
       <c r="D150" s="3">
-        <v>4700</v>
+        <v>0</v>
       </c>
       <c r="E150" s="1">
-        <v>4700</v>
+        <v>100</v>
       </c>
       <c r="F150" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G150" s="3">
         <v>0</v>
@@ -6807,80 +6807,80 @@
         <v>0</v>
       </c>
       <c r="J150" s="3">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="K150" s="1">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="L150" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B151" s="10" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C151" s="8">
-        <v>65.625240951786495</v>
+        <v>845.68579825562199</v>
       </c>
       <c r="D151" s="4">
         <v>0</v>
       </c>
       <c r="E151" s="2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="F151" s="6">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="G151" s="4">
         <v>0</v>
       </c>
       <c r="H151" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I151" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J151" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K151" s="2">
         <v>1</v>
       </c>
       <c r="L151" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B152" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C152" s="7">
-        <v>98.245093911622106</v>
+        <v>125.609566144543</v>
       </c>
       <c r="D152" s="3">
-        <v>1500</v>
+        <v>4700</v>
       </c>
       <c r="E152" s="1">
-        <v>1600</v>
+        <v>4700</v>
       </c>
       <c r="F152" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G152" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="H152" s="1">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="I152" s="1">
         <v>0</v>
       </c>
       <c r="J152" s="3">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="K152" s="1">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="L152" s="5">
         <v>0</v>
@@ -6888,34 +6888,34 @@
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B153" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C153" s="8">
-        <v>303.504072514754</v>
+        <v>72.453487665738805</v>
       </c>
       <c r="D153" s="4">
-        <v>13300</v>
+        <v>1600</v>
       </c>
       <c r="E153" s="2">
-        <v>13300</v>
+        <v>1800</v>
       </c>
       <c r="F153" s="6">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G153" s="4">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H153" s="2">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="I153" s="2">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J153" s="4">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="K153" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="L153" s="6">
         <v>0</v>
@@ -6923,34 +6923,34 @@
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B154" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C154" s="7">
-        <v>2.7386570445659402</v>
+        <v>303.504072514754</v>
       </c>
       <c r="D154" s="3">
-        <v>0</v>
+        <v>13300</v>
       </c>
       <c r="E154" s="1">
-        <v>0</v>
+        <v>13300</v>
       </c>
       <c r="F154" s="5">
         <v>0</v>
       </c>
       <c r="G154" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H154" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I154" s="1">
         <v>0</v>
       </c>
       <c r="J154" s="3">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="K154" s="1">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="L154" s="5">
         <v>0</v>
@@ -6959,34 +6959,34 @@
     <row r="155" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B155" s="11"/>
       <c r="C155" s="12">
-        <v>36374.3731105755</v>
+        <v>36374.373110575601</v>
       </c>
       <c r="D155" s="13">
         <v>483900</v>
       </c>
       <c r="E155" s="14">
-        <v>1009900</v>
+        <v>2192900</v>
       </c>
       <c r="F155" s="15">
-        <v>526000</v>
+        <v>1709000</v>
       </c>
       <c r="G155" s="13">
         <v>84000</v>
       </c>
       <c r="H155" s="14">
-        <v>341800</v>
+        <v>538800</v>
       </c>
       <c r="I155" s="14">
-        <v>257800</v>
+        <v>454800</v>
       </c>
       <c r="J155" s="13">
         <v>16</v>
       </c>
       <c r="K155" s="14">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="L155" s="15">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
